--- a/sample.xlsx
+++ b/sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -22,541 +22,114 @@
     <t>Unip Acc.</t>
   </si>
   <si>
-    <t>BioPep00001</t>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E7AIL2</t>
+    <t>Family</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BioPep00003</t>
+    <t>BioPep00214</t>
   </si>
   <si>
-    <t>BioPep00004</t>
+    <t>B0M2U5</t>
   </si>
   <si>
-    <t>P86812</t>
+    <t>BioPep00215</t>
   </si>
   <si>
-    <t>BioPep00005</t>
+    <t>B0M3C0</t>
   </si>
   <si>
-    <t>P86813</t>
+    <t>BioPep00216</t>
   </si>
   <si>
-    <t>BioPep00006</t>
+    <t>B0M3E1</t>
   </si>
   <si>
-    <t>P86814</t>
+    <t>BioPep00217</t>
   </si>
   <si>
-    <t>BioPep00007</t>
+    <t>B3A056</t>
   </si>
   <si>
-    <t>P86815</t>
+    <t>BioPep00218</t>
   </si>
   <si>
-    <t>BioPep00008</t>
+    <t>B3A075</t>
   </si>
   <si>
-    <t>P86818</t>
+    <t>BioPep00219</t>
   </si>
   <si>
-    <t>BioPep00009</t>
+    <t>B3A094</t>
   </si>
   <si>
-    <t>P83056</t>
+    <t>BioPep00220</t>
   </si>
   <si>
-    <t>BioPep00010</t>
+    <t>B3A0B4</t>
   </si>
   <si>
-    <t>BioPep00011</t>
+    <t>BioPep00221</t>
   </si>
   <si>
-    <t>BioPep00002</t>
+    <t>B3A0D3</t>
   </si>
   <si>
-    <t>P86816</t>
+    <t>BioPep00222</t>
   </si>
   <si>
-    <t>P86817</t>
+    <t>B3A0F2</t>
   </si>
   <si>
-    <t>P86625</t>
+    <t>BioPep00223</t>
   </si>
   <si>
-    <t>P86026</t>
+    <t>B3A0H0</t>
   </si>
   <si>
-    <t>BioPep00012</t>
+    <t>BioPep00224</t>
   </si>
   <si>
-    <t>P86035</t>
+    <t>B3A0J0</t>
   </si>
   <si>
-    <t>BioPep00013</t>
+    <t>BioPep00225</t>
   </si>
   <si>
-    <t>P21850</t>
+    <t>B3A0K9</t>
   </si>
   <si>
-    <t>BioPep00014</t>
+    <t>BioPep00226</t>
   </si>
   <si>
-    <t>BioPep00015</t>
+    <t>B3EWM7</t>
   </si>
   <si>
-    <t>BioPep00016</t>
+    <t>BioPep00227</t>
   </si>
   <si>
-    <t>BioPep00017</t>
+    <t>D8KXX1</t>
   </si>
   <si>
-    <t>P58786</t>
+    <t>BioPep00228</t>
   </si>
   <si>
-    <t>BioPep00018</t>
+    <t>P14595</t>
   </si>
   <si>
-    <t>P86634</t>
+    <t>BioPep00229</t>
   </si>
   <si>
-    <t>BioPep00019</t>
+    <t>P25418</t>
   </si>
   <si>
-    <t>P85885</t>
+    <t>BioPep00230</t>
   </si>
   <si>
-    <t>BioPep00020</t>
-  </si>
-  <si>
-    <t>O93456</t>
-  </si>
-  <si>
-    <t>BioPep00021</t>
-  </si>
-  <si>
-    <t>P08948</t>
-  </si>
-  <si>
-    <t>BioPep00022</t>
-  </si>
-  <si>
-    <t>P08947</t>
-  </si>
-  <si>
-    <t>BioPep00023</t>
-  </si>
-  <si>
-    <t>Q9YGH3</t>
-  </si>
-  <si>
-    <t>BioPep00024</t>
-  </si>
-  <si>
-    <t>Q9W7E9</t>
-  </si>
-  <si>
-    <t>BioPep00025</t>
-  </si>
-  <si>
-    <t>P87385</t>
-  </si>
-  <si>
-    <t>BioPep00026</t>
-  </si>
-  <si>
-    <t>BioPep00027</t>
-  </si>
-  <si>
-    <t>BioPep00028</t>
-  </si>
-  <si>
-    <t>Q0VTT9</t>
-  </si>
-  <si>
-    <t>BioPep00029</t>
-  </si>
-  <si>
-    <t>P86157</t>
-  </si>
-  <si>
-    <t>BioPep00030</t>
-  </si>
-  <si>
-    <t>P12797</t>
-  </si>
-  <si>
-    <t>BioPep00031</t>
-  </si>
-  <si>
-    <t>P83058</t>
-  </si>
-  <si>
-    <t>BioPep00032</t>
-  </si>
-  <si>
-    <t>P83059</t>
-  </si>
-  <si>
-    <t>BioPep00033</t>
-  </si>
-  <si>
-    <t>P83659</t>
-  </si>
-  <si>
-    <t>BioPep00034</t>
-  </si>
-  <si>
-    <t>P84497</t>
-  </si>
-  <si>
-    <t>BioPep00035</t>
-  </si>
-  <si>
-    <t>P84896</t>
-  </si>
-  <si>
-    <t>BioPep00036</t>
-  </si>
-  <si>
-    <t>BioPep00037</t>
-  </si>
-  <si>
-    <t>P86629</t>
-  </si>
-  <si>
-    <t>BioPep00038</t>
-  </si>
-  <si>
-    <t>BioPep00039</t>
-  </si>
-  <si>
-    <t>Q800F1</t>
-  </si>
-  <si>
-    <t>BioPep00040</t>
-  </si>
-  <si>
-    <t>P84901</t>
-  </si>
-  <si>
-    <t>BioPep00041</t>
-  </si>
-  <si>
-    <t>P86632</t>
-  </si>
-  <si>
-    <t>BioPep00042</t>
-  </si>
-  <si>
-    <t>BioPep00043</t>
-  </si>
-  <si>
-    <t>P84773</t>
-  </si>
-  <si>
-    <t>BioPep00044</t>
-  </si>
-  <si>
-    <t>P84774</t>
-  </si>
-  <si>
-    <t>BioPep00045</t>
-  </si>
-  <si>
-    <t>P01170</t>
-  </si>
-  <si>
-    <t>BioPep00046</t>
-  </si>
-  <si>
-    <t>P09876</t>
-  </si>
-  <si>
-    <t>BioPep00047</t>
-  </si>
-  <si>
-    <t>P21780</t>
-  </si>
-  <si>
-    <t>BioPep00048</t>
-  </si>
-  <si>
-    <t>P81029</t>
-  </si>
-  <si>
-    <t>BioPep00049</t>
-  </si>
-  <si>
-    <t>Q91194</t>
-  </si>
-  <si>
-    <t>BioPep00050</t>
-  </si>
-  <si>
-    <t>Q9YGH4</t>
-  </si>
-  <si>
-    <t>BioPep00051</t>
-  </si>
-  <si>
-    <t>BioPep00052</t>
-  </si>
-  <si>
-    <t>BioPep00053</t>
-  </si>
-  <si>
-    <t>BioPep00054</t>
-  </si>
-  <si>
-    <t>BioPep00055</t>
-  </si>
-  <si>
-    <t>BioPep00056</t>
-  </si>
-  <si>
-    <t>BioPep00057</t>
-  </si>
-  <si>
-    <t>Q0VTT8</t>
-  </si>
-  <si>
-    <t>BioPep00058</t>
-  </si>
-  <si>
-    <t>P84897</t>
-  </si>
-  <si>
-    <t>BioPep00059</t>
-  </si>
-  <si>
-    <t>P84935</t>
-  </si>
-  <si>
-    <t>BioPep00060</t>
-  </si>
-  <si>
-    <t>BioPep00061</t>
-  </si>
-  <si>
-    <t>P83057</t>
-  </si>
-  <si>
-    <t>BioPep00062</t>
-  </si>
-  <si>
-    <t>P84673</t>
-  </si>
-  <si>
-    <t>BioPep00063</t>
-  </si>
-  <si>
-    <t>P84894</t>
-  </si>
-  <si>
-    <t>BioPep00064</t>
-  </si>
-  <si>
-    <t>Q0VTU0</t>
-  </si>
-  <si>
-    <t>BioPep00065</t>
-  </si>
-  <si>
-    <t>P84899</t>
-  </si>
-  <si>
-    <t>BioPep00066</t>
-  </si>
-  <si>
-    <t>BioPep00067</t>
-  </si>
-  <si>
-    <t>P84898</t>
-  </si>
-  <si>
-    <t>BioPep00068</t>
-  </si>
-  <si>
-    <t>Q3MQ28</t>
-  </si>
-  <si>
-    <t>BioPep00069</t>
-  </si>
-  <si>
-    <t>P84745</t>
-  </si>
-  <si>
-    <t>BioPep00070</t>
-  </si>
-  <si>
-    <t>P84746</t>
-  </si>
-  <si>
-    <t>BioPep00071</t>
-  </si>
-  <si>
-    <t>P84747</t>
-  </si>
-  <si>
-    <t>BioPep00072</t>
-  </si>
-  <si>
-    <t>P26202</t>
-  </si>
-  <si>
-    <t>BioPep00073</t>
-  </si>
-  <si>
-    <t>P26203</t>
-  </si>
-  <si>
-    <t>BioPep00074</t>
-  </si>
-  <si>
-    <t>P9WJ62</t>
-  </si>
-  <si>
-    <t>BioPep00075</t>
-  </si>
-  <si>
-    <t>P9WJ63</t>
-  </si>
-  <si>
-    <t>BioPep00076</t>
-  </si>
-  <si>
-    <t>P81925</t>
-  </si>
-  <si>
-    <t>BioPep00077</t>
-  </si>
-  <si>
-    <t>P86783</t>
-  </si>
-  <si>
-    <t>BioPep00078</t>
-  </si>
-  <si>
-    <t>BioPep00079</t>
-  </si>
-  <si>
-    <t>Q10722</t>
-  </si>
-  <si>
-    <t>BioPep00080</t>
-  </si>
-  <si>
-    <t>P41965</t>
-  </si>
-  <si>
-    <t>BioPep00081</t>
-  </si>
-  <si>
-    <t>P56686</t>
-  </si>
-  <si>
-    <t>BioPep00082</t>
-  </si>
-  <si>
-    <t>P83328</t>
-  </si>
-  <si>
-    <t>BioPep00083</t>
-  </si>
-  <si>
-    <t>P05516</t>
-  </si>
-  <si>
-    <t>BioPep00084</t>
-  </si>
-  <si>
-    <t>P06575</t>
-  </si>
-  <si>
-    <t>BioPep00085</t>
-  </si>
-  <si>
-    <t>P12963</t>
-  </si>
-  <si>
-    <t>BioPep00086</t>
-  </si>
-  <si>
-    <t>P69053</t>
-  </si>
-  <si>
-    <t>BioPep00087</t>
-  </si>
-  <si>
-    <t>Q5ZT84</t>
-  </si>
-  <si>
-    <t>BioPep00088</t>
-  </si>
-  <si>
-    <t>P15131</t>
-  </si>
-  <si>
-    <t>BioPep00089</t>
-  </si>
-  <si>
-    <t>P56029</t>
-  </si>
-  <si>
-    <t>BioPep00090</t>
-  </si>
-  <si>
-    <t>Q0ZZJ6</t>
-  </si>
-  <si>
-    <t>BioPep00091</t>
-  </si>
-  <si>
-    <t>A0RZC6</t>
-  </si>
-  <si>
-    <t>BioPep00092</t>
-  </si>
-  <si>
-    <t>A5PG36</t>
-  </si>
-  <si>
-    <t>BioPep00093</t>
-  </si>
-  <si>
-    <t>A5PG37</t>
-  </si>
-  <si>
-    <t>BioPep00094</t>
-  </si>
-  <si>
-    <t>A5PG38</t>
-  </si>
-  <si>
-    <t>BioPep00095</t>
-  </si>
-  <si>
-    <t>B2FUW2</t>
-  </si>
-  <si>
-    <t>BioPep00096</t>
-  </si>
-  <si>
-    <t>P41855</t>
-  </si>
-  <si>
-    <t>BioPep00097</t>
-  </si>
-  <si>
-    <t>Q16N80</t>
-  </si>
-  <si>
-    <t>BioPep00098</t>
-  </si>
-  <si>
-    <t>Q7PTL2</t>
+    <t>P61855</t>
   </si>
 </sst>
 </file>
@@ -908,808 +481,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10001"/>
+  <dimension ref="A1:D9989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A980" workbookViewId="0">
-      <selection activeCell="F993" sqref="F993"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>172</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
@@ -41270,54 +40526,6 @@
     <row r="9989" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9989" s="1"/>
       <c r="B9989" s="1"/>
-    </row>
-    <row r="9990" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9990" s="1"/>
-      <c r="B9990" s="1"/>
-    </row>
-    <row r="9991" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9991" s="1"/>
-      <c r="B9991" s="1"/>
-    </row>
-    <row r="9992" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9992" s="1"/>
-      <c r="B9992" s="1"/>
-    </row>
-    <row r="9993" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9993" s="1"/>
-      <c r="B9993" s="1"/>
-    </row>
-    <row r="9994" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9994" s="1"/>
-      <c r="B9994" s="1"/>
-    </row>
-    <row r="9995" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9995" s="1"/>
-      <c r="B9995" s="1"/>
-    </row>
-    <row r="9996" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9996" s="1"/>
-      <c r="B9996" s="1"/>
-    </row>
-    <row r="9997" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9997" s="1"/>
-      <c r="B9997" s="1"/>
-    </row>
-    <row r="9998" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9998" s="1"/>
-      <c r="B9998" s="1"/>
-    </row>
-    <row r="9999" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9999" s="1"/>
-      <c r="B9999" s="1"/>
-    </row>
-    <row r="10000" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10000" s="1"/>
-      <c r="B10000" s="1"/>
-    </row>
-    <row r="10001" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10001" s="1"/>
-      <c r="B10001" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="445">
   <si>
     <t>ID</t>
   </si>
@@ -30,6 +30,885 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BioPep00050</t>
+  </si>
+  <si>
+    <t>Q9YGH4</t>
+  </si>
+  <si>
+    <t>BioPep00051</t>
+  </si>
+  <si>
+    <t>P01170</t>
+  </si>
+  <si>
+    <t>BioPep00052</t>
+  </si>
+  <si>
+    <t>P09876</t>
+  </si>
+  <si>
+    <t>BioPep00053</t>
+  </si>
+  <si>
+    <t>P21780</t>
+  </si>
+  <si>
+    <t>BioPep00054</t>
+  </si>
+  <si>
+    <t>P81029</t>
+  </si>
+  <si>
+    <t>BioPep00055</t>
+  </si>
+  <si>
+    <t>Q91194</t>
+  </si>
+  <si>
+    <t>BioPep00056</t>
+  </si>
+  <si>
+    <t>BioPep00057</t>
+  </si>
+  <si>
+    <t>Q0VTT8</t>
+  </si>
+  <si>
+    <t>BioPep00058</t>
+  </si>
+  <si>
+    <t>P84897</t>
+  </si>
+  <si>
+    <t>BioPep00059</t>
+  </si>
+  <si>
+    <t>P84935</t>
+  </si>
+  <si>
+    <t>BioPep00060</t>
+  </si>
+  <si>
+    <t>BioPep00061</t>
+  </si>
+  <si>
+    <t>P83057</t>
+  </si>
+  <si>
+    <t>BioPep00062</t>
+  </si>
+  <si>
+    <t>P84673</t>
+  </si>
+  <si>
+    <t>BioPep00063</t>
+  </si>
+  <si>
+    <t>P84894</t>
+  </si>
+  <si>
+    <t>BioPep00064</t>
+  </si>
+  <si>
+    <t>Q0VTU0</t>
+  </si>
+  <si>
+    <t>BioPep00065</t>
+  </si>
+  <si>
+    <t>P84899</t>
+  </si>
+  <si>
+    <t>BioPep00066</t>
+  </si>
+  <si>
+    <t>BioPep00067</t>
+  </si>
+  <si>
+    <t>P84898</t>
+  </si>
+  <si>
+    <t>BioPep00068</t>
+  </si>
+  <si>
+    <t>Q3MQ28</t>
+  </si>
+  <si>
+    <t>BioPep00069</t>
+  </si>
+  <si>
+    <t>P84745</t>
+  </si>
+  <si>
+    <t>BioPep00070</t>
+  </si>
+  <si>
+    <t>P84746</t>
+  </si>
+  <si>
+    <t>BioPep00071</t>
+  </si>
+  <si>
+    <t>P84747</t>
+  </si>
+  <si>
+    <t>BioPep00072</t>
+  </si>
+  <si>
+    <t>P26202</t>
+  </si>
+  <si>
+    <t>BioPep00073</t>
+  </si>
+  <si>
+    <t>P26203</t>
+  </si>
+  <si>
+    <t>BioPep00074</t>
+  </si>
+  <si>
+    <t>P9WJ62</t>
+  </si>
+  <si>
+    <t>BioPep00075</t>
+  </si>
+  <si>
+    <t>P9WJ63</t>
+  </si>
+  <si>
+    <t>BioPep00076</t>
+  </si>
+  <si>
+    <t>P81925</t>
+  </si>
+  <si>
+    <t>BioPep00077</t>
+  </si>
+  <si>
+    <t>P86783</t>
+  </si>
+  <si>
+    <t>BioPep00078</t>
+  </si>
+  <si>
+    <t>BioPep00079</t>
+  </si>
+  <si>
+    <t>Q10722</t>
+  </si>
+  <si>
+    <t>BioPep00080</t>
+  </si>
+  <si>
+    <t>P41965</t>
+  </si>
+  <si>
+    <t>BioPep00081</t>
+  </si>
+  <si>
+    <t>P56686</t>
+  </si>
+  <si>
+    <t>BioPep00082</t>
+  </si>
+  <si>
+    <t>P83328</t>
+  </si>
+  <si>
+    <t>BioPep00083</t>
+  </si>
+  <si>
+    <t>P05516</t>
+  </si>
+  <si>
+    <t>BioPep00084</t>
+  </si>
+  <si>
+    <t>P06575</t>
+  </si>
+  <si>
+    <t>BioPep00085</t>
+  </si>
+  <si>
+    <t>P12963</t>
+  </si>
+  <si>
+    <t>BioPep00086</t>
+  </si>
+  <si>
+    <t>P69053</t>
+  </si>
+  <si>
+    <t>BioPep00087</t>
+  </si>
+  <si>
+    <t>Q5ZT84</t>
+  </si>
+  <si>
+    <t>BioPep00088</t>
+  </si>
+  <si>
+    <t>P15131</t>
+  </si>
+  <si>
+    <t>BioPep00089</t>
+  </si>
+  <si>
+    <t>P56029</t>
+  </si>
+  <si>
+    <t>BioPep00090</t>
+  </si>
+  <si>
+    <t>Q0ZZJ6</t>
+  </si>
+  <si>
+    <t>BioPep00091</t>
+  </si>
+  <si>
+    <t>A0RZC6</t>
+  </si>
+  <si>
+    <t>BioPep00092</t>
+  </si>
+  <si>
+    <t>A5PG36</t>
+  </si>
+  <si>
+    <t>BioPep00093</t>
+  </si>
+  <si>
+    <t>A5PG37</t>
+  </si>
+  <si>
+    <t>BioPep00094</t>
+  </si>
+  <si>
+    <t>A5PG38</t>
+  </si>
+  <si>
+    <t>BioPep00095</t>
+  </si>
+  <si>
+    <t>B2FUW2</t>
+  </si>
+  <si>
+    <t>BioPep00096</t>
+  </si>
+  <si>
+    <t>P41855</t>
+  </si>
+  <si>
+    <t>BioPep00097</t>
+  </si>
+  <si>
+    <t>Q16N80</t>
+  </si>
+  <si>
+    <t>BioPep00098</t>
+  </si>
+  <si>
+    <t>Q7PTL2</t>
+  </si>
+  <si>
+    <t>BioPep00099</t>
+  </si>
+  <si>
+    <t>O44185</t>
+  </si>
+  <si>
+    <t>BioPep00100</t>
+  </si>
+  <si>
+    <t>BioPep00101</t>
+  </si>
+  <si>
+    <t>P10552</t>
+  </si>
+  <si>
+    <t>BioPep00102</t>
+  </si>
+  <si>
+    <t>Q9NDE8</t>
+  </si>
+  <si>
+    <t>BioPep00103</t>
+  </si>
+  <si>
+    <t>P15450</t>
+  </si>
+  <si>
+    <t>BioPep00104</t>
+  </si>
+  <si>
+    <t>P81463</t>
+  </si>
+  <si>
+    <t>BioPep00105</t>
+  </si>
+  <si>
+    <t>P06518</t>
+  </si>
+  <si>
+    <t>BioPep00106</t>
+  </si>
+  <si>
+    <t>P81592</t>
+  </si>
+  <si>
+    <t>BioPep00107</t>
+  </si>
+  <si>
+    <t>BioPep00108</t>
+  </si>
+  <si>
+    <t>BioPep00109</t>
+  </si>
+  <si>
+    <t>BioPep00110</t>
+  </si>
+  <si>
+    <t>BioPep00111</t>
+  </si>
+  <si>
+    <t>Q8I948</t>
+  </si>
+  <si>
+    <t>BioPep00112</t>
+  </si>
+  <si>
+    <t>Q8I6R7</t>
+  </si>
+  <si>
+    <t>BioPep00113</t>
+  </si>
+  <si>
+    <t>P38441</t>
+  </si>
+  <si>
+    <t>BioPep00114</t>
+  </si>
+  <si>
+    <t>P16548</t>
+  </si>
+  <si>
+    <t>BioPep00115</t>
+  </si>
+  <si>
+    <t>P25681</t>
+  </si>
+  <si>
+    <t>BioPep00116</t>
+  </si>
+  <si>
+    <t>P35903</t>
+  </si>
+  <si>
+    <t>BioPep00117</t>
+  </si>
+  <si>
+    <t>P35904</t>
+  </si>
+  <si>
+    <t>BioPep00118</t>
+  </si>
+  <si>
+    <t>P29002</t>
+  </si>
+  <si>
+    <t>BioPep00119</t>
+  </si>
+  <si>
+    <t>P29004</t>
+  </si>
+  <si>
+    <t>BioPep00120</t>
+  </si>
+  <si>
+    <t>P29006</t>
+  </si>
+  <si>
+    <t>BioPep00121</t>
+  </si>
+  <si>
+    <t>BioPep00122</t>
+  </si>
+  <si>
+    <t>BioPep00123</t>
+  </si>
+  <si>
+    <t>BioPep00124</t>
+  </si>
+  <si>
+    <t>P82286</t>
+  </si>
+  <si>
+    <t>BioPep00125</t>
+  </si>
+  <si>
+    <t>BioPep00126</t>
+  </si>
+  <si>
+    <t>BioPep00127</t>
+  </si>
+  <si>
+    <t>BioPep00128</t>
+  </si>
+  <si>
+    <t>P01362</t>
+  </si>
+  <si>
+    <t>BioPep00129</t>
+  </si>
+  <si>
+    <t>P17685</t>
+  </si>
+  <si>
+    <t>BioPep00130</t>
+  </si>
+  <si>
+    <t>P17686</t>
+  </si>
+  <si>
+    <t>BioPep00131</t>
+  </si>
+  <si>
+    <t>BioPep00132</t>
+  </si>
+  <si>
+    <t>BioPep00133</t>
+  </si>
+  <si>
+    <t>BioPep00134</t>
+  </si>
+  <si>
+    <t>BioPep00135</t>
+  </si>
+  <si>
+    <t>BioPep00136</t>
+  </si>
+  <si>
+    <t>BioPep00137</t>
+  </si>
+  <si>
+    <t>BioPep00138</t>
+  </si>
+  <si>
+    <t>P30811</t>
+  </si>
+  <si>
+    <t>BioPep00139</t>
+  </si>
+  <si>
+    <t>P23028</t>
+  </si>
+  <si>
+    <t>BioPep00140</t>
+  </si>
+  <si>
+    <t>P04084</t>
+  </si>
+  <si>
+    <t>BioPep00141</t>
+  </si>
+  <si>
+    <t>A4VBF0</t>
+  </si>
+  <si>
+    <t>BioPep00142</t>
+  </si>
+  <si>
+    <t>Q10754</t>
+  </si>
+  <si>
+    <t>BioPep00143</t>
+  </si>
+  <si>
+    <t>Q8JFG1</t>
+  </si>
+  <si>
+    <t>BioPep00144</t>
+  </si>
+  <si>
+    <t>P01538</t>
+  </si>
+  <si>
+    <t>BioPep00145</t>
+  </si>
+  <si>
+    <t>P01543</t>
+  </si>
+  <si>
+    <t>BioPep00146</t>
+  </si>
+  <si>
+    <t>P01544</t>
+  </si>
+  <si>
+    <t>BioPep00147</t>
+  </si>
+  <si>
+    <t>P01545</t>
+  </si>
+  <si>
+    <t>BioPep00148</t>
+  </si>
+  <si>
+    <t>P08772</t>
+  </si>
+  <si>
+    <t>BioPep00149</t>
+  </si>
+  <si>
+    <t>P08943</t>
+  </si>
+  <si>
+    <t>BioPep00150</t>
+  </si>
+  <si>
+    <t>P09617</t>
+  </si>
+  <si>
+    <t>BioPep00151</t>
+  </si>
+  <si>
+    <t>P09618</t>
+  </si>
+  <si>
+    <t>BioPep00152</t>
+  </si>
+  <si>
+    <t>P21742</t>
+  </si>
+  <si>
+    <t>BioPep00153</t>
+  </si>
+  <si>
+    <t>P32032</t>
+  </si>
+  <si>
+    <t>BioPep00154</t>
+  </si>
+  <si>
+    <t>Q05806</t>
+  </si>
+  <si>
+    <t>BioPep00155</t>
+  </si>
+  <si>
+    <t>Q42596</t>
+  </si>
+  <si>
+    <t>BioPep00156</t>
+  </si>
+  <si>
+    <t>Q42597</t>
+  </si>
+  <si>
+    <t>BioPep00157</t>
+  </si>
+  <si>
+    <t>Q42838</t>
+  </si>
+  <si>
+    <t>BioPep00158</t>
+  </si>
+  <si>
+    <t>Q8H0Q5</t>
+  </si>
+  <si>
+    <t>BioPep00159</t>
+  </si>
+  <si>
+    <t>Q8VZK8</t>
+  </si>
+  <si>
+    <t>BioPep00160</t>
+  </si>
+  <si>
+    <t>Q9C8D6</t>
+  </si>
+  <si>
+    <t>BioPep00161</t>
+  </si>
+  <si>
+    <t>Q9SBK8</t>
+  </si>
+  <si>
+    <t>BioPep00162</t>
+  </si>
+  <si>
+    <t>P23785</t>
+  </si>
+  <si>
+    <t>BioPep00163</t>
+  </si>
+  <si>
+    <t>P28797</t>
+  </si>
+  <si>
+    <t>BioPep00164</t>
+  </si>
+  <si>
+    <t>P28798</t>
+  </si>
+  <si>
+    <t>BioPep00165</t>
+  </si>
+  <si>
+    <t>P28799</t>
+  </si>
+  <si>
+    <t>BioPep00166</t>
+  </si>
+  <si>
+    <t>Q3C258</t>
+  </si>
+  <si>
+    <t>BioPep00167</t>
+  </si>
+  <si>
+    <t>Q3C257</t>
+  </si>
+  <si>
+    <t>BioPep00168</t>
+  </si>
+  <si>
+    <t>Q3C256</t>
+  </si>
+  <si>
+    <t>BioPep00169</t>
+  </si>
+  <si>
+    <t>Q3C255</t>
+  </si>
+  <si>
+    <t>BioPep00170</t>
+  </si>
+  <si>
+    <t>A0A060QMI6</t>
+  </si>
+  <si>
+    <t>BioPep00171</t>
+  </si>
+  <si>
+    <t>Q6V1X3</t>
+  </si>
+  <si>
+    <t>BioPep00172</t>
+  </si>
+  <si>
+    <t>Q6V1X4</t>
+  </si>
+  <si>
+    <t>BioPep00173</t>
+  </si>
+  <si>
+    <t>Q6V1X5</t>
+  </si>
+  <si>
+    <t>BioPep00174</t>
+  </si>
+  <si>
+    <t>Q6V1X6</t>
+  </si>
+  <si>
+    <t>BioPep00175</t>
+  </si>
+  <si>
+    <t>Q2TM75</t>
+  </si>
+  <si>
+    <t>BioPep00176</t>
+  </si>
+  <si>
+    <t>Q6X2S3</t>
+  </si>
+  <si>
+    <t>BioPep00177</t>
+  </si>
+  <si>
+    <t>Q95KP1</t>
+  </si>
+  <si>
+    <t>BioPep00178</t>
+  </si>
+  <si>
+    <t>Q95KP2</t>
+  </si>
+  <si>
+    <t>BioPep00179</t>
+  </si>
+  <si>
+    <t>Q9DGE6</t>
+  </si>
+  <si>
+    <t>BioPep00180</t>
+  </si>
+  <si>
+    <t>Q9DGE7</t>
+  </si>
+  <si>
+    <t>BioPep00181</t>
+  </si>
+  <si>
+    <t>Q9DGE8</t>
+  </si>
+  <si>
+    <t>BioPep00182</t>
+  </si>
+  <si>
+    <t>Q9DGE9</t>
+  </si>
+  <si>
+    <t>BioPep00183</t>
+  </si>
+  <si>
+    <t>Q9DGF0</t>
+  </si>
+  <si>
+    <t>BioPep00184</t>
+  </si>
+  <si>
+    <t>Q9DGF1</t>
+  </si>
+  <si>
+    <t>BioPep00185</t>
+  </si>
+  <si>
+    <t>Q9DGF2</t>
+  </si>
+  <si>
+    <t>BioPep00186</t>
+  </si>
+  <si>
+    <t>O34163</t>
+  </si>
+  <si>
+    <t>BioPep00187</t>
+  </si>
+  <si>
+    <t>P31107</t>
+  </si>
+  <si>
+    <t>BioPep00188</t>
+  </si>
+  <si>
+    <t>C8Z3D5</t>
+  </si>
+  <si>
+    <t>BioPep00189</t>
+  </si>
+  <si>
+    <t>Q16NE8</t>
+  </si>
+  <si>
+    <t>BioPep00190</t>
+  </si>
+  <si>
+    <t>BioPep00191</t>
+  </si>
+  <si>
+    <t>P18829</t>
+  </si>
+  <si>
+    <t>BioPep00192</t>
+  </si>
+  <si>
+    <t>P18830</t>
+  </si>
+  <si>
+    <t>BioPep00193</t>
+  </si>
+  <si>
+    <t>P55319</t>
+  </si>
+  <si>
+    <t>BioPep00194</t>
+  </si>
+  <si>
+    <t>BioPep00195</t>
+  </si>
+  <si>
+    <t>C8Z3D4</t>
+  </si>
+  <si>
+    <t>BioPep00196</t>
+  </si>
+  <si>
+    <t>C8Z3D9</t>
+  </si>
+  <si>
+    <t>BioPep00197</t>
+  </si>
+  <si>
+    <t>BioPep00198</t>
+  </si>
+  <si>
+    <t>BioPep00199</t>
+  </si>
+  <si>
+    <t>P08379</t>
+  </si>
+  <si>
+    <t>BioPep00200</t>
+  </si>
+  <si>
+    <t>P35807</t>
+  </si>
+  <si>
+    <t>BioPep00201</t>
+  </si>
+  <si>
+    <t>P35808</t>
+  </si>
+  <si>
+    <t>BioPep00202</t>
+  </si>
+  <si>
+    <t>P19872</t>
+  </si>
+  <si>
+    <t>BioPep00203</t>
+  </si>
+  <si>
+    <t>P67785</t>
+  </si>
+  <si>
+    <t>BioPep00204</t>
+  </si>
+  <si>
+    <t>BioPep00205</t>
+  </si>
+  <si>
+    <t>A0ZWH7</t>
+  </si>
+  <si>
+    <t>BioPep00206</t>
+  </si>
+  <si>
+    <t>BioPep00207</t>
+  </si>
+  <si>
+    <t>BioPep00208</t>
+  </si>
+  <si>
+    <t>BioPep00209</t>
+  </si>
+  <si>
+    <t>BioPep00210</t>
+  </si>
+  <si>
+    <t>BioPep00211</t>
+  </si>
+  <si>
+    <t>BioPep00212</t>
+  </si>
+  <si>
+    <t>BioPep00213</t>
+  </si>
+  <si>
     <t>BioPep00214</t>
   </si>
   <si>
@@ -130,13 +1009,355 @@
   </si>
   <si>
     <t>P61855</t>
+  </si>
+  <si>
+    <t>BioPep00231</t>
+  </si>
+  <si>
+    <t>P61856</t>
+  </si>
+  <si>
+    <t>BioPep00232</t>
+  </si>
+  <si>
+    <t>P67786</t>
+  </si>
+  <si>
+    <t>BioPep00233</t>
+  </si>
+  <si>
+    <t>P67787</t>
+  </si>
+  <si>
+    <t>BioPep00234</t>
+  </si>
+  <si>
+    <t>P67788</t>
+  </si>
+  <si>
+    <t>BioPep00235</t>
+  </si>
+  <si>
+    <t>P84240</t>
+  </si>
+  <si>
+    <t>BioPep00236</t>
+  </si>
+  <si>
+    <t>P84241</t>
+  </si>
+  <si>
+    <t>BioPep00237</t>
+  </si>
+  <si>
+    <t>P84242</t>
+  </si>
+  <si>
+    <t>BioPep00238</t>
+  </si>
+  <si>
+    <t>Q5EY02</t>
+  </si>
+  <si>
+    <t>BioPep00239</t>
+  </si>
+  <si>
+    <t>F8R0Y2</t>
+  </si>
+  <si>
+    <t>BioPep00240</t>
+  </si>
+  <si>
+    <t>BioPep00241</t>
+  </si>
+  <si>
+    <t>BioPep00242</t>
+  </si>
+  <si>
+    <t>BioPep00243</t>
+  </si>
+  <si>
+    <t>BioPep00244</t>
+  </si>
+  <si>
+    <t>BioPep00245</t>
+  </si>
+  <si>
+    <t>BioPep00246</t>
+  </si>
+  <si>
+    <t>BioPep00247</t>
+  </si>
+  <si>
+    <t>BioPep00248</t>
+  </si>
+  <si>
+    <t>Q5T7M4</t>
+  </si>
+  <si>
+    <t>BioPep00249</t>
+  </si>
+  <si>
+    <t>Q8R2Z0</t>
+  </si>
+  <si>
+    <t>BioPep00250</t>
+  </si>
+  <si>
+    <t>BioPep00251</t>
+  </si>
+  <si>
+    <t>BioPep00252</t>
+  </si>
+  <si>
+    <t>A1A5X5</t>
+  </si>
+  <si>
+    <t>BioPep00253</t>
+  </si>
+  <si>
+    <t>A4IH36</t>
+  </si>
+  <si>
+    <t>BioPep00254</t>
+  </si>
+  <si>
+    <t>P75409</t>
+  </si>
+  <si>
+    <t>BioPep00255</t>
+  </si>
+  <si>
+    <t>Q93Q17</t>
+  </si>
+  <si>
+    <t>BioPep00256</t>
+  </si>
+  <si>
+    <t>O62827</t>
+  </si>
+  <si>
+    <t>BioPep00257</t>
+  </si>
+  <si>
+    <t>O77559</t>
+  </si>
+  <si>
+    <t>BioPep00258</t>
+  </si>
+  <si>
+    <t>P35318</t>
+  </si>
+  <si>
+    <t>BioPep00259</t>
+  </si>
+  <si>
+    <t>P43145</t>
+  </si>
+  <si>
+    <t>BioPep00260</t>
+  </si>
+  <si>
+    <t>P53366</t>
+  </si>
+  <si>
+    <t>BioPep00261</t>
+  </si>
+  <si>
+    <t>P97297</t>
+  </si>
+  <si>
+    <t>BioPep00262</t>
+  </si>
+  <si>
+    <t>BioPep00263</t>
+  </si>
+  <si>
+    <t>P61312</t>
+  </si>
+  <si>
+    <t>BioPep00264</t>
+  </si>
+  <si>
+    <t>Q7TNK8</t>
+  </si>
+  <si>
+    <t>BioPep00265</t>
+  </si>
+  <si>
+    <t>Q7Z4H4</t>
+  </si>
+  <si>
+    <t>BioPep00266</t>
+  </si>
+  <si>
+    <t>A5LHG2</t>
+  </si>
+  <si>
+    <t>BioPep00267</t>
+  </si>
+  <si>
+    <t>P09166</t>
+  </si>
+  <si>
+    <t>BioPep00268</t>
+  </si>
+  <si>
+    <t>P09167</t>
+  </si>
+  <si>
+    <t>BioPep00269</t>
+  </si>
+  <si>
+    <t>Q06304</t>
+  </si>
+  <si>
+    <t>BioPep00270</t>
+  </si>
+  <si>
+    <t>Q08676</t>
+  </si>
+  <si>
+    <t>BioPep00271</t>
+  </si>
+  <si>
+    <t>Q06305</t>
+  </si>
+  <si>
+    <t>BioPep00272</t>
+  </si>
+  <si>
+    <t>Q06303</t>
+  </si>
+  <si>
+    <t>BioPep00273</t>
+  </si>
+  <si>
+    <t>Q06306</t>
+  </si>
+  <si>
+    <t>BioPep00274</t>
+  </si>
+  <si>
+    <t>P24856</t>
+  </si>
+  <si>
+    <t>BioPep00275</t>
+  </si>
+  <si>
+    <t>BioPep00276</t>
+  </si>
+  <si>
+    <t>BioPep00277</t>
+  </si>
+  <si>
+    <t>BioPep00278</t>
+  </si>
+  <si>
+    <t>BioPep00279</t>
+  </si>
+  <si>
+    <t>BioPep00280</t>
+  </si>
+  <si>
+    <t>BioPep00281</t>
+  </si>
+  <si>
+    <t>BioPep00282</t>
+  </si>
+  <si>
+    <t>O61466</t>
+  </si>
+  <si>
+    <t>BioPep00283</t>
+  </si>
+  <si>
+    <t>P69436</t>
+  </si>
+  <si>
+    <t>BioPep00284</t>
+  </si>
+  <si>
+    <t>P84797</t>
+  </si>
+  <si>
+    <t>BioPep00285</t>
+  </si>
+  <si>
+    <t>BioPep00286</t>
+  </si>
+  <si>
+    <t>BioPep00287</t>
+  </si>
+  <si>
+    <t>BioPep00288</t>
+  </si>
+  <si>
+    <t>BioPep00289</t>
+  </si>
+  <si>
+    <t>BioPep00290</t>
+  </si>
+  <si>
+    <t>P62926</t>
+  </si>
+  <si>
+    <t>BioPep00291</t>
+  </si>
+  <si>
+    <t>BioPep00292</t>
+  </si>
+  <si>
+    <t>P62927</t>
+  </si>
+  <si>
+    <t>BioPep00293</t>
+  </si>
+  <si>
+    <t>BioPep00294</t>
+  </si>
+  <si>
+    <t>P62928</t>
+  </si>
+  <si>
+    <t>BioPep00295</t>
+  </si>
+  <si>
+    <t>BioPep00296</t>
+  </si>
+  <si>
+    <t>Q39837</t>
+  </si>
+  <si>
+    <t>BioPep00297</t>
+  </si>
+  <si>
+    <t>Q96474</t>
+  </si>
+  <si>
+    <t>BioPep00298</t>
+  </si>
+  <si>
+    <t>Q9FRT8</t>
+  </si>
+  <si>
+    <t>BioPep00299</t>
+  </si>
+  <si>
+    <t>Q9FRT9</t>
+  </si>
+  <si>
+    <t>BioPep00300</t>
+  </si>
+  <si>
+    <t>Q9ZQX0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +1371,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,9 +1399,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9989"/>
+  <dimension ref="A1:D9119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:XFD6"/>
+      <selection activeCell="A2" sqref="A2:B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,1024 +1790,1960 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+      <c r="A129" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+      <c r="A130" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+      <c r="A132" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+      <c r="A133" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+      <c r="A134" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+      <c r="A135" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+      <c r="A137" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+      <c r="A138" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+      <c r="A139" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+      <c r="A142" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="A144" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+      <c r="A145" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+      <c r="A146" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+      <c r="A147" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+      <c r="A148" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+      <c r="A149" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+      <c r="A150" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+      <c r="A151" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+      <c r="A152" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+      <c r="A153" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+      <c r="A154" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+      <c r="A155" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+      <c r="A157" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+      <c r="A158" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+      <c r="A159" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+      <c r="A160" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+      <c r="A162" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+      <c r="A163" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+      <c r="A165" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+      <c r="A166" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+      <c r="A167" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+      <c r="A169" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+      <c r="A171" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+      <c r="A173" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+      <c r="A174" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+      <c r="A175" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+      <c r="A176" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
+      <c r="A177" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+      <c r="A178" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+      <c r="A179" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+      <c r="A180" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+      <c r="A181" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+      <c r="A182" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+      <c r="A183" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+      <c r="A184" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+      <c r="A185" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+      <c r="A186" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+      <c r="A187" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+      <c r="A188" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+      <c r="A189" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+      <c r="A190" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+      <c r="A191" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
+      <c r="A192" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+      <c r="A193" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+      <c r="A194" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+      <c r="A195" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+      <c r="A196" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+      <c r="A197" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
+      <c r="A198" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+      <c r="A199" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
+      <c r="A200" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
+      <c r="A201" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
+      <c r="A202" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
+      <c r="A203" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
+      <c r="A204" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
+      <c r="A205" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
+      <c r="A206" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
+      <c r="A207" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
+      <c r="A208" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
+      <c r="A209" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
+      <c r="A210" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
+      <c r="A211" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+      <c r="A212" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
+      <c r="A213" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+      <c r="A214" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+      <c r="A215" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
+      <c r="A216" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+      <c r="A217" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+      <c r="A218" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
+      <c r="A219" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+      <c r="A220" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
+      <c r="A221" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
+      <c r="A222" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
+      <c r="A223" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
+      <c r="A224" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
+      <c r="A225" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+      <c r="A226" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
+      <c r="A227" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
+      <c r="A228" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
+      <c r="A229" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
+      <c r="A230" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
+      <c r="A231" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
+      <c r="A232" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
+      <c r="A233" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
+      <c r="A234" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
+      <c r="A235" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
+      <c r="A236" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
+      <c r="A237" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
+      <c r="A238" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
+      <c r="A239" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
+      <c r="A240" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
+      <c r="A241" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
+      <c r="A242" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
+      <c r="A243" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
+      <c r="A244" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
+      <c r="A245" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
+      <c r="A246" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
+      <c r="A247" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
+      <c r="A248" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
+      <c r="A249" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
+      <c r="A250" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
+      <c r="A251" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
+      <c r="A252" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="1"/>
@@ -1832,484 +3998,484 @@
       <c r="B315" s="1"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A316" s="1"/>
-      <c r="B316" s="1"/>
+      <c r="A316" s="2"/>
+      <c r="B316" s="2"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A317" s="1"/>
-      <c r="B317" s="1"/>
+      <c r="A317" s="2"/>
+      <c r="B317" s="2"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A318" s="1"/>
-      <c r="B318" s="1"/>
+      <c r="A318" s="2"/>
+      <c r="B318" s="2"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A319" s="1"/>
-      <c r="B319" s="1"/>
+      <c r="A319" s="2"/>
+      <c r="B319" s="2"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A320" s="1"/>
-      <c r="B320" s="1"/>
+      <c r="A320" s="2"/>
+      <c r="B320" s="2"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A321" s="1"/>
-      <c r="B321" s="1"/>
+      <c r="A321" s="2"/>
+      <c r="B321" s="2"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A322" s="1"/>
-      <c r="B322" s="1"/>
+      <c r="A322" s="2"/>
+      <c r="B322" s="2"/>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A323" s="1"/>
-      <c r="B323" s="1"/>
+      <c r="A323" s="2"/>
+      <c r="B323" s="2"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A324" s="1"/>
-      <c r="B324" s="1"/>
+      <c r="A324" s="2"/>
+      <c r="B324" s="2"/>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A325" s="1"/>
-      <c r="B325" s="1"/>
+      <c r="A325" s="2"/>
+      <c r="B325" s="2"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A326" s="1"/>
-      <c r="B326" s="1"/>
+      <c r="A326" s="2"/>
+      <c r="B326" s="2"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A327" s="1"/>
-      <c r="B327" s="1"/>
+      <c r="A327" s="2"/>
+      <c r="B327" s="2"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A328" s="1"/>
-      <c r="B328" s="1"/>
+      <c r="A328" s="2"/>
+      <c r="B328" s="2"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
+      <c r="A329" s="2"/>
+      <c r="B329" s="2"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
+      <c r="A330" s="2"/>
+      <c r="B330" s="2"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A331" s="1"/>
-      <c r="B331" s="1"/>
+      <c r="A331" s="2"/>
+      <c r="B331" s="2"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A332" s="1"/>
-      <c r="B332" s="1"/>
+      <c r="A332" s="2"/>
+      <c r="B332" s="2"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A333" s="1"/>
-      <c r="B333" s="1"/>
+      <c r="A333" s="2"/>
+      <c r="B333" s="2"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
+      <c r="A334" s="2"/>
+      <c r="B334" s="2"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A335" s="1"/>
-      <c r="B335" s="1"/>
+      <c r="A335" s="2"/>
+      <c r="B335" s="2"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A336" s="1"/>
-      <c r="B336" s="1"/>
+      <c r="A336" s="2"/>
+      <c r="B336" s="2"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A337" s="1"/>
-      <c r="B337" s="1"/>
+      <c r="A337" s="2"/>
+      <c r="B337" s="2"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A338" s="1"/>
-      <c r="B338" s="1"/>
+      <c r="A338" s="2"/>
+      <c r="B338" s="2"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A339" s="1"/>
-      <c r="B339" s="1"/>
+      <c r="A339" s="2"/>
+      <c r="B339" s="2"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A340" s="1"/>
-      <c r="B340" s="1"/>
+      <c r="A340" s="2"/>
+      <c r="B340" s="2"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A341" s="1"/>
-      <c r="B341" s="1"/>
+      <c r="A341" s="2"/>
+      <c r="B341" s="2"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A342" s="1"/>
-      <c r="B342" s="1"/>
+      <c r="A342" s="2"/>
+      <c r="B342" s="2"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A343" s="1"/>
-      <c r="B343" s="1"/>
+      <c r="A343" s="2"/>
+      <c r="B343" s="2"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A344" s="1"/>
-      <c r="B344" s="1"/>
+      <c r="A344" s="2"/>
+      <c r="B344" s="2"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A345" s="1"/>
-      <c r="B345" s="1"/>
+      <c r="A345" s="2"/>
+      <c r="B345" s="2"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A346" s="1"/>
-      <c r="B346" s="1"/>
+      <c r="A346" s="2"/>
+      <c r="B346" s="2"/>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A347" s="1"/>
-      <c r="B347" s="1"/>
+      <c r="A347" s="2"/>
+      <c r="B347" s="2"/>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A348" s="1"/>
-      <c r="B348" s="1"/>
+      <c r="A348" s="2"/>
+      <c r="B348" s="2"/>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A349" s="1"/>
-      <c r="B349" s="1"/>
+      <c r="A349" s="2"/>
+      <c r="B349" s="2"/>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A350" s="1"/>
-      <c r="B350" s="1"/>
+      <c r="A350" s="2"/>
+      <c r="B350" s="2"/>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A351" s="1"/>
-      <c r="B351" s="1"/>
+      <c r="A351" s="2"/>
+      <c r="B351" s="2"/>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A352" s="1"/>
-      <c r="B352" s="1"/>
+      <c r="A352" s="2"/>
+      <c r="B352" s="2"/>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A353" s="1"/>
-      <c r="B353" s="1"/>
+      <c r="A353" s="2"/>
+      <c r="B353" s="2"/>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A354" s="1"/>
-      <c r="B354" s="1"/>
+      <c r="A354" s="2"/>
+      <c r="B354" s="2"/>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A355" s="1"/>
-      <c r="B355" s="1"/>
+      <c r="A355" s="2"/>
+      <c r="B355" s="2"/>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A356" s="1"/>
-      <c r="B356" s="1"/>
+      <c r="A356" s="2"/>
+      <c r="B356" s="2"/>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A357" s="1"/>
-      <c r="B357" s="1"/>
+      <c r="A357" s="2"/>
+      <c r="B357" s="2"/>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A358" s="1"/>
-      <c r="B358" s="1"/>
+      <c r="A358" s="2"/>
+      <c r="B358" s="2"/>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A359" s="1"/>
-      <c r="B359" s="1"/>
+      <c r="A359" s="2"/>
+      <c r="B359" s="2"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A360" s="1"/>
-      <c r="B360" s="1"/>
+      <c r="A360" s="2"/>
+      <c r="B360" s="2"/>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A361" s="1"/>
-      <c r="B361" s="1"/>
+      <c r="A361" s="2"/>
+      <c r="B361" s="2"/>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A362" s="1"/>
-      <c r="B362" s="1"/>
+      <c r="A362" s="2"/>
+      <c r="B362" s="2"/>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A363" s="1"/>
-      <c r="B363" s="1"/>
+      <c r="A363" s="2"/>
+      <c r="B363" s="2"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A364" s="1"/>
-      <c r="B364" s="1"/>
+      <c r="A364" s="2"/>
+      <c r="B364" s="2"/>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A365" s="1"/>
-      <c r="B365" s="1"/>
+      <c r="A365" s="2"/>
+      <c r="B365" s="2"/>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A366" s="1"/>
-      <c r="B366" s="1"/>
+      <c r="A366" s="2"/>
+      <c r="B366" s="2"/>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A367" s="1"/>
-      <c r="B367" s="1"/>
+      <c r="A367" s="2"/>
+      <c r="B367" s="2"/>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A368" s="1"/>
-      <c r="B368" s="1"/>
+      <c r="A368" s="2"/>
+      <c r="B368" s="2"/>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A369" s="1"/>
-      <c r="B369" s="1"/>
+      <c r="A369" s="2"/>
+      <c r="B369" s="2"/>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A370" s="1"/>
-      <c r="B370" s="1"/>
+      <c r="A370" s="2"/>
+      <c r="B370" s="2"/>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A371" s="1"/>
-      <c r="B371" s="1"/>
+      <c r="A371" s="2"/>
+      <c r="B371" s="2"/>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A372" s="1"/>
-      <c r="B372" s="1"/>
+      <c r="A372" s="2"/>
+      <c r="B372" s="2"/>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A373" s="1"/>
-      <c r="B373" s="1"/>
+      <c r="A373" s="2"/>
+      <c r="B373" s="2"/>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A374" s="1"/>
-      <c r="B374" s="1"/>
+      <c r="A374" s="2"/>
+      <c r="B374" s="2"/>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A375" s="1"/>
-      <c r="B375" s="1"/>
+      <c r="A375" s="2"/>
+      <c r="B375" s="2"/>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A376" s="1"/>
-      <c r="B376" s="1"/>
+      <c r="A376" s="2"/>
+      <c r="B376" s="2"/>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A377" s="1"/>
-      <c r="B377" s="1"/>
+      <c r="A377" s="2"/>
+      <c r="B377" s="2"/>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A378" s="1"/>
-      <c r="B378" s="1"/>
+      <c r="A378" s="2"/>
+      <c r="B378" s="2"/>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A379" s="1"/>
-      <c r="B379" s="1"/>
+      <c r="A379" s="2"/>
+      <c r="B379" s="2"/>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A380" s="1"/>
-      <c r="B380" s="1"/>
+      <c r="A380" s="2"/>
+      <c r="B380" s="2"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A381" s="1"/>
-      <c r="B381" s="1"/>
+      <c r="A381" s="2"/>
+      <c r="B381" s="2"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A382" s="1"/>
-      <c r="B382" s="1"/>
+      <c r="A382" s="2"/>
+      <c r="B382" s="2"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A383" s="1"/>
-      <c r="B383" s="1"/>
+      <c r="A383" s="2"/>
+      <c r="B383" s="2"/>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A384" s="1"/>
-      <c r="B384" s="1"/>
+      <c r="A384" s="2"/>
+      <c r="B384" s="2"/>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A385" s="1"/>
-      <c r="B385" s="1"/>
+      <c r="A385" s="2"/>
+      <c r="B385" s="2"/>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A386" s="1"/>
-      <c r="B386" s="1"/>
+      <c r="A386" s="2"/>
+      <c r="B386" s="2"/>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A387" s="1"/>
-      <c r="B387" s="1"/>
+      <c r="A387" s="2"/>
+      <c r="B387" s="2"/>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A388" s="1"/>
-      <c r="B388" s="1"/>
+      <c r="A388" s="2"/>
+      <c r="B388" s="2"/>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A389" s="1"/>
-      <c r="B389" s="1"/>
+      <c r="A389" s="2"/>
+      <c r="B389" s="2"/>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A390" s="1"/>
-      <c r="B390" s="1"/>
+      <c r="A390" s="2"/>
+      <c r="B390" s="2"/>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A391" s="1"/>
-      <c r="B391" s="1"/>
+      <c r="A391" s="2"/>
+      <c r="B391" s="2"/>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A392" s="1"/>
-      <c r="B392" s="1"/>
+      <c r="A392" s="2"/>
+      <c r="B392" s="2"/>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A393" s="1"/>
-      <c r="B393" s="1"/>
+      <c r="A393" s="2"/>
+      <c r="B393" s="2"/>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A394" s="1"/>
-      <c r="B394" s="1"/>
+      <c r="A394" s="2"/>
+      <c r="B394" s="2"/>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A395" s="1"/>
-      <c r="B395" s="1"/>
+      <c r="A395" s="2"/>
+      <c r="B395" s="2"/>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A396" s="1"/>
-      <c r="B396" s="1"/>
+      <c r="A396" s="2"/>
+      <c r="B396" s="2"/>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A397" s="1"/>
-      <c r="B397" s="1"/>
+      <c r="A397" s="2"/>
+      <c r="B397" s="2"/>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A398" s="1"/>
-      <c r="B398" s="1"/>
+      <c r="A398" s="2"/>
+      <c r="B398" s="2"/>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A399" s="1"/>
-      <c r="B399" s="1"/>
+      <c r="A399" s="2"/>
+      <c r="B399" s="2"/>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A400" s="1"/>
-      <c r="B400" s="1"/>
+      <c r="A400" s="2"/>
+      <c r="B400" s="2"/>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A401" s="1"/>
-      <c r="B401" s="1"/>
+      <c r="A401" s="2"/>
+      <c r="B401" s="2"/>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A402" s="1"/>
-      <c r="B402" s="1"/>
+      <c r="A402" s="2"/>
+      <c r="B402" s="2"/>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A403" s="1"/>
-      <c r="B403" s="1"/>
+      <c r="A403" s="2"/>
+      <c r="B403" s="2"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A404" s="1"/>
-      <c r="B404" s="1"/>
+      <c r="A404" s="2"/>
+      <c r="B404" s="2"/>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A405" s="1"/>
-      <c r="B405" s="1"/>
+      <c r="A405" s="2"/>
+      <c r="B405" s="2"/>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A406" s="1"/>
-      <c r="B406" s="1"/>
+      <c r="A406" s="2"/>
+      <c r="B406" s="2"/>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A407" s="1"/>
-      <c r="B407" s="1"/>
+      <c r="A407" s="2"/>
+      <c r="B407" s="2"/>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A408" s="1"/>
-      <c r="B408" s="1"/>
+      <c r="A408" s="2"/>
+      <c r="B408" s="2"/>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A409" s="1"/>
-      <c r="B409" s="1"/>
+      <c r="A409" s="2"/>
+      <c r="B409" s="2"/>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A410" s="1"/>
-      <c r="B410" s="1"/>
+      <c r="A410" s="2"/>
+      <c r="B410" s="2"/>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A411" s="1"/>
-      <c r="B411" s="1"/>
+      <c r="A411" s="2"/>
+      <c r="B411" s="2"/>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A412" s="1"/>
-      <c r="B412" s="1"/>
+      <c r="A412" s="2"/>
+      <c r="B412" s="2"/>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A413" s="1"/>
-      <c r="B413" s="1"/>
+      <c r="A413" s="2"/>
+      <c r="B413" s="2"/>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A414" s="1"/>
-      <c r="B414" s="1"/>
+      <c r="A414" s="2"/>
+      <c r="B414" s="2"/>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A415" s="1"/>
-      <c r="B415" s="1"/>
+      <c r="A415" s="2"/>
+      <c r="B415" s="2"/>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A416" s="1"/>
-      <c r="B416" s="1"/>
+      <c r="A416" s="2"/>
+      <c r="B416" s="2"/>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A417" s="1"/>
-      <c r="B417" s="1"/>
+      <c r="A417" s="2"/>
+      <c r="B417" s="2"/>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A418" s="1"/>
-      <c r="B418" s="1"/>
+      <c r="A418" s="2"/>
+      <c r="B418" s="2"/>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A419" s="1"/>
-      <c r="B419" s="1"/>
+      <c r="A419" s="2"/>
+      <c r="B419" s="2"/>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A420" s="1"/>
-      <c r="B420" s="1"/>
+      <c r="A420" s="2"/>
+      <c r="B420" s="2"/>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A421" s="1"/>
-      <c r="B421" s="1"/>
+      <c r="A421" s="2"/>
+      <c r="B421" s="2"/>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A422" s="1"/>
-      <c r="B422" s="1"/>
+      <c r="A422" s="2"/>
+      <c r="B422" s="2"/>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A423" s="1"/>
-      <c r="B423" s="1"/>
+      <c r="A423" s="2"/>
+      <c r="B423" s="2"/>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A424" s="1"/>
-      <c r="B424" s="1"/>
+      <c r="A424" s="2"/>
+      <c r="B424" s="2"/>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A425" s="1"/>
-      <c r="B425" s="1"/>
+      <c r="A425" s="2"/>
+      <c r="B425" s="2"/>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A426" s="1"/>
-      <c r="B426" s="1"/>
+      <c r="A426" s="2"/>
+      <c r="B426" s="2"/>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A427" s="1"/>
-      <c r="B427" s="1"/>
+      <c r="A427" s="2"/>
+      <c r="B427" s="2"/>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A428" s="1"/>
-      <c r="B428" s="1"/>
+      <c r="A428" s="2"/>
+      <c r="B428" s="2"/>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A429" s="1"/>
-      <c r="B429" s="1"/>
+      <c r="A429" s="2"/>
+      <c r="B429" s="2"/>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A430" s="1"/>
-      <c r="B430" s="1"/>
+      <c r="A430" s="2"/>
+      <c r="B430" s="2"/>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A431" s="1"/>
-      <c r="B431" s="1"/>
+      <c r="A431" s="2"/>
+      <c r="B431" s="2"/>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A432" s="1"/>
-      <c r="B432" s="1"/>
+      <c r="A432" s="2"/>
+      <c r="B432" s="2"/>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A433" s="1"/>
-      <c r="B433" s="1"/>
+      <c r="A433" s="2"/>
+      <c r="B433" s="2"/>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A434" s="1"/>
-      <c r="B434" s="1"/>
+      <c r="A434" s="2"/>
+      <c r="B434" s="2"/>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A435" s="1"/>
-      <c r="B435" s="1"/>
+      <c r="A435" s="2"/>
+      <c r="B435" s="2"/>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A436" s="1"/>
@@ -37046,3486 +39212,6 @@
     <row r="9119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9119" s="1"/>
       <c r="B9119" s="1"/>
-    </row>
-    <row r="9120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9120" s="1"/>
-      <c r="B9120" s="1"/>
-    </row>
-    <row r="9121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9121" s="1"/>
-      <c r="B9121" s="1"/>
-    </row>
-    <row r="9122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9122" s="1"/>
-      <c r="B9122" s="1"/>
-    </row>
-    <row r="9123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9123" s="1"/>
-      <c r="B9123" s="1"/>
-    </row>
-    <row r="9124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9124" s="1"/>
-      <c r="B9124" s="1"/>
-    </row>
-    <row r="9125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9125" s="1"/>
-      <c r="B9125" s="1"/>
-    </row>
-    <row r="9126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9126" s="1"/>
-      <c r="B9126" s="1"/>
-    </row>
-    <row r="9127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9127" s="1"/>
-      <c r="B9127" s="1"/>
-    </row>
-    <row r="9128" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9128" s="1"/>
-      <c r="B9128" s="1"/>
-    </row>
-    <row r="9129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9129" s="1"/>
-      <c r="B9129" s="1"/>
-    </row>
-    <row r="9130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9130" s="1"/>
-      <c r="B9130" s="1"/>
-    </row>
-    <row r="9131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9131" s="1"/>
-      <c r="B9131" s="1"/>
-    </row>
-    <row r="9132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9132" s="1"/>
-      <c r="B9132" s="1"/>
-    </row>
-    <row r="9133" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9133" s="1"/>
-      <c r="B9133" s="1"/>
-    </row>
-    <row r="9134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9134" s="1"/>
-      <c r="B9134" s="1"/>
-    </row>
-    <row r="9135" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9135" s="1"/>
-      <c r="B9135" s="1"/>
-    </row>
-    <row r="9136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9136" s="1"/>
-      <c r="B9136" s="1"/>
-    </row>
-    <row r="9137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9137" s="1"/>
-      <c r="B9137" s="1"/>
-    </row>
-    <row r="9138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9138" s="1"/>
-      <c r="B9138" s="1"/>
-    </row>
-    <row r="9139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9139" s="1"/>
-      <c r="B9139" s="1"/>
-    </row>
-    <row r="9140" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9140" s="1"/>
-      <c r="B9140" s="1"/>
-    </row>
-    <row r="9141" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9141" s="1"/>
-      <c r="B9141" s="1"/>
-    </row>
-    <row r="9142" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9142" s="1"/>
-      <c r="B9142" s="1"/>
-    </row>
-    <row r="9143" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9143" s="1"/>
-      <c r="B9143" s="1"/>
-    </row>
-    <row r="9144" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9144" s="1"/>
-      <c r="B9144" s="1"/>
-    </row>
-    <row r="9145" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9145" s="1"/>
-      <c r="B9145" s="1"/>
-    </row>
-    <row r="9146" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9146" s="1"/>
-      <c r="B9146" s="1"/>
-    </row>
-    <row r="9147" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9147" s="1"/>
-      <c r="B9147" s="1"/>
-    </row>
-    <row r="9148" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9148" s="1"/>
-      <c r="B9148" s="1"/>
-    </row>
-    <row r="9149" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9149" s="1"/>
-      <c r="B9149" s="1"/>
-    </row>
-    <row r="9150" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9150" s="1"/>
-      <c r="B9150" s="1"/>
-    </row>
-    <row r="9151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9151" s="1"/>
-      <c r="B9151" s="1"/>
-    </row>
-    <row r="9152" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9152" s="1"/>
-      <c r="B9152" s="1"/>
-    </row>
-    <row r="9153" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9153" s="1"/>
-      <c r="B9153" s="1"/>
-    </row>
-    <row r="9154" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9154" s="1"/>
-      <c r="B9154" s="1"/>
-    </row>
-    <row r="9155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9155" s="1"/>
-      <c r="B9155" s="1"/>
-    </row>
-    <row r="9156" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9156" s="1"/>
-      <c r="B9156" s="1"/>
-    </row>
-    <row r="9157" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9157" s="1"/>
-      <c r="B9157" s="1"/>
-    </row>
-    <row r="9158" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9158" s="1"/>
-      <c r="B9158" s="1"/>
-    </row>
-    <row r="9159" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9159" s="1"/>
-      <c r="B9159" s="1"/>
-    </row>
-    <row r="9160" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9160" s="1"/>
-      <c r="B9160" s="1"/>
-    </row>
-    <row r="9161" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9161" s="1"/>
-      <c r="B9161" s="1"/>
-    </row>
-    <row r="9162" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9162" s="1"/>
-      <c r="B9162" s="1"/>
-    </row>
-    <row r="9163" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9163" s="1"/>
-      <c r="B9163" s="1"/>
-    </row>
-    <row r="9164" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9164" s="1"/>
-      <c r="B9164" s="1"/>
-    </row>
-    <row r="9165" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9165" s="1"/>
-      <c r="B9165" s="1"/>
-    </row>
-    <row r="9166" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9166" s="1"/>
-      <c r="B9166" s="1"/>
-    </row>
-    <row r="9167" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9167" s="1"/>
-      <c r="B9167" s="1"/>
-    </row>
-    <row r="9168" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9168" s="1"/>
-      <c r="B9168" s="1"/>
-    </row>
-    <row r="9169" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9169" s="1"/>
-      <c r="B9169" s="1"/>
-    </row>
-    <row r="9170" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9170" s="1"/>
-      <c r="B9170" s="1"/>
-    </row>
-    <row r="9171" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9171" s="1"/>
-      <c r="B9171" s="1"/>
-    </row>
-    <row r="9172" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9172" s="1"/>
-      <c r="B9172" s="1"/>
-    </row>
-    <row r="9173" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9173" s="1"/>
-      <c r="B9173" s="1"/>
-    </row>
-    <row r="9174" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9174" s="1"/>
-      <c r="B9174" s="1"/>
-    </row>
-    <row r="9175" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9175" s="1"/>
-      <c r="B9175" s="1"/>
-    </row>
-    <row r="9176" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9176" s="1"/>
-      <c r="B9176" s="1"/>
-    </row>
-    <row r="9177" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9177" s="1"/>
-      <c r="B9177" s="1"/>
-    </row>
-    <row r="9178" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9178" s="1"/>
-      <c r="B9178" s="1"/>
-    </row>
-    <row r="9179" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9179" s="1"/>
-      <c r="B9179" s="1"/>
-    </row>
-    <row r="9180" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9180" s="1"/>
-      <c r="B9180" s="1"/>
-    </row>
-    <row r="9181" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9181" s="1"/>
-      <c r="B9181" s="1"/>
-    </row>
-    <row r="9182" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9182" s="1"/>
-      <c r="B9182" s="1"/>
-    </row>
-    <row r="9183" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9183" s="1"/>
-      <c r="B9183" s="1"/>
-    </row>
-    <row r="9184" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9184" s="1"/>
-      <c r="B9184" s="1"/>
-    </row>
-    <row r="9185" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9185" s="1"/>
-      <c r="B9185" s="1"/>
-    </row>
-    <row r="9186" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9186" s="1"/>
-      <c r="B9186" s="1"/>
-    </row>
-    <row r="9187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9187" s="1"/>
-      <c r="B9187" s="1"/>
-    </row>
-    <row r="9188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9188" s="1"/>
-      <c r="B9188" s="1"/>
-    </row>
-    <row r="9189" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9189" s="1"/>
-      <c r="B9189" s="1"/>
-    </row>
-    <row r="9190" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9190" s="1"/>
-      <c r="B9190" s="1"/>
-    </row>
-    <row r="9191" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9191" s="1"/>
-      <c r="B9191" s="1"/>
-    </row>
-    <row r="9192" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9192" s="1"/>
-      <c r="B9192" s="1"/>
-    </row>
-    <row r="9193" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9193" s="1"/>
-      <c r="B9193" s="1"/>
-    </row>
-    <row r="9194" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9194" s="1"/>
-      <c r="B9194" s="1"/>
-    </row>
-    <row r="9195" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9195" s="1"/>
-      <c r="B9195" s="1"/>
-    </row>
-    <row r="9196" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9196" s="1"/>
-      <c r="B9196" s="1"/>
-    </row>
-    <row r="9197" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9197" s="1"/>
-      <c r="B9197" s="1"/>
-    </row>
-    <row r="9198" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9198" s="1"/>
-      <c r="B9198" s="1"/>
-    </row>
-    <row r="9199" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9199" s="1"/>
-      <c r="B9199" s="1"/>
-    </row>
-    <row r="9200" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9200" s="1"/>
-      <c r="B9200" s="1"/>
-    </row>
-    <row r="9201" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9201" s="1"/>
-      <c r="B9201" s="1"/>
-    </row>
-    <row r="9202" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9202" s="1"/>
-      <c r="B9202" s="1"/>
-    </row>
-    <row r="9203" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9203" s="1"/>
-      <c r="B9203" s="1"/>
-    </row>
-    <row r="9204" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9204" s="1"/>
-      <c r="B9204" s="1"/>
-    </row>
-    <row r="9205" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9205" s="1"/>
-      <c r="B9205" s="1"/>
-    </row>
-    <row r="9206" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9206" s="1"/>
-      <c r="B9206" s="1"/>
-    </row>
-    <row r="9207" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9207" s="1"/>
-      <c r="B9207" s="1"/>
-    </row>
-    <row r="9208" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9208" s="1"/>
-      <c r="B9208" s="1"/>
-    </row>
-    <row r="9209" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9209" s="1"/>
-      <c r="B9209" s="1"/>
-    </row>
-    <row r="9210" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9210" s="1"/>
-      <c r="B9210" s="1"/>
-    </row>
-    <row r="9211" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9211" s="1"/>
-      <c r="B9211" s="1"/>
-    </row>
-    <row r="9212" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9212" s="1"/>
-      <c r="B9212" s="1"/>
-    </row>
-    <row r="9213" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9213" s="1"/>
-      <c r="B9213" s="1"/>
-    </row>
-    <row r="9214" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9214" s="1"/>
-      <c r="B9214" s="1"/>
-    </row>
-    <row r="9215" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9215" s="1"/>
-      <c r="B9215" s="1"/>
-    </row>
-    <row r="9216" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9216" s="1"/>
-      <c r="B9216" s="1"/>
-    </row>
-    <row r="9217" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9217" s="1"/>
-      <c r="B9217" s="1"/>
-    </row>
-    <row r="9218" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9218" s="1"/>
-      <c r="B9218" s="1"/>
-    </row>
-    <row r="9219" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9219" s="1"/>
-      <c r="B9219" s="1"/>
-    </row>
-    <row r="9220" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9220" s="1"/>
-      <c r="B9220" s="1"/>
-    </row>
-    <row r="9221" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9221" s="1"/>
-      <c r="B9221" s="1"/>
-    </row>
-    <row r="9222" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9222" s="1"/>
-      <c r="B9222" s="1"/>
-    </row>
-    <row r="9223" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9223" s="1"/>
-      <c r="B9223" s="1"/>
-    </row>
-    <row r="9224" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9224" s="1"/>
-      <c r="B9224" s="1"/>
-    </row>
-    <row r="9225" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9225" s="1"/>
-      <c r="B9225" s="1"/>
-    </row>
-    <row r="9226" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9226" s="1"/>
-      <c r="B9226" s="1"/>
-    </row>
-    <row r="9227" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9227" s="1"/>
-      <c r="B9227" s="1"/>
-    </row>
-    <row r="9228" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9228" s="1"/>
-      <c r="B9228" s="1"/>
-    </row>
-    <row r="9229" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9229" s="1"/>
-      <c r="B9229" s="1"/>
-    </row>
-    <row r="9230" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9230" s="1"/>
-      <c r="B9230" s="1"/>
-    </row>
-    <row r="9231" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9231" s="1"/>
-      <c r="B9231" s="1"/>
-    </row>
-    <row r="9232" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9232" s="1"/>
-      <c r="B9232" s="1"/>
-    </row>
-    <row r="9233" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9233" s="1"/>
-      <c r="B9233" s="1"/>
-    </row>
-    <row r="9234" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9234" s="1"/>
-      <c r="B9234" s="1"/>
-    </row>
-    <row r="9235" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9235" s="1"/>
-      <c r="B9235" s="1"/>
-    </row>
-    <row r="9236" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9236" s="1"/>
-      <c r="B9236" s="1"/>
-    </row>
-    <row r="9237" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9237" s="1"/>
-      <c r="B9237" s="1"/>
-    </row>
-    <row r="9238" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9238" s="1"/>
-      <c r="B9238" s="1"/>
-    </row>
-    <row r="9239" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9239" s="1"/>
-      <c r="B9239" s="1"/>
-    </row>
-    <row r="9240" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9240" s="1"/>
-      <c r="B9240" s="1"/>
-    </row>
-    <row r="9241" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9241" s="1"/>
-      <c r="B9241" s="1"/>
-    </row>
-    <row r="9242" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9242" s="1"/>
-      <c r="B9242" s="1"/>
-    </row>
-    <row r="9243" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9243" s="1"/>
-      <c r="B9243" s="1"/>
-    </row>
-    <row r="9244" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9244" s="1"/>
-      <c r="B9244" s="1"/>
-    </row>
-    <row r="9245" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9245" s="1"/>
-      <c r="B9245" s="1"/>
-    </row>
-    <row r="9246" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9246" s="1"/>
-      <c r="B9246" s="1"/>
-    </row>
-    <row r="9247" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9247" s="1"/>
-      <c r="B9247" s="1"/>
-    </row>
-    <row r="9248" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9248" s="1"/>
-      <c r="B9248" s="1"/>
-    </row>
-    <row r="9249" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9249" s="1"/>
-      <c r="B9249" s="1"/>
-    </row>
-    <row r="9250" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9250" s="1"/>
-      <c r="B9250" s="1"/>
-    </row>
-    <row r="9251" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9251" s="1"/>
-      <c r="B9251" s="1"/>
-    </row>
-    <row r="9252" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9252" s="1"/>
-      <c r="B9252" s="1"/>
-    </row>
-    <row r="9253" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9253" s="1"/>
-      <c r="B9253" s="1"/>
-    </row>
-    <row r="9254" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9254" s="1"/>
-      <c r="B9254" s="1"/>
-    </row>
-    <row r="9255" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9255" s="1"/>
-      <c r="B9255" s="1"/>
-    </row>
-    <row r="9256" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9256" s="1"/>
-      <c r="B9256" s="1"/>
-    </row>
-    <row r="9257" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9257" s="1"/>
-      <c r="B9257" s="1"/>
-    </row>
-    <row r="9258" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9258" s="1"/>
-      <c r="B9258" s="1"/>
-    </row>
-    <row r="9259" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9259" s="1"/>
-      <c r="B9259" s="1"/>
-    </row>
-    <row r="9260" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9260" s="1"/>
-      <c r="B9260" s="1"/>
-    </row>
-    <row r="9261" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9261" s="1"/>
-      <c r="B9261" s="1"/>
-    </row>
-    <row r="9262" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9262" s="1"/>
-      <c r="B9262" s="1"/>
-    </row>
-    <row r="9263" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9263" s="1"/>
-      <c r="B9263" s="1"/>
-    </row>
-    <row r="9264" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9264" s="1"/>
-      <c r="B9264" s="1"/>
-    </row>
-    <row r="9265" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9265" s="1"/>
-      <c r="B9265" s="1"/>
-    </row>
-    <row r="9266" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9266" s="1"/>
-      <c r="B9266" s="1"/>
-    </row>
-    <row r="9267" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9267" s="1"/>
-      <c r="B9267" s="1"/>
-    </row>
-    <row r="9268" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9268" s="1"/>
-      <c r="B9268" s="1"/>
-    </row>
-    <row r="9269" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9269" s="1"/>
-      <c r="B9269" s="1"/>
-    </row>
-    <row r="9270" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9270" s="1"/>
-      <c r="B9270" s="1"/>
-    </row>
-    <row r="9271" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9271" s="1"/>
-      <c r="B9271" s="1"/>
-    </row>
-    <row r="9272" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9272" s="1"/>
-      <c r="B9272" s="1"/>
-    </row>
-    <row r="9273" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9273" s="1"/>
-      <c r="B9273" s="1"/>
-    </row>
-    <row r="9274" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9274" s="1"/>
-      <c r="B9274" s="1"/>
-    </row>
-    <row r="9275" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9275" s="1"/>
-      <c r="B9275" s="1"/>
-    </row>
-    <row r="9276" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9276" s="1"/>
-      <c r="B9276" s="1"/>
-    </row>
-    <row r="9277" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9277" s="1"/>
-      <c r="B9277" s="1"/>
-    </row>
-    <row r="9278" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9278" s="1"/>
-      <c r="B9278" s="1"/>
-    </row>
-    <row r="9279" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9279" s="1"/>
-      <c r="B9279" s="1"/>
-    </row>
-    <row r="9280" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9280" s="1"/>
-      <c r="B9280" s="1"/>
-    </row>
-    <row r="9281" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9281" s="1"/>
-      <c r="B9281" s="1"/>
-    </row>
-    <row r="9282" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9282" s="1"/>
-      <c r="B9282" s="1"/>
-    </row>
-    <row r="9283" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9283" s="1"/>
-      <c r="B9283" s="1"/>
-    </row>
-    <row r="9284" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9284" s="1"/>
-      <c r="B9284" s="1"/>
-    </row>
-    <row r="9285" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9285" s="1"/>
-      <c r="B9285" s="1"/>
-    </row>
-    <row r="9286" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9286" s="1"/>
-      <c r="B9286" s="1"/>
-    </row>
-    <row r="9287" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9287" s="1"/>
-      <c r="B9287" s="1"/>
-    </row>
-    <row r="9288" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9288" s="1"/>
-      <c r="B9288" s="1"/>
-    </row>
-    <row r="9289" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9289" s="1"/>
-      <c r="B9289" s="1"/>
-    </row>
-    <row r="9290" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9290" s="1"/>
-      <c r="B9290" s="1"/>
-    </row>
-    <row r="9291" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9291" s="1"/>
-      <c r="B9291" s="1"/>
-    </row>
-    <row r="9292" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9292" s="1"/>
-      <c r="B9292" s="1"/>
-    </row>
-    <row r="9293" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9293" s="1"/>
-      <c r="B9293" s="1"/>
-    </row>
-    <row r="9294" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9294" s="1"/>
-      <c r="B9294" s="1"/>
-    </row>
-    <row r="9295" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9295" s="1"/>
-      <c r="B9295" s="1"/>
-    </row>
-    <row r="9296" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9296" s="1"/>
-      <c r="B9296" s="1"/>
-    </row>
-    <row r="9297" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9297" s="1"/>
-      <c r="B9297" s="1"/>
-    </row>
-    <row r="9298" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9298" s="1"/>
-      <c r="B9298" s="1"/>
-    </row>
-    <row r="9299" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9299" s="1"/>
-      <c r="B9299" s="1"/>
-    </row>
-    <row r="9300" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9300" s="1"/>
-      <c r="B9300" s="1"/>
-    </row>
-    <row r="9301" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9301" s="1"/>
-      <c r="B9301" s="1"/>
-    </row>
-    <row r="9302" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9302" s="1"/>
-      <c r="B9302" s="1"/>
-    </row>
-    <row r="9303" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9303" s="1"/>
-      <c r="B9303" s="1"/>
-    </row>
-    <row r="9304" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9304" s="1"/>
-      <c r="B9304" s="1"/>
-    </row>
-    <row r="9305" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9305" s="1"/>
-      <c r="B9305" s="1"/>
-    </row>
-    <row r="9306" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9306" s="1"/>
-      <c r="B9306" s="1"/>
-    </row>
-    <row r="9307" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9307" s="1"/>
-      <c r="B9307" s="1"/>
-    </row>
-    <row r="9308" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9308" s="1"/>
-      <c r="B9308" s="1"/>
-    </row>
-    <row r="9309" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9309" s="1"/>
-      <c r="B9309" s="1"/>
-    </row>
-    <row r="9310" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9310" s="1"/>
-      <c r="B9310" s="1"/>
-    </row>
-    <row r="9311" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9311" s="1"/>
-      <c r="B9311" s="1"/>
-    </row>
-    <row r="9312" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9312" s="1"/>
-      <c r="B9312" s="1"/>
-    </row>
-    <row r="9313" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9313" s="1"/>
-      <c r="B9313" s="1"/>
-    </row>
-    <row r="9314" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9314" s="1"/>
-      <c r="B9314" s="1"/>
-    </row>
-    <row r="9315" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9315" s="1"/>
-      <c r="B9315" s="1"/>
-    </row>
-    <row r="9316" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9316" s="1"/>
-      <c r="B9316" s="1"/>
-    </row>
-    <row r="9317" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9317" s="1"/>
-      <c r="B9317" s="1"/>
-    </row>
-    <row r="9318" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9318" s="1"/>
-      <c r="B9318" s="1"/>
-    </row>
-    <row r="9319" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9319" s="1"/>
-      <c r="B9319" s="1"/>
-    </row>
-    <row r="9320" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9320" s="1"/>
-      <c r="B9320" s="1"/>
-    </row>
-    <row r="9321" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9321" s="1"/>
-      <c r="B9321" s="1"/>
-    </row>
-    <row r="9322" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9322" s="1"/>
-      <c r="B9322" s="1"/>
-    </row>
-    <row r="9323" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9323" s="1"/>
-      <c r="B9323" s="1"/>
-    </row>
-    <row r="9324" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9324" s="1"/>
-      <c r="B9324" s="1"/>
-    </row>
-    <row r="9325" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9325" s="1"/>
-      <c r="B9325" s="1"/>
-    </row>
-    <row r="9326" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9326" s="1"/>
-      <c r="B9326" s="1"/>
-    </row>
-    <row r="9327" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9327" s="1"/>
-      <c r="B9327" s="1"/>
-    </row>
-    <row r="9328" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9328" s="1"/>
-      <c r="B9328" s="1"/>
-    </row>
-    <row r="9329" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9329" s="1"/>
-      <c r="B9329" s="1"/>
-    </row>
-    <row r="9330" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9330" s="1"/>
-      <c r="B9330" s="1"/>
-    </row>
-    <row r="9331" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9331" s="1"/>
-      <c r="B9331" s="1"/>
-    </row>
-    <row r="9332" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9332" s="1"/>
-      <c r="B9332" s="1"/>
-    </row>
-    <row r="9333" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9333" s="1"/>
-      <c r="B9333" s="1"/>
-    </row>
-    <row r="9334" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9334" s="1"/>
-      <c r="B9334" s="1"/>
-    </row>
-    <row r="9335" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9335" s="1"/>
-      <c r="B9335" s="1"/>
-    </row>
-    <row r="9336" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9336" s="1"/>
-      <c r="B9336" s="1"/>
-    </row>
-    <row r="9337" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9337" s="1"/>
-      <c r="B9337" s="1"/>
-    </row>
-    <row r="9338" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9338" s="1"/>
-      <c r="B9338" s="1"/>
-    </row>
-    <row r="9339" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9339" s="1"/>
-      <c r="B9339" s="1"/>
-    </row>
-    <row r="9340" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9340" s="1"/>
-      <c r="B9340" s="1"/>
-    </row>
-    <row r="9341" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9341" s="1"/>
-      <c r="B9341" s="1"/>
-    </row>
-    <row r="9342" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9342" s="1"/>
-      <c r="B9342" s="1"/>
-    </row>
-    <row r="9343" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9343" s="1"/>
-      <c r="B9343" s="1"/>
-    </row>
-    <row r="9344" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9344" s="1"/>
-      <c r="B9344" s="1"/>
-    </row>
-    <row r="9345" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9345" s="1"/>
-      <c r="B9345" s="1"/>
-    </row>
-    <row r="9346" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9346" s="1"/>
-      <c r="B9346" s="1"/>
-    </row>
-    <row r="9347" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9347" s="1"/>
-      <c r="B9347" s="1"/>
-    </row>
-    <row r="9348" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9348" s="1"/>
-      <c r="B9348" s="1"/>
-    </row>
-    <row r="9349" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9349" s="1"/>
-      <c r="B9349" s="1"/>
-    </row>
-    <row r="9350" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9350" s="1"/>
-      <c r="B9350" s="1"/>
-    </row>
-    <row r="9351" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9351" s="1"/>
-      <c r="B9351" s="1"/>
-    </row>
-    <row r="9352" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9352" s="1"/>
-      <c r="B9352" s="1"/>
-    </row>
-    <row r="9353" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9353" s="1"/>
-      <c r="B9353" s="1"/>
-    </row>
-    <row r="9354" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9354" s="1"/>
-      <c r="B9354" s="1"/>
-    </row>
-    <row r="9355" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9355" s="1"/>
-      <c r="B9355" s="1"/>
-    </row>
-    <row r="9356" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9356" s="1"/>
-      <c r="B9356" s="1"/>
-    </row>
-    <row r="9357" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9357" s="1"/>
-      <c r="B9357" s="1"/>
-    </row>
-    <row r="9358" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9358" s="1"/>
-      <c r="B9358" s="1"/>
-    </row>
-    <row r="9359" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9359" s="1"/>
-      <c r="B9359" s="1"/>
-    </row>
-    <row r="9360" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9360" s="1"/>
-      <c r="B9360" s="1"/>
-    </row>
-    <row r="9361" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9361" s="1"/>
-      <c r="B9361" s="1"/>
-    </row>
-    <row r="9362" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9362" s="1"/>
-      <c r="B9362" s="1"/>
-    </row>
-    <row r="9363" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9363" s="1"/>
-      <c r="B9363" s="1"/>
-    </row>
-    <row r="9364" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9364" s="1"/>
-      <c r="B9364" s="1"/>
-    </row>
-    <row r="9365" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9365" s="1"/>
-      <c r="B9365" s="1"/>
-    </row>
-    <row r="9366" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9366" s="1"/>
-      <c r="B9366" s="1"/>
-    </row>
-    <row r="9367" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9367" s="1"/>
-      <c r="B9367" s="1"/>
-    </row>
-    <row r="9368" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9368" s="1"/>
-      <c r="B9368" s="1"/>
-    </row>
-    <row r="9369" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9369" s="1"/>
-      <c r="B9369" s="1"/>
-    </row>
-    <row r="9370" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9370" s="1"/>
-      <c r="B9370" s="1"/>
-    </row>
-    <row r="9371" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9371" s="1"/>
-      <c r="B9371" s="1"/>
-    </row>
-    <row r="9372" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9372" s="1"/>
-      <c r="B9372" s="1"/>
-    </row>
-    <row r="9373" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9373" s="1"/>
-      <c r="B9373" s="1"/>
-    </row>
-    <row r="9374" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9374" s="1"/>
-      <c r="B9374" s="1"/>
-    </row>
-    <row r="9375" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9375" s="1"/>
-      <c r="B9375" s="1"/>
-    </row>
-    <row r="9376" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9376" s="1"/>
-      <c r="B9376" s="1"/>
-    </row>
-    <row r="9377" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9377" s="1"/>
-      <c r="B9377" s="1"/>
-    </row>
-    <row r="9378" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9378" s="1"/>
-      <c r="B9378" s="1"/>
-    </row>
-    <row r="9379" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9379" s="1"/>
-      <c r="B9379" s="1"/>
-    </row>
-    <row r="9380" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9380" s="1"/>
-      <c r="B9380" s="1"/>
-    </row>
-    <row r="9381" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9381" s="1"/>
-      <c r="B9381" s="1"/>
-    </row>
-    <row r="9382" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9382" s="1"/>
-      <c r="B9382" s="1"/>
-    </row>
-    <row r="9383" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9383" s="1"/>
-      <c r="B9383" s="1"/>
-    </row>
-    <row r="9384" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9384" s="1"/>
-      <c r="B9384" s="1"/>
-    </row>
-    <row r="9385" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9385" s="1"/>
-      <c r="B9385" s="1"/>
-    </row>
-    <row r="9386" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9386" s="1"/>
-      <c r="B9386" s="1"/>
-    </row>
-    <row r="9387" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9387" s="1"/>
-      <c r="B9387" s="1"/>
-    </row>
-    <row r="9388" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9388" s="1"/>
-      <c r="B9388" s="1"/>
-    </row>
-    <row r="9389" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9389" s="1"/>
-      <c r="B9389" s="1"/>
-    </row>
-    <row r="9390" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9390" s="1"/>
-      <c r="B9390" s="1"/>
-    </row>
-    <row r="9391" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9391" s="1"/>
-      <c r="B9391" s="1"/>
-    </row>
-    <row r="9392" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9392" s="1"/>
-      <c r="B9392" s="1"/>
-    </row>
-    <row r="9393" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9393" s="1"/>
-      <c r="B9393" s="1"/>
-    </row>
-    <row r="9394" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9394" s="1"/>
-      <c r="B9394" s="1"/>
-    </row>
-    <row r="9395" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9395" s="1"/>
-      <c r="B9395" s="1"/>
-    </row>
-    <row r="9396" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9396" s="1"/>
-      <c r="B9396" s="1"/>
-    </row>
-    <row r="9397" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9397" s="1"/>
-      <c r="B9397" s="1"/>
-    </row>
-    <row r="9398" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9398" s="1"/>
-      <c r="B9398" s="1"/>
-    </row>
-    <row r="9399" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9399" s="1"/>
-      <c r="B9399" s="1"/>
-    </row>
-    <row r="9400" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9400" s="1"/>
-      <c r="B9400" s="1"/>
-    </row>
-    <row r="9401" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9401" s="1"/>
-      <c r="B9401" s="1"/>
-    </row>
-    <row r="9402" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9402" s="1"/>
-      <c r="B9402" s="1"/>
-    </row>
-    <row r="9403" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9403" s="1"/>
-      <c r="B9403" s="1"/>
-    </row>
-    <row r="9404" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9404" s="1"/>
-      <c r="B9404" s="1"/>
-    </row>
-    <row r="9405" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9405" s="1"/>
-      <c r="B9405" s="1"/>
-    </row>
-    <row r="9406" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9406" s="1"/>
-      <c r="B9406" s="1"/>
-    </row>
-    <row r="9407" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9407" s="1"/>
-      <c r="B9407" s="1"/>
-    </row>
-    <row r="9408" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9408" s="1"/>
-      <c r="B9408" s="1"/>
-    </row>
-    <row r="9409" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9409" s="1"/>
-      <c r="B9409" s="1"/>
-    </row>
-    <row r="9410" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9410" s="1"/>
-      <c r="B9410" s="1"/>
-    </row>
-    <row r="9411" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9411" s="1"/>
-      <c r="B9411" s="1"/>
-    </row>
-    <row r="9412" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9412" s="1"/>
-      <c r="B9412" s="1"/>
-    </row>
-    <row r="9413" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9413" s="1"/>
-      <c r="B9413" s="1"/>
-    </row>
-    <row r="9414" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9414" s="1"/>
-      <c r="B9414" s="1"/>
-    </row>
-    <row r="9415" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9415" s="1"/>
-      <c r="B9415" s="1"/>
-    </row>
-    <row r="9416" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9416" s="1"/>
-      <c r="B9416" s="1"/>
-    </row>
-    <row r="9417" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9417" s="1"/>
-      <c r="B9417" s="1"/>
-    </row>
-    <row r="9418" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9418" s="1"/>
-      <c r="B9418" s="1"/>
-    </row>
-    <row r="9419" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9419" s="1"/>
-      <c r="B9419" s="1"/>
-    </row>
-    <row r="9420" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9420" s="1"/>
-      <c r="B9420" s="1"/>
-    </row>
-    <row r="9421" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9421" s="1"/>
-      <c r="B9421" s="1"/>
-    </row>
-    <row r="9422" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9422" s="1"/>
-      <c r="B9422" s="1"/>
-    </row>
-    <row r="9423" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9423" s="1"/>
-      <c r="B9423" s="1"/>
-    </row>
-    <row r="9424" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9424" s="1"/>
-      <c r="B9424" s="1"/>
-    </row>
-    <row r="9425" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9425" s="1"/>
-      <c r="B9425" s="1"/>
-    </row>
-    <row r="9426" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9426" s="1"/>
-      <c r="B9426" s="1"/>
-    </row>
-    <row r="9427" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9427" s="1"/>
-      <c r="B9427" s="1"/>
-    </row>
-    <row r="9428" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9428" s="1"/>
-      <c r="B9428" s="1"/>
-    </row>
-    <row r="9429" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9429" s="1"/>
-      <c r="B9429" s="1"/>
-    </row>
-    <row r="9430" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9430" s="1"/>
-      <c r="B9430" s="1"/>
-    </row>
-    <row r="9431" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9431" s="1"/>
-      <c r="B9431" s="1"/>
-    </row>
-    <row r="9432" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9432" s="1"/>
-      <c r="B9432" s="1"/>
-    </row>
-    <row r="9433" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9433" s="1"/>
-      <c r="B9433" s="1"/>
-    </row>
-    <row r="9434" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9434" s="1"/>
-      <c r="B9434" s="1"/>
-    </row>
-    <row r="9435" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9435" s="1"/>
-      <c r="B9435" s="1"/>
-    </row>
-    <row r="9436" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9436" s="1"/>
-      <c r="B9436" s="1"/>
-    </row>
-    <row r="9437" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9437" s="1"/>
-      <c r="B9437" s="1"/>
-    </row>
-    <row r="9438" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9438" s="1"/>
-      <c r="B9438" s="1"/>
-    </row>
-    <row r="9439" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9439" s="1"/>
-      <c r="B9439" s="1"/>
-    </row>
-    <row r="9440" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9440" s="1"/>
-      <c r="B9440" s="1"/>
-    </row>
-    <row r="9441" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9441" s="1"/>
-      <c r="B9441" s="1"/>
-    </row>
-    <row r="9442" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9442" s="1"/>
-      <c r="B9442" s="1"/>
-    </row>
-    <row r="9443" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9443" s="1"/>
-      <c r="B9443" s="1"/>
-    </row>
-    <row r="9444" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9444" s="1"/>
-      <c r="B9444" s="1"/>
-    </row>
-    <row r="9445" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9445" s="1"/>
-      <c r="B9445" s="1"/>
-    </row>
-    <row r="9446" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9446" s="1"/>
-      <c r="B9446" s="1"/>
-    </row>
-    <row r="9447" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9447" s="1"/>
-      <c r="B9447" s="1"/>
-    </row>
-    <row r="9448" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9448" s="1"/>
-      <c r="B9448" s="1"/>
-    </row>
-    <row r="9449" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9449" s="1"/>
-      <c r="B9449" s="1"/>
-    </row>
-    <row r="9450" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9450" s="1"/>
-      <c r="B9450" s="1"/>
-    </row>
-    <row r="9451" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9451" s="1"/>
-      <c r="B9451" s="1"/>
-    </row>
-    <row r="9452" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9452" s="1"/>
-      <c r="B9452" s="1"/>
-    </row>
-    <row r="9453" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9453" s="1"/>
-      <c r="B9453" s="1"/>
-    </row>
-    <row r="9454" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9454" s="1"/>
-      <c r="B9454" s="1"/>
-    </row>
-    <row r="9455" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9455" s="1"/>
-      <c r="B9455" s="1"/>
-    </row>
-    <row r="9456" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9456" s="1"/>
-      <c r="B9456" s="1"/>
-    </row>
-    <row r="9457" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9457" s="1"/>
-      <c r="B9457" s="1"/>
-    </row>
-    <row r="9458" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9458" s="1"/>
-      <c r="B9458" s="1"/>
-    </row>
-    <row r="9459" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9459" s="1"/>
-      <c r="B9459" s="1"/>
-    </row>
-    <row r="9460" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9460" s="1"/>
-      <c r="B9460" s="1"/>
-    </row>
-    <row r="9461" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9461" s="1"/>
-      <c r="B9461" s="1"/>
-    </row>
-    <row r="9462" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9462" s="1"/>
-      <c r="B9462" s="1"/>
-    </row>
-    <row r="9463" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9463" s="1"/>
-      <c r="B9463" s="1"/>
-    </row>
-    <row r="9464" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9464" s="1"/>
-      <c r="B9464" s="1"/>
-    </row>
-    <row r="9465" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9465" s="1"/>
-      <c r="B9465" s="1"/>
-    </row>
-    <row r="9466" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9466" s="1"/>
-      <c r="B9466" s="1"/>
-    </row>
-    <row r="9467" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9467" s="1"/>
-      <c r="B9467" s="1"/>
-    </row>
-    <row r="9468" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9468" s="1"/>
-      <c r="B9468" s="1"/>
-    </row>
-    <row r="9469" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9469" s="1"/>
-      <c r="B9469" s="1"/>
-    </row>
-    <row r="9470" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9470" s="1"/>
-      <c r="B9470" s="1"/>
-    </row>
-    <row r="9471" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9471" s="1"/>
-      <c r="B9471" s="1"/>
-    </row>
-    <row r="9472" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9472" s="1"/>
-      <c r="B9472" s="1"/>
-    </row>
-    <row r="9473" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9473" s="1"/>
-      <c r="B9473" s="1"/>
-    </row>
-    <row r="9474" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9474" s="1"/>
-      <c r="B9474" s="1"/>
-    </row>
-    <row r="9475" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9475" s="1"/>
-      <c r="B9475" s="1"/>
-    </row>
-    <row r="9476" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9476" s="1"/>
-      <c r="B9476" s="1"/>
-    </row>
-    <row r="9477" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9477" s="1"/>
-      <c r="B9477" s="1"/>
-    </row>
-    <row r="9478" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9478" s="1"/>
-      <c r="B9478" s="1"/>
-    </row>
-    <row r="9479" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9479" s="1"/>
-      <c r="B9479" s="1"/>
-    </row>
-    <row r="9480" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9480" s="1"/>
-      <c r="B9480" s="1"/>
-    </row>
-    <row r="9481" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9481" s="1"/>
-      <c r="B9481" s="1"/>
-    </row>
-    <row r="9482" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9482" s="1"/>
-      <c r="B9482" s="1"/>
-    </row>
-    <row r="9483" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9483" s="1"/>
-      <c r="B9483" s="1"/>
-    </row>
-    <row r="9484" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9484" s="1"/>
-      <c r="B9484" s="1"/>
-    </row>
-    <row r="9485" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9485" s="1"/>
-      <c r="B9485" s="1"/>
-    </row>
-    <row r="9486" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9486" s="1"/>
-      <c r="B9486" s="1"/>
-    </row>
-    <row r="9487" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9487" s="1"/>
-      <c r="B9487" s="1"/>
-    </row>
-    <row r="9488" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9488" s="1"/>
-      <c r="B9488" s="1"/>
-    </row>
-    <row r="9489" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9489" s="1"/>
-      <c r="B9489" s="1"/>
-    </row>
-    <row r="9490" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9490" s="1"/>
-      <c r="B9490" s="1"/>
-    </row>
-    <row r="9491" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9491" s="1"/>
-      <c r="B9491" s="1"/>
-    </row>
-    <row r="9492" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9492" s="1"/>
-      <c r="B9492" s="1"/>
-    </row>
-    <row r="9493" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9493" s="1"/>
-      <c r="B9493" s="1"/>
-    </row>
-    <row r="9494" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9494" s="1"/>
-      <c r="B9494" s="1"/>
-    </row>
-    <row r="9495" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9495" s="1"/>
-      <c r="B9495" s="1"/>
-    </row>
-    <row r="9496" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9496" s="1"/>
-      <c r="B9496" s="1"/>
-    </row>
-    <row r="9497" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9497" s="1"/>
-      <c r="B9497" s="1"/>
-    </row>
-    <row r="9498" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9498" s="1"/>
-      <c r="B9498" s="1"/>
-    </row>
-    <row r="9499" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9499" s="1"/>
-      <c r="B9499" s="1"/>
-    </row>
-    <row r="9500" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9500" s="1"/>
-      <c r="B9500" s="1"/>
-    </row>
-    <row r="9501" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9501" s="1"/>
-      <c r="B9501" s="1"/>
-    </row>
-    <row r="9502" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9502" s="1"/>
-      <c r="B9502" s="1"/>
-    </row>
-    <row r="9503" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9503" s="1"/>
-      <c r="B9503" s="1"/>
-    </row>
-    <row r="9504" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9504" s="1"/>
-      <c r="B9504" s="1"/>
-    </row>
-    <row r="9505" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9505" s="1"/>
-      <c r="B9505" s="1"/>
-    </row>
-    <row r="9506" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9506" s="1"/>
-      <c r="B9506" s="1"/>
-    </row>
-    <row r="9507" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9507" s="1"/>
-      <c r="B9507" s="1"/>
-    </row>
-    <row r="9508" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9508" s="1"/>
-      <c r="B9508" s="1"/>
-    </row>
-    <row r="9509" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9509" s="1"/>
-      <c r="B9509" s="1"/>
-    </row>
-    <row r="9510" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9510" s="1"/>
-      <c r="B9510" s="1"/>
-    </row>
-    <row r="9511" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9511" s="1"/>
-      <c r="B9511" s="1"/>
-    </row>
-    <row r="9512" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9512" s="1"/>
-      <c r="B9512" s="1"/>
-    </row>
-    <row r="9513" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9513" s="1"/>
-      <c r="B9513" s="1"/>
-    </row>
-    <row r="9514" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9514" s="1"/>
-      <c r="B9514" s="1"/>
-    </row>
-    <row r="9515" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9515" s="1"/>
-      <c r="B9515" s="1"/>
-    </row>
-    <row r="9516" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9516" s="1"/>
-      <c r="B9516" s="1"/>
-    </row>
-    <row r="9517" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9517" s="1"/>
-      <c r="B9517" s="1"/>
-    </row>
-    <row r="9518" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9518" s="1"/>
-      <c r="B9518" s="1"/>
-    </row>
-    <row r="9519" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9519" s="1"/>
-      <c r="B9519" s="1"/>
-    </row>
-    <row r="9520" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9520" s="1"/>
-      <c r="B9520" s="1"/>
-    </row>
-    <row r="9521" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9521" s="1"/>
-      <c r="B9521" s="1"/>
-    </row>
-    <row r="9522" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9522" s="1"/>
-      <c r="B9522" s="1"/>
-    </row>
-    <row r="9523" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9523" s="1"/>
-      <c r="B9523" s="1"/>
-    </row>
-    <row r="9524" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9524" s="1"/>
-      <c r="B9524" s="1"/>
-    </row>
-    <row r="9525" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9525" s="1"/>
-      <c r="B9525" s="1"/>
-    </row>
-    <row r="9526" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9526" s="1"/>
-      <c r="B9526" s="1"/>
-    </row>
-    <row r="9527" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9527" s="1"/>
-      <c r="B9527" s="1"/>
-    </row>
-    <row r="9528" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9528" s="1"/>
-      <c r="B9528" s="1"/>
-    </row>
-    <row r="9529" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9529" s="1"/>
-      <c r="B9529" s="1"/>
-    </row>
-    <row r="9530" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9530" s="1"/>
-      <c r="B9530" s="1"/>
-    </row>
-    <row r="9531" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9531" s="1"/>
-      <c r="B9531" s="1"/>
-    </row>
-    <row r="9532" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9532" s="1"/>
-      <c r="B9532" s="1"/>
-    </row>
-    <row r="9533" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9533" s="1"/>
-      <c r="B9533" s="1"/>
-    </row>
-    <row r="9534" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9534" s="1"/>
-      <c r="B9534" s="1"/>
-    </row>
-    <row r="9535" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9535" s="1"/>
-      <c r="B9535" s="1"/>
-    </row>
-    <row r="9536" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9536" s="1"/>
-      <c r="B9536" s="1"/>
-    </row>
-    <row r="9537" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9537" s="1"/>
-      <c r="B9537" s="1"/>
-    </row>
-    <row r="9538" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9538" s="1"/>
-      <c r="B9538" s="1"/>
-    </row>
-    <row r="9539" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9539" s="1"/>
-      <c r="B9539" s="1"/>
-    </row>
-    <row r="9540" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9540" s="1"/>
-      <c r="B9540" s="1"/>
-    </row>
-    <row r="9541" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9541" s="1"/>
-      <c r="B9541" s="1"/>
-    </row>
-    <row r="9542" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9542" s="1"/>
-      <c r="B9542" s="1"/>
-    </row>
-    <row r="9543" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9543" s="1"/>
-      <c r="B9543" s="1"/>
-    </row>
-    <row r="9544" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9544" s="1"/>
-      <c r="B9544" s="1"/>
-    </row>
-    <row r="9545" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9545" s="1"/>
-      <c r="B9545" s="1"/>
-    </row>
-    <row r="9546" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9546" s="1"/>
-      <c r="B9546" s="1"/>
-    </row>
-    <row r="9547" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9547" s="1"/>
-      <c r="B9547" s="1"/>
-    </row>
-    <row r="9548" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9548" s="1"/>
-      <c r="B9548" s="1"/>
-    </row>
-    <row r="9549" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9549" s="1"/>
-      <c r="B9549" s="1"/>
-    </row>
-    <row r="9550" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9550" s="1"/>
-      <c r="B9550" s="1"/>
-    </row>
-    <row r="9551" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9551" s="1"/>
-      <c r="B9551" s="1"/>
-    </row>
-    <row r="9552" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9552" s="1"/>
-      <c r="B9552" s="1"/>
-    </row>
-    <row r="9553" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9553" s="1"/>
-      <c r="B9553" s="1"/>
-    </row>
-    <row r="9554" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9554" s="1"/>
-      <c r="B9554" s="1"/>
-    </row>
-    <row r="9555" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9555" s="1"/>
-      <c r="B9555" s="1"/>
-    </row>
-    <row r="9556" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9556" s="1"/>
-      <c r="B9556" s="1"/>
-    </row>
-    <row r="9557" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9557" s="1"/>
-      <c r="B9557" s="1"/>
-    </row>
-    <row r="9558" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9558" s="1"/>
-      <c r="B9558" s="1"/>
-    </row>
-    <row r="9559" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9559" s="1"/>
-      <c r="B9559" s="1"/>
-    </row>
-    <row r="9560" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9560" s="1"/>
-      <c r="B9560" s="1"/>
-    </row>
-    <row r="9561" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9561" s="1"/>
-      <c r="B9561" s="1"/>
-    </row>
-    <row r="9562" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9562" s="1"/>
-      <c r="B9562" s="1"/>
-    </row>
-    <row r="9563" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9563" s="1"/>
-      <c r="B9563" s="1"/>
-    </row>
-    <row r="9564" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9564" s="1"/>
-      <c r="B9564" s="1"/>
-    </row>
-    <row r="9565" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9565" s="1"/>
-      <c r="B9565" s="1"/>
-    </row>
-    <row r="9566" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9566" s="1"/>
-      <c r="B9566" s="1"/>
-    </row>
-    <row r="9567" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9567" s="1"/>
-      <c r="B9567" s="1"/>
-    </row>
-    <row r="9568" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9568" s="1"/>
-      <c r="B9568" s="1"/>
-    </row>
-    <row r="9569" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9569" s="1"/>
-      <c r="B9569" s="1"/>
-    </row>
-    <row r="9570" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9570" s="1"/>
-      <c r="B9570" s="1"/>
-    </row>
-    <row r="9571" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9571" s="1"/>
-      <c r="B9571" s="1"/>
-    </row>
-    <row r="9572" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9572" s="1"/>
-      <c r="B9572" s="1"/>
-    </row>
-    <row r="9573" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9573" s="1"/>
-      <c r="B9573" s="1"/>
-    </row>
-    <row r="9574" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9574" s="1"/>
-      <c r="B9574" s="1"/>
-    </row>
-    <row r="9575" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9575" s="1"/>
-      <c r="B9575" s="1"/>
-    </row>
-    <row r="9576" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9576" s="1"/>
-      <c r="B9576" s="1"/>
-    </row>
-    <row r="9577" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9577" s="1"/>
-      <c r="B9577" s="1"/>
-    </row>
-    <row r="9578" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9578" s="1"/>
-      <c r="B9578" s="1"/>
-    </row>
-    <row r="9579" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9579" s="1"/>
-      <c r="B9579" s="1"/>
-    </row>
-    <row r="9580" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9580" s="1"/>
-      <c r="B9580" s="1"/>
-    </row>
-    <row r="9581" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9581" s="1"/>
-      <c r="B9581" s="1"/>
-    </row>
-    <row r="9582" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9582" s="1"/>
-      <c r="B9582" s="1"/>
-    </row>
-    <row r="9583" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9583" s="1"/>
-      <c r="B9583" s="1"/>
-    </row>
-    <row r="9584" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9584" s="1"/>
-      <c r="B9584" s="1"/>
-    </row>
-    <row r="9585" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9585" s="1"/>
-      <c r="B9585" s="1"/>
-    </row>
-    <row r="9586" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9586" s="1"/>
-      <c r="B9586" s="1"/>
-    </row>
-    <row r="9587" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9587" s="1"/>
-      <c r="B9587" s="1"/>
-    </row>
-    <row r="9588" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9588" s="1"/>
-      <c r="B9588" s="1"/>
-    </row>
-    <row r="9589" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9589" s="1"/>
-      <c r="B9589" s="1"/>
-    </row>
-    <row r="9590" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9590" s="1"/>
-      <c r="B9590" s="1"/>
-    </row>
-    <row r="9591" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9591" s="1"/>
-      <c r="B9591" s="1"/>
-    </row>
-    <row r="9592" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9592" s="1"/>
-      <c r="B9592" s="1"/>
-    </row>
-    <row r="9593" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9593" s="1"/>
-      <c r="B9593" s="1"/>
-    </row>
-    <row r="9594" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9594" s="1"/>
-      <c r="B9594" s="1"/>
-    </row>
-    <row r="9595" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9595" s="1"/>
-      <c r="B9595" s="1"/>
-    </row>
-    <row r="9596" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9596" s="1"/>
-      <c r="B9596" s="1"/>
-    </row>
-    <row r="9597" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9597" s="1"/>
-      <c r="B9597" s="1"/>
-    </row>
-    <row r="9598" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9598" s="1"/>
-      <c r="B9598" s="1"/>
-    </row>
-    <row r="9599" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9599" s="1"/>
-      <c r="B9599" s="1"/>
-    </row>
-    <row r="9600" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9600" s="1"/>
-      <c r="B9600" s="1"/>
-    </row>
-    <row r="9601" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9601" s="1"/>
-      <c r="B9601" s="1"/>
-    </row>
-    <row r="9602" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9602" s="1"/>
-      <c r="B9602" s="1"/>
-    </row>
-    <row r="9603" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9603" s="1"/>
-      <c r="B9603" s="1"/>
-    </row>
-    <row r="9604" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9604" s="1"/>
-      <c r="B9604" s="1"/>
-    </row>
-    <row r="9605" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9605" s="1"/>
-      <c r="B9605" s="1"/>
-    </row>
-    <row r="9606" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9606" s="1"/>
-      <c r="B9606" s="1"/>
-    </row>
-    <row r="9607" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9607" s="1"/>
-      <c r="B9607" s="1"/>
-    </row>
-    <row r="9608" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9608" s="1"/>
-      <c r="B9608" s="1"/>
-    </row>
-    <row r="9609" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9609" s="1"/>
-      <c r="B9609" s="1"/>
-    </row>
-    <row r="9610" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9610" s="1"/>
-      <c r="B9610" s="1"/>
-    </row>
-    <row r="9611" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9611" s="1"/>
-      <c r="B9611" s="1"/>
-    </row>
-    <row r="9612" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9612" s="1"/>
-      <c r="B9612" s="1"/>
-    </row>
-    <row r="9613" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9613" s="1"/>
-      <c r="B9613" s="1"/>
-    </row>
-    <row r="9614" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9614" s="1"/>
-      <c r="B9614" s="1"/>
-    </row>
-    <row r="9615" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9615" s="1"/>
-      <c r="B9615" s="1"/>
-    </row>
-    <row r="9616" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9616" s="1"/>
-      <c r="B9616" s="1"/>
-    </row>
-    <row r="9617" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9617" s="1"/>
-      <c r="B9617" s="1"/>
-    </row>
-    <row r="9618" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9618" s="1"/>
-      <c r="B9618" s="1"/>
-    </row>
-    <row r="9619" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9619" s="1"/>
-      <c r="B9619" s="1"/>
-    </row>
-    <row r="9620" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9620" s="1"/>
-      <c r="B9620" s="1"/>
-    </row>
-    <row r="9621" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9621" s="1"/>
-      <c r="B9621" s="1"/>
-    </row>
-    <row r="9622" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9622" s="1"/>
-      <c r="B9622" s="1"/>
-    </row>
-    <row r="9623" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9623" s="1"/>
-      <c r="B9623" s="1"/>
-    </row>
-    <row r="9624" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9624" s="1"/>
-      <c r="B9624" s="1"/>
-    </row>
-    <row r="9625" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9625" s="1"/>
-      <c r="B9625" s="1"/>
-    </row>
-    <row r="9626" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9626" s="1"/>
-      <c r="B9626" s="1"/>
-    </row>
-    <row r="9627" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9627" s="1"/>
-      <c r="B9627" s="1"/>
-    </row>
-    <row r="9628" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9628" s="1"/>
-      <c r="B9628" s="1"/>
-    </row>
-    <row r="9629" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9629" s="1"/>
-      <c r="B9629" s="1"/>
-    </row>
-    <row r="9630" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9630" s="1"/>
-      <c r="B9630" s="1"/>
-    </row>
-    <row r="9631" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9631" s="1"/>
-      <c r="B9631" s="1"/>
-    </row>
-    <row r="9632" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9632" s="1"/>
-      <c r="B9632" s="1"/>
-    </row>
-    <row r="9633" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9633" s="1"/>
-      <c r="B9633" s="1"/>
-    </row>
-    <row r="9634" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9634" s="1"/>
-      <c r="B9634" s="1"/>
-    </row>
-    <row r="9635" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9635" s="1"/>
-      <c r="B9635" s="1"/>
-    </row>
-    <row r="9636" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9636" s="1"/>
-      <c r="B9636" s="1"/>
-    </row>
-    <row r="9637" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9637" s="1"/>
-      <c r="B9637" s="1"/>
-    </row>
-    <row r="9638" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9638" s="1"/>
-      <c r="B9638" s="1"/>
-    </row>
-    <row r="9639" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9639" s="1"/>
-      <c r="B9639" s="1"/>
-    </row>
-    <row r="9640" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9640" s="1"/>
-      <c r="B9640" s="1"/>
-    </row>
-    <row r="9641" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9641" s="1"/>
-      <c r="B9641" s="1"/>
-    </row>
-    <row r="9642" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9642" s="1"/>
-      <c r="B9642" s="1"/>
-    </row>
-    <row r="9643" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9643" s="1"/>
-      <c r="B9643" s="1"/>
-    </row>
-    <row r="9644" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9644" s="1"/>
-      <c r="B9644" s="1"/>
-    </row>
-    <row r="9645" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9645" s="1"/>
-      <c r="B9645" s="1"/>
-    </row>
-    <row r="9646" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9646" s="1"/>
-      <c r="B9646" s="1"/>
-    </row>
-    <row r="9647" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9647" s="1"/>
-      <c r="B9647" s="1"/>
-    </row>
-    <row r="9648" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9648" s="1"/>
-      <c r="B9648" s="1"/>
-    </row>
-    <row r="9649" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9649" s="1"/>
-      <c r="B9649" s="1"/>
-    </row>
-    <row r="9650" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9650" s="1"/>
-      <c r="B9650" s="1"/>
-    </row>
-    <row r="9651" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9651" s="1"/>
-      <c r="B9651" s="1"/>
-    </row>
-    <row r="9652" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9652" s="1"/>
-      <c r="B9652" s="1"/>
-    </row>
-    <row r="9653" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9653" s="1"/>
-      <c r="B9653" s="1"/>
-    </row>
-    <row r="9654" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9654" s="1"/>
-      <c r="B9654" s="1"/>
-    </row>
-    <row r="9655" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9655" s="1"/>
-      <c r="B9655" s="1"/>
-    </row>
-    <row r="9656" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9656" s="1"/>
-      <c r="B9656" s="1"/>
-    </row>
-    <row r="9657" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9657" s="1"/>
-      <c r="B9657" s="1"/>
-    </row>
-    <row r="9658" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9658" s="1"/>
-      <c r="B9658" s="1"/>
-    </row>
-    <row r="9659" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9659" s="1"/>
-      <c r="B9659" s="1"/>
-    </row>
-    <row r="9660" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9660" s="1"/>
-      <c r="B9660" s="1"/>
-    </row>
-    <row r="9661" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9661" s="1"/>
-      <c r="B9661" s="1"/>
-    </row>
-    <row r="9662" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9662" s="1"/>
-      <c r="B9662" s="1"/>
-    </row>
-    <row r="9663" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9663" s="1"/>
-      <c r="B9663" s="1"/>
-    </row>
-    <row r="9664" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9664" s="1"/>
-      <c r="B9664" s="1"/>
-    </row>
-    <row r="9665" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9665" s="1"/>
-      <c r="B9665" s="1"/>
-    </row>
-    <row r="9666" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9666" s="1"/>
-      <c r="B9666" s="1"/>
-    </row>
-    <row r="9667" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9667" s="1"/>
-      <c r="B9667" s="1"/>
-    </row>
-    <row r="9668" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9668" s="1"/>
-      <c r="B9668" s="1"/>
-    </row>
-    <row r="9669" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9669" s="1"/>
-      <c r="B9669" s="1"/>
-    </row>
-    <row r="9670" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9670" s="1"/>
-      <c r="B9670" s="1"/>
-    </row>
-    <row r="9671" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9671" s="1"/>
-      <c r="B9671" s="1"/>
-    </row>
-    <row r="9672" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9672" s="1"/>
-      <c r="B9672" s="1"/>
-    </row>
-    <row r="9673" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9673" s="1"/>
-      <c r="B9673" s="1"/>
-    </row>
-    <row r="9674" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9674" s="1"/>
-      <c r="B9674" s="1"/>
-    </row>
-    <row r="9675" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9675" s="1"/>
-      <c r="B9675" s="1"/>
-    </row>
-    <row r="9676" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9676" s="1"/>
-      <c r="B9676" s="1"/>
-    </row>
-    <row r="9677" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9677" s="1"/>
-      <c r="B9677" s="1"/>
-    </row>
-    <row r="9678" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9678" s="1"/>
-      <c r="B9678" s="1"/>
-    </row>
-    <row r="9679" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9679" s="1"/>
-      <c r="B9679" s="1"/>
-    </row>
-    <row r="9680" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9680" s="1"/>
-      <c r="B9680" s="1"/>
-    </row>
-    <row r="9681" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9681" s="1"/>
-      <c r="B9681" s="1"/>
-    </row>
-    <row r="9682" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9682" s="1"/>
-      <c r="B9682" s="1"/>
-    </row>
-    <row r="9683" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9683" s="1"/>
-      <c r="B9683" s="1"/>
-    </row>
-    <row r="9684" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9684" s="1"/>
-      <c r="B9684" s="1"/>
-    </row>
-    <row r="9685" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9685" s="1"/>
-      <c r="B9685" s="1"/>
-    </row>
-    <row r="9686" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9686" s="1"/>
-      <c r="B9686" s="1"/>
-    </row>
-    <row r="9687" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9687" s="1"/>
-      <c r="B9687" s="1"/>
-    </row>
-    <row r="9688" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9688" s="1"/>
-      <c r="B9688" s="1"/>
-    </row>
-    <row r="9689" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9689" s="1"/>
-      <c r="B9689" s="1"/>
-    </row>
-    <row r="9690" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9690" s="1"/>
-      <c r="B9690" s="1"/>
-    </row>
-    <row r="9691" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9691" s="1"/>
-      <c r="B9691" s="1"/>
-    </row>
-    <row r="9692" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9692" s="1"/>
-      <c r="B9692" s="1"/>
-    </row>
-    <row r="9693" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9693" s="1"/>
-      <c r="B9693" s="1"/>
-    </row>
-    <row r="9694" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9694" s="1"/>
-      <c r="B9694" s="1"/>
-    </row>
-    <row r="9695" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9695" s="1"/>
-      <c r="B9695" s="1"/>
-    </row>
-    <row r="9696" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9696" s="1"/>
-      <c r="B9696" s="1"/>
-    </row>
-    <row r="9697" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9697" s="1"/>
-      <c r="B9697" s="1"/>
-    </row>
-    <row r="9698" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9698" s="1"/>
-      <c r="B9698" s="1"/>
-    </row>
-    <row r="9699" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9699" s="1"/>
-      <c r="B9699" s="1"/>
-    </row>
-    <row r="9700" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9700" s="1"/>
-      <c r="B9700" s="1"/>
-    </row>
-    <row r="9701" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9701" s="1"/>
-      <c r="B9701" s="1"/>
-    </row>
-    <row r="9702" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9702" s="1"/>
-      <c r="B9702" s="1"/>
-    </row>
-    <row r="9703" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9703" s="1"/>
-      <c r="B9703" s="1"/>
-    </row>
-    <row r="9704" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9704" s="1"/>
-      <c r="B9704" s="1"/>
-    </row>
-    <row r="9705" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9705" s="1"/>
-      <c r="B9705" s="1"/>
-    </row>
-    <row r="9706" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9706" s="1"/>
-      <c r="B9706" s="1"/>
-    </row>
-    <row r="9707" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9707" s="1"/>
-      <c r="B9707" s="1"/>
-    </row>
-    <row r="9708" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9708" s="1"/>
-      <c r="B9708" s="1"/>
-    </row>
-    <row r="9709" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9709" s="1"/>
-      <c r="B9709" s="1"/>
-    </row>
-    <row r="9710" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9710" s="1"/>
-      <c r="B9710" s="1"/>
-    </row>
-    <row r="9711" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9711" s="1"/>
-      <c r="B9711" s="1"/>
-    </row>
-    <row r="9712" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9712" s="1"/>
-      <c r="B9712" s="1"/>
-    </row>
-    <row r="9713" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9713" s="1"/>
-      <c r="B9713" s="1"/>
-    </row>
-    <row r="9714" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9714" s="1"/>
-      <c r="B9714" s="1"/>
-    </row>
-    <row r="9715" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9715" s="1"/>
-      <c r="B9715" s="1"/>
-    </row>
-    <row r="9716" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9716" s="1"/>
-      <c r="B9716" s="1"/>
-    </row>
-    <row r="9717" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9717" s="1"/>
-      <c r="B9717" s="1"/>
-    </row>
-    <row r="9718" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9718" s="1"/>
-      <c r="B9718" s="1"/>
-    </row>
-    <row r="9719" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9719" s="1"/>
-      <c r="B9719" s="1"/>
-    </row>
-    <row r="9720" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9720" s="1"/>
-      <c r="B9720" s="1"/>
-    </row>
-    <row r="9721" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9721" s="1"/>
-      <c r="B9721" s="1"/>
-    </row>
-    <row r="9722" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9722" s="1"/>
-      <c r="B9722" s="1"/>
-    </row>
-    <row r="9723" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9723" s="1"/>
-      <c r="B9723" s="1"/>
-    </row>
-    <row r="9724" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9724" s="1"/>
-      <c r="B9724" s="1"/>
-    </row>
-    <row r="9725" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9725" s="1"/>
-      <c r="B9725" s="1"/>
-    </row>
-    <row r="9726" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9726" s="1"/>
-      <c r="B9726" s="1"/>
-    </row>
-    <row r="9727" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9727" s="1"/>
-      <c r="B9727" s="1"/>
-    </row>
-    <row r="9728" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9728" s="1"/>
-      <c r="B9728" s="1"/>
-    </row>
-    <row r="9729" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9729" s="1"/>
-      <c r="B9729" s="1"/>
-    </row>
-    <row r="9730" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9730" s="1"/>
-      <c r="B9730" s="1"/>
-    </row>
-    <row r="9731" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9731" s="1"/>
-      <c r="B9731" s="1"/>
-    </row>
-    <row r="9732" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9732" s="1"/>
-      <c r="B9732" s="1"/>
-    </row>
-    <row r="9733" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9733" s="1"/>
-      <c r="B9733" s="1"/>
-    </row>
-    <row r="9734" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9734" s="1"/>
-      <c r="B9734" s="1"/>
-    </row>
-    <row r="9735" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9735" s="1"/>
-      <c r="B9735" s="1"/>
-    </row>
-    <row r="9736" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9736" s="1"/>
-      <c r="B9736" s="1"/>
-    </row>
-    <row r="9737" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9737" s="1"/>
-      <c r="B9737" s="1"/>
-    </row>
-    <row r="9738" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9738" s="1"/>
-      <c r="B9738" s="1"/>
-    </row>
-    <row r="9739" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9739" s="1"/>
-      <c r="B9739" s="1"/>
-    </row>
-    <row r="9740" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9740" s="1"/>
-      <c r="B9740" s="1"/>
-    </row>
-    <row r="9741" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9741" s="1"/>
-      <c r="B9741" s="1"/>
-    </row>
-    <row r="9742" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9742" s="1"/>
-      <c r="B9742" s="1"/>
-    </row>
-    <row r="9743" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9743" s="1"/>
-      <c r="B9743" s="1"/>
-    </row>
-    <row r="9744" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9744" s="1"/>
-      <c r="B9744" s="1"/>
-    </row>
-    <row r="9745" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9745" s="1"/>
-      <c r="B9745" s="1"/>
-    </row>
-    <row r="9746" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9746" s="1"/>
-      <c r="B9746" s="1"/>
-    </row>
-    <row r="9747" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9747" s="1"/>
-      <c r="B9747" s="1"/>
-    </row>
-    <row r="9748" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9748" s="1"/>
-      <c r="B9748" s="1"/>
-    </row>
-    <row r="9749" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9749" s="1"/>
-      <c r="B9749" s="1"/>
-    </row>
-    <row r="9750" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9750" s="1"/>
-      <c r="B9750" s="1"/>
-    </row>
-    <row r="9751" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9751" s="1"/>
-      <c r="B9751" s="1"/>
-    </row>
-    <row r="9752" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9752" s="1"/>
-      <c r="B9752" s="1"/>
-    </row>
-    <row r="9753" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9753" s="1"/>
-      <c r="B9753" s="1"/>
-    </row>
-    <row r="9754" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9754" s="1"/>
-      <c r="B9754" s="1"/>
-    </row>
-    <row r="9755" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9755" s="1"/>
-      <c r="B9755" s="1"/>
-    </row>
-    <row r="9756" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9756" s="1"/>
-      <c r="B9756" s="1"/>
-    </row>
-    <row r="9757" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9757" s="1"/>
-      <c r="B9757" s="1"/>
-    </row>
-    <row r="9758" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9758" s="1"/>
-      <c r="B9758" s="1"/>
-    </row>
-    <row r="9759" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9759" s="1"/>
-      <c r="B9759" s="1"/>
-    </row>
-    <row r="9760" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9760" s="1"/>
-      <c r="B9760" s="1"/>
-    </row>
-    <row r="9761" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9761" s="1"/>
-      <c r="B9761" s="1"/>
-    </row>
-    <row r="9762" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9762" s="1"/>
-      <c r="B9762" s="1"/>
-    </row>
-    <row r="9763" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9763" s="1"/>
-      <c r="B9763" s="1"/>
-    </row>
-    <row r="9764" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9764" s="1"/>
-      <c r="B9764" s="1"/>
-    </row>
-    <row r="9765" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9765" s="1"/>
-      <c r="B9765" s="1"/>
-    </row>
-    <row r="9766" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9766" s="1"/>
-      <c r="B9766" s="1"/>
-    </row>
-    <row r="9767" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9767" s="1"/>
-      <c r="B9767" s="1"/>
-    </row>
-    <row r="9768" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9768" s="1"/>
-      <c r="B9768" s="1"/>
-    </row>
-    <row r="9769" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9769" s="1"/>
-      <c r="B9769" s="1"/>
-    </row>
-    <row r="9770" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9770" s="1"/>
-      <c r="B9770" s="1"/>
-    </row>
-    <row r="9771" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9771" s="1"/>
-      <c r="B9771" s="1"/>
-    </row>
-    <row r="9772" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9772" s="1"/>
-      <c r="B9772" s="1"/>
-    </row>
-    <row r="9773" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9773" s="1"/>
-      <c r="B9773" s="1"/>
-    </row>
-    <row r="9774" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9774" s="1"/>
-      <c r="B9774" s="1"/>
-    </row>
-    <row r="9775" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9775" s="1"/>
-      <c r="B9775" s="1"/>
-    </row>
-    <row r="9776" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9776" s="1"/>
-      <c r="B9776" s="1"/>
-    </row>
-    <row r="9777" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9777" s="1"/>
-      <c r="B9777" s="1"/>
-    </row>
-    <row r="9778" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9778" s="1"/>
-      <c r="B9778" s="1"/>
-    </row>
-    <row r="9779" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9779" s="1"/>
-      <c r="B9779" s="1"/>
-    </row>
-    <row r="9780" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9780" s="1"/>
-      <c r="B9780" s="1"/>
-    </row>
-    <row r="9781" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9781" s="1"/>
-      <c r="B9781" s="1"/>
-    </row>
-    <row r="9782" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9782" s="1"/>
-      <c r="B9782" s="1"/>
-    </row>
-    <row r="9783" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9783" s="1"/>
-      <c r="B9783" s="1"/>
-    </row>
-    <row r="9784" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9784" s="1"/>
-      <c r="B9784" s="1"/>
-    </row>
-    <row r="9785" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9785" s="1"/>
-      <c r="B9785" s="1"/>
-    </row>
-    <row r="9786" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9786" s="1"/>
-      <c r="B9786" s="1"/>
-    </row>
-    <row r="9787" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9787" s="1"/>
-      <c r="B9787" s="1"/>
-    </row>
-    <row r="9788" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9788" s="1"/>
-      <c r="B9788" s="1"/>
-    </row>
-    <row r="9789" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9789" s="1"/>
-      <c r="B9789" s="1"/>
-    </row>
-    <row r="9790" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9790" s="1"/>
-      <c r="B9790" s="1"/>
-    </row>
-    <row r="9791" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9791" s="1"/>
-      <c r="B9791" s="1"/>
-    </row>
-    <row r="9792" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9792" s="1"/>
-      <c r="B9792" s="1"/>
-    </row>
-    <row r="9793" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9793" s="1"/>
-      <c r="B9793" s="1"/>
-    </row>
-    <row r="9794" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9794" s="1"/>
-      <c r="B9794" s="1"/>
-    </row>
-    <row r="9795" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9795" s="1"/>
-      <c r="B9795" s="1"/>
-    </row>
-    <row r="9796" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9796" s="1"/>
-      <c r="B9796" s="1"/>
-    </row>
-    <row r="9797" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9797" s="1"/>
-      <c r="B9797" s="1"/>
-    </row>
-    <row r="9798" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9798" s="1"/>
-      <c r="B9798" s="1"/>
-    </row>
-    <row r="9799" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9799" s="1"/>
-      <c r="B9799" s="1"/>
-    </row>
-    <row r="9800" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9800" s="1"/>
-      <c r="B9800" s="1"/>
-    </row>
-    <row r="9801" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9801" s="1"/>
-      <c r="B9801" s="1"/>
-    </row>
-    <row r="9802" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9802" s="1"/>
-      <c r="B9802" s="1"/>
-    </row>
-    <row r="9803" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9803" s="1"/>
-      <c r="B9803" s="1"/>
-    </row>
-    <row r="9804" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9804" s="1"/>
-      <c r="B9804" s="1"/>
-    </row>
-    <row r="9805" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9805" s="1"/>
-      <c r="B9805" s="1"/>
-    </row>
-    <row r="9806" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9806" s="1"/>
-      <c r="B9806" s="1"/>
-    </row>
-    <row r="9807" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9807" s="1"/>
-      <c r="B9807" s="1"/>
-    </row>
-    <row r="9808" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9808" s="1"/>
-      <c r="B9808" s="1"/>
-    </row>
-    <row r="9809" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9809" s="1"/>
-      <c r="B9809" s="1"/>
-    </row>
-    <row r="9810" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9810" s="1"/>
-      <c r="B9810" s="1"/>
-    </row>
-    <row r="9811" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9811" s="1"/>
-      <c r="B9811" s="1"/>
-    </row>
-    <row r="9812" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9812" s="1"/>
-      <c r="B9812" s="1"/>
-    </row>
-    <row r="9813" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9813" s="1"/>
-      <c r="B9813" s="1"/>
-    </row>
-    <row r="9814" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9814" s="1"/>
-      <c r="B9814" s="1"/>
-    </row>
-    <row r="9815" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9815" s="1"/>
-      <c r="B9815" s="1"/>
-    </row>
-    <row r="9816" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9816" s="1"/>
-      <c r="B9816" s="1"/>
-    </row>
-    <row r="9817" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9817" s="1"/>
-      <c r="B9817" s="1"/>
-    </row>
-    <row r="9818" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9818" s="1"/>
-      <c r="B9818" s="1"/>
-    </row>
-    <row r="9819" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9819" s="1"/>
-      <c r="B9819" s="1"/>
-    </row>
-    <row r="9820" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9820" s="1"/>
-      <c r="B9820" s="1"/>
-    </row>
-    <row r="9821" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9821" s="1"/>
-      <c r="B9821" s="1"/>
-    </row>
-    <row r="9822" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9822" s="1"/>
-      <c r="B9822" s="1"/>
-    </row>
-    <row r="9823" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9823" s="1"/>
-      <c r="B9823" s="1"/>
-    </row>
-    <row r="9824" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9824" s="1"/>
-      <c r="B9824" s="1"/>
-    </row>
-    <row r="9825" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9825" s="1"/>
-      <c r="B9825" s="1"/>
-    </row>
-    <row r="9826" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9826" s="1"/>
-      <c r="B9826" s="1"/>
-    </row>
-    <row r="9827" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9827" s="1"/>
-      <c r="B9827" s="1"/>
-    </row>
-    <row r="9828" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9828" s="1"/>
-      <c r="B9828" s="1"/>
-    </row>
-    <row r="9829" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9829" s="1"/>
-      <c r="B9829" s="1"/>
-    </row>
-    <row r="9830" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9830" s="1"/>
-      <c r="B9830" s="1"/>
-    </row>
-    <row r="9831" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9831" s="1"/>
-      <c r="B9831" s="1"/>
-    </row>
-    <row r="9832" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9832" s="1"/>
-      <c r="B9832" s="1"/>
-    </row>
-    <row r="9833" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9833" s="1"/>
-      <c r="B9833" s="1"/>
-    </row>
-    <row r="9834" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9834" s="1"/>
-      <c r="B9834" s="1"/>
-    </row>
-    <row r="9835" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9835" s="1"/>
-      <c r="B9835" s="1"/>
-    </row>
-    <row r="9836" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9836" s="1"/>
-      <c r="B9836" s="1"/>
-    </row>
-    <row r="9837" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9837" s="1"/>
-      <c r="B9837" s="1"/>
-    </row>
-    <row r="9838" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9838" s="1"/>
-      <c r="B9838" s="1"/>
-    </row>
-    <row r="9839" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9839" s="1"/>
-      <c r="B9839" s="1"/>
-    </row>
-    <row r="9840" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9840" s="1"/>
-      <c r="B9840" s="1"/>
-    </row>
-    <row r="9841" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9841" s="1"/>
-      <c r="B9841" s="1"/>
-    </row>
-    <row r="9842" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9842" s="1"/>
-      <c r="B9842" s="1"/>
-    </row>
-    <row r="9843" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9843" s="1"/>
-      <c r="B9843" s="1"/>
-    </row>
-    <row r="9844" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9844" s="1"/>
-      <c r="B9844" s="1"/>
-    </row>
-    <row r="9845" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9845" s="1"/>
-      <c r="B9845" s="1"/>
-    </row>
-    <row r="9846" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9846" s="1"/>
-      <c r="B9846" s="1"/>
-    </row>
-    <row r="9847" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9847" s="1"/>
-      <c r="B9847" s="1"/>
-    </row>
-    <row r="9848" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9848" s="1"/>
-      <c r="B9848" s="1"/>
-    </row>
-    <row r="9849" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9849" s="1"/>
-      <c r="B9849" s="1"/>
-    </row>
-    <row r="9850" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9850" s="1"/>
-      <c r="B9850" s="1"/>
-    </row>
-    <row r="9851" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9851" s="1"/>
-      <c r="B9851" s="1"/>
-    </row>
-    <row r="9852" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9852" s="1"/>
-      <c r="B9852" s="1"/>
-    </row>
-    <row r="9853" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9853" s="1"/>
-      <c r="B9853" s="1"/>
-    </row>
-    <row r="9854" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9854" s="1"/>
-      <c r="B9854" s="1"/>
-    </row>
-    <row r="9855" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9855" s="1"/>
-      <c r="B9855" s="1"/>
-    </row>
-    <row r="9856" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9856" s="1"/>
-      <c r="B9856" s="1"/>
-    </row>
-    <row r="9857" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9857" s="1"/>
-      <c r="B9857" s="1"/>
-    </row>
-    <row r="9858" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9858" s="1"/>
-      <c r="B9858" s="1"/>
-    </row>
-    <row r="9859" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9859" s="1"/>
-      <c r="B9859" s="1"/>
-    </row>
-    <row r="9860" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9860" s="1"/>
-      <c r="B9860" s="1"/>
-    </row>
-    <row r="9861" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9861" s="1"/>
-      <c r="B9861" s="1"/>
-    </row>
-    <row r="9862" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9862" s="1"/>
-      <c r="B9862" s="1"/>
-    </row>
-    <row r="9863" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9863" s="1"/>
-      <c r="B9863" s="1"/>
-    </row>
-    <row r="9864" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9864" s="1"/>
-      <c r="B9864" s="1"/>
-    </row>
-    <row r="9865" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9865" s="1"/>
-      <c r="B9865" s="1"/>
-    </row>
-    <row r="9866" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9866" s="1"/>
-      <c r="B9866" s="1"/>
-    </row>
-    <row r="9867" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9867" s="1"/>
-      <c r="B9867" s="1"/>
-    </row>
-    <row r="9868" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9868" s="1"/>
-      <c r="B9868" s="1"/>
-    </row>
-    <row r="9869" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9869" s="1"/>
-      <c r="B9869" s="1"/>
-    </row>
-    <row r="9870" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9870" s="1"/>
-      <c r="B9870" s="1"/>
-    </row>
-    <row r="9871" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9871" s="1"/>
-      <c r="B9871" s="1"/>
-    </row>
-    <row r="9872" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9872" s="1"/>
-      <c r="B9872" s="1"/>
-    </row>
-    <row r="9873" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9873" s="1"/>
-      <c r="B9873" s="1"/>
-    </row>
-    <row r="9874" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9874" s="1"/>
-      <c r="B9874" s="1"/>
-    </row>
-    <row r="9875" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9875" s="1"/>
-      <c r="B9875" s="1"/>
-    </row>
-    <row r="9876" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9876" s="1"/>
-      <c r="B9876" s="1"/>
-    </row>
-    <row r="9877" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9877" s="1"/>
-      <c r="B9877" s="1"/>
-    </row>
-    <row r="9878" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9878" s="1"/>
-      <c r="B9878" s="1"/>
-    </row>
-    <row r="9879" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9879" s="1"/>
-      <c r="B9879" s="1"/>
-    </row>
-    <row r="9880" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9880" s="1"/>
-      <c r="B9880" s="1"/>
-    </row>
-    <row r="9881" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9881" s="1"/>
-      <c r="B9881" s="1"/>
-    </row>
-    <row r="9882" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9882" s="1"/>
-      <c r="B9882" s="1"/>
-    </row>
-    <row r="9883" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9883" s="1"/>
-      <c r="B9883" s="1"/>
-    </row>
-    <row r="9884" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9884" s="1"/>
-      <c r="B9884" s="1"/>
-    </row>
-    <row r="9885" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9885" s="1"/>
-      <c r="B9885" s="1"/>
-    </row>
-    <row r="9886" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9886" s="1"/>
-      <c r="B9886" s="1"/>
-    </row>
-    <row r="9887" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9887" s="1"/>
-      <c r="B9887" s="1"/>
-    </row>
-    <row r="9888" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9888" s="1"/>
-      <c r="B9888" s="1"/>
-    </row>
-    <row r="9889" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9889" s="1"/>
-      <c r="B9889" s="1"/>
-    </row>
-    <row r="9890" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9890" s="1"/>
-      <c r="B9890" s="1"/>
-    </row>
-    <row r="9891" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9891" s="1"/>
-      <c r="B9891" s="1"/>
-    </row>
-    <row r="9892" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9892" s="1"/>
-      <c r="B9892" s="1"/>
-    </row>
-    <row r="9893" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9893" s="1"/>
-      <c r="B9893" s="1"/>
-    </row>
-    <row r="9894" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9894" s="1"/>
-      <c r="B9894" s="1"/>
-    </row>
-    <row r="9895" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9895" s="1"/>
-      <c r="B9895" s="1"/>
-    </row>
-    <row r="9896" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9896" s="1"/>
-      <c r="B9896" s="1"/>
-    </row>
-    <row r="9897" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9897" s="1"/>
-      <c r="B9897" s="1"/>
-    </row>
-    <row r="9898" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9898" s="1"/>
-      <c r="B9898" s="1"/>
-    </row>
-    <row r="9899" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9899" s="1"/>
-      <c r="B9899" s="1"/>
-    </row>
-    <row r="9900" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9900" s="1"/>
-      <c r="B9900" s="1"/>
-    </row>
-    <row r="9901" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9901" s="1"/>
-      <c r="B9901" s="1"/>
-    </row>
-    <row r="9902" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9902" s="1"/>
-      <c r="B9902" s="1"/>
-    </row>
-    <row r="9903" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9903" s="1"/>
-      <c r="B9903" s="1"/>
-    </row>
-    <row r="9904" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9904" s="1"/>
-      <c r="B9904" s="1"/>
-    </row>
-    <row r="9905" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9905" s="1"/>
-      <c r="B9905" s="1"/>
-    </row>
-    <row r="9906" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9906" s="1"/>
-      <c r="B9906" s="1"/>
-    </row>
-    <row r="9907" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9907" s="1"/>
-      <c r="B9907" s="1"/>
-    </row>
-    <row r="9908" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9908" s="1"/>
-      <c r="B9908" s="1"/>
-    </row>
-    <row r="9909" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9909" s="1"/>
-      <c r="B9909" s="1"/>
-    </row>
-    <row r="9910" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9910" s="1"/>
-      <c r="B9910" s="1"/>
-    </row>
-    <row r="9911" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9911" s="1"/>
-      <c r="B9911" s="1"/>
-    </row>
-    <row r="9912" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9912" s="1"/>
-      <c r="B9912" s="1"/>
-    </row>
-    <row r="9913" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9913" s="1"/>
-      <c r="B9913" s="1"/>
-    </row>
-    <row r="9914" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9914" s="1"/>
-      <c r="B9914" s="1"/>
-    </row>
-    <row r="9915" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9915" s="1"/>
-      <c r="B9915" s="1"/>
-    </row>
-    <row r="9916" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9916" s="1"/>
-      <c r="B9916" s="1"/>
-    </row>
-    <row r="9917" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9917" s="1"/>
-      <c r="B9917" s="1"/>
-    </row>
-    <row r="9918" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9918" s="1"/>
-      <c r="B9918" s="1"/>
-    </row>
-    <row r="9919" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9919" s="1"/>
-      <c r="B9919" s="1"/>
-    </row>
-    <row r="9920" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9920" s="1"/>
-      <c r="B9920" s="1"/>
-    </row>
-    <row r="9921" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9921" s="1"/>
-      <c r="B9921" s="1"/>
-    </row>
-    <row r="9922" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9922" s="1"/>
-      <c r="B9922" s="1"/>
-    </row>
-    <row r="9923" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9923" s="1"/>
-      <c r="B9923" s="1"/>
-    </row>
-    <row r="9924" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9924" s="1"/>
-      <c r="B9924" s="1"/>
-    </row>
-    <row r="9925" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9925" s="1"/>
-      <c r="B9925" s="1"/>
-    </row>
-    <row r="9926" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9926" s="1"/>
-      <c r="B9926" s="1"/>
-    </row>
-    <row r="9927" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9927" s="1"/>
-      <c r="B9927" s="1"/>
-    </row>
-    <row r="9928" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9928" s="1"/>
-      <c r="B9928" s="1"/>
-    </row>
-    <row r="9929" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9929" s="1"/>
-      <c r="B9929" s="1"/>
-    </row>
-    <row r="9930" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9930" s="1"/>
-      <c r="B9930" s="1"/>
-    </row>
-    <row r="9931" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9931" s="1"/>
-      <c r="B9931" s="1"/>
-    </row>
-    <row r="9932" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9932" s="1"/>
-      <c r="B9932" s="1"/>
-    </row>
-    <row r="9933" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9933" s="1"/>
-      <c r="B9933" s="1"/>
-    </row>
-    <row r="9934" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9934" s="1"/>
-      <c r="B9934" s="1"/>
-    </row>
-    <row r="9935" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9935" s="1"/>
-      <c r="B9935" s="1"/>
-    </row>
-    <row r="9936" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9936" s="1"/>
-      <c r="B9936" s="1"/>
-    </row>
-    <row r="9937" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9937" s="1"/>
-      <c r="B9937" s="1"/>
-    </row>
-    <row r="9938" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9938" s="1"/>
-      <c r="B9938" s="1"/>
-    </row>
-    <row r="9939" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9939" s="1"/>
-      <c r="B9939" s="1"/>
-    </row>
-    <row r="9940" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9940" s="1"/>
-      <c r="B9940" s="1"/>
-    </row>
-    <row r="9941" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9941" s="1"/>
-      <c r="B9941" s="1"/>
-    </row>
-    <row r="9942" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9942" s="1"/>
-      <c r="B9942" s="1"/>
-    </row>
-    <row r="9943" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9943" s="1"/>
-      <c r="B9943" s="1"/>
-    </row>
-    <row r="9944" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9944" s="1"/>
-      <c r="B9944" s="1"/>
-    </row>
-    <row r="9945" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9945" s="1"/>
-      <c r="B9945" s="1"/>
-    </row>
-    <row r="9946" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9946" s="1"/>
-      <c r="B9946" s="1"/>
-    </row>
-    <row r="9947" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9947" s="1"/>
-      <c r="B9947" s="1"/>
-    </row>
-    <row r="9948" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9948" s="1"/>
-      <c r="B9948" s="1"/>
-    </row>
-    <row r="9949" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9949" s="1"/>
-      <c r="B9949" s="1"/>
-    </row>
-    <row r="9950" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9950" s="1"/>
-      <c r="B9950" s="1"/>
-    </row>
-    <row r="9951" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9951" s="1"/>
-      <c r="B9951" s="1"/>
-    </row>
-    <row r="9952" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9952" s="1"/>
-      <c r="B9952" s="1"/>
-    </row>
-    <row r="9953" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9953" s="1"/>
-      <c r="B9953" s="1"/>
-    </row>
-    <row r="9954" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9954" s="1"/>
-      <c r="B9954" s="1"/>
-    </row>
-    <row r="9955" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9955" s="1"/>
-      <c r="B9955" s="1"/>
-    </row>
-    <row r="9956" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9956" s="1"/>
-      <c r="B9956" s="1"/>
-    </row>
-    <row r="9957" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9957" s="1"/>
-      <c r="B9957" s="1"/>
-    </row>
-    <row r="9958" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9958" s="1"/>
-      <c r="B9958" s="1"/>
-    </row>
-    <row r="9959" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9959" s="1"/>
-      <c r="B9959" s="1"/>
-    </row>
-    <row r="9960" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9960" s="1"/>
-      <c r="B9960" s="1"/>
-    </row>
-    <row r="9961" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9961" s="1"/>
-      <c r="B9961" s="1"/>
-    </row>
-    <row r="9962" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9962" s="1"/>
-      <c r="B9962" s="1"/>
-    </row>
-    <row r="9963" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9963" s="1"/>
-      <c r="B9963" s="1"/>
-    </row>
-    <row r="9964" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9964" s="1"/>
-      <c r="B9964" s="1"/>
-    </row>
-    <row r="9965" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9965" s="1"/>
-      <c r="B9965" s="1"/>
-    </row>
-    <row r="9966" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9966" s="1"/>
-      <c r="B9966" s="1"/>
-    </row>
-    <row r="9967" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9967" s="1"/>
-      <c r="B9967" s="1"/>
-    </row>
-    <row r="9968" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9968" s="1"/>
-      <c r="B9968" s="1"/>
-    </row>
-    <row r="9969" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9969" s="1"/>
-      <c r="B9969" s="1"/>
-    </row>
-    <row r="9970" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9970" s="1"/>
-      <c r="B9970" s="1"/>
-    </row>
-    <row r="9971" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9971" s="1"/>
-      <c r="B9971" s="1"/>
-    </row>
-    <row r="9972" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9972" s="1"/>
-      <c r="B9972" s="1"/>
-    </row>
-    <row r="9973" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9973" s="1"/>
-      <c r="B9973" s="1"/>
-    </row>
-    <row r="9974" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9974" s="1"/>
-      <c r="B9974" s="1"/>
-    </row>
-    <row r="9975" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9975" s="1"/>
-      <c r="B9975" s="1"/>
-    </row>
-    <row r="9976" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9976" s="1"/>
-      <c r="B9976" s="1"/>
-    </row>
-    <row r="9977" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9977" s="1"/>
-      <c r="B9977" s="1"/>
-    </row>
-    <row r="9978" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9978" s="1"/>
-      <c r="B9978" s="1"/>
-    </row>
-    <row r="9979" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9979" s="1"/>
-      <c r="B9979" s="1"/>
-    </row>
-    <row r="9980" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9980" s="1"/>
-      <c r="B9980" s="1"/>
-    </row>
-    <row r="9981" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9981" s="1"/>
-      <c r="B9981" s="1"/>
-    </row>
-    <row r="9982" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9982" s="1"/>
-      <c r="B9982" s="1"/>
-    </row>
-    <row r="9983" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9983" s="1"/>
-      <c r="B9983" s="1"/>
-    </row>
-    <row r="9984" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9984" s="1"/>
-      <c r="B9984" s="1"/>
-    </row>
-    <row r="9985" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9985" s="1"/>
-      <c r="B9985" s="1"/>
-    </row>
-    <row r="9986" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9986" s="1"/>
-      <c r="B9986" s="1"/>
-    </row>
-    <row r="9987" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9987" s="1"/>
-      <c r="B9987" s="1"/>
-    </row>
-    <row r="9988" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9988" s="1"/>
-      <c r="B9988" s="1"/>
-    </row>
-    <row r="9989" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9989" s="1"/>
-      <c r="B9989" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -30,1327 +30,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BioPep00050</t>
-  </si>
-  <si>
-    <t>Q9YGH4</t>
-  </si>
-  <si>
-    <t>BioPep00051</t>
-  </si>
-  <si>
-    <t>P01170</t>
-  </si>
-  <si>
-    <t>BioPep00052</t>
-  </si>
-  <si>
-    <t>P09876</t>
-  </si>
-  <si>
-    <t>BioPep00053</t>
-  </si>
-  <si>
-    <t>P21780</t>
-  </si>
-  <si>
-    <t>BioPep00054</t>
-  </si>
-  <si>
-    <t>P81029</t>
-  </si>
-  <si>
-    <t>BioPep00055</t>
-  </si>
-  <si>
-    <t>Q91194</t>
-  </si>
-  <si>
-    <t>BioPep00056</t>
-  </si>
-  <si>
-    <t>BioPep00057</t>
-  </si>
-  <si>
-    <t>Q0VTT8</t>
-  </si>
-  <si>
-    <t>BioPep00058</t>
-  </si>
-  <si>
-    <t>P84897</t>
-  </si>
-  <si>
-    <t>BioPep00059</t>
-  </si>
-  <si>
-    <t>P84935</t>
-  </si>
-  <si>
-    <t>BioPep00060</t>
-  </si>
-  <si>
-    <t>BioPep00061</t>
-  </si>
-  <si>
-    <t>P83057</t>
-  </si>
-  <si>
-    <t>BioPep00062</t>
-  </si>
-  <si>
-    <t>P84673</t>
-  </si>
-  <si>
-    <t>BioPep00063</t>
-  </si>
-  <si>
-    <t>P84894</t>
-  </si>
-  <si>
-    <t>BioPep00064</t>
-  </si>
-  <si>
-    <t>Q0VTU0</t>
-  </si>
-  <si>
-    <t>BioPep00065</t>
-  </si>
-  <si>
-    <t>P84899</t>
-  </si>
-  <si>
-    <t>BioPep00066</t>
-  </si>
-  <si>
-    <t>BioPep00067</t>
-  </si>
-  <si>
-    <t>P84898</t>
-  </si>
-  <si>
-    <t>BioPep00068</t>
-  </si>
-  <si>
-    <t>Q3MQ28</t>
-  </si>
-  <si>
-    <t>BioPep00069</t>
-  </si>
-  <si>
-    <t>P84745</t>
-  </si>
-  <si>
-    <t>BioPep00070</t>
-  </si>
-  <si>
-    <t>P84746</t>
-  </si>
-  <si>
-    <t>BioPep00071</t>
-  </si>
-  <si>
-    <t>P84747</t>
-  </si>
-  <si>
-    <t>BioPep00072</t>
-  </si>
-  <si>
-    <t>P26202</t>
-  </si>
-  <si>
-    <t>BioPep00073</t>
-  </si>
-  <si>
-    <t>P26203</t>
-  </si>
-  <si>
-    <t>BioPep00074</t>
-  </si>
-  <si>
-    <t>P9WJ62</t>
-  </si>
-  <si>
-    <t>BioPep00075</t>
-  </si>
-  <si>
-    <t>P9WJ63</t>
-  </si>
-  <si>
-    <t>BioPep00076</t>
-  </si>
-  <si>
-    <t>P81925</t>
-  </si>
-  <si>
-    <t>BioPep00077</t>
-  </si>
-  <si>
-    <t>P86783</t>
-  </si>
-  <si>
-    <t>BioPep00078</t>
-  </si>
-  <si>
-    <t>BioPep00079</t>
-  </si>
-  <si>
-    <t>Q10722</t>
-  </si>
-  <si>
-    <t>BioPep00080</t>
-  </si>
-  <si>
-    <t>P41965</t>
-  </si>
-  <si>
-    <t>BioPep00081</t>
-  </si>
-  <si>
-    <t>P56686</t>
-  </si>
-  <si>
-    <t>BioPep00082</t>
-  </si>
-  <si>
-    <t>P83328</t>
-  </si>
-  <si>
-    <t>BioPep00083</t>
-  </si>
-  <si>
-    <t>P05516</t>
-  </si>
-  <si>
-    <t>BioPep00084</t>
-  </si>
-  <si>
-    <t>P06575</t>
-  </si>
-  <si>
-    <t>BioPep00085</t>
-  </si>
-  <si>
-    <t>P12963</t>
-  </si>
-  <si>
-    <t>BioPep00086</t>
-  </si>
-  <si>
-    <t>P69053</t>
-  </si>
-  <si>
-    <t>BioPep00087</t>
-  </si>
-  <si>
-    <t>Q5ZT84</t>
-  </si>
-  <si>
-    <t>BioPep00088</t>
-  </si>
-  <si>
-    <t>P15131</t>
-  </si>
-  <si>
-    <t>BioPep00089</t>
-  </si>
-  <si>
-    <t>P56029</t>
-  </si>
-  <si>
-    <t>BioPep00090</t>
-  </si>
-  <si>
-    <t>Q0ZZJ6</t>
-  </si>
-  <si>
-    <t>BioPep00091</t>
-  </si>
-  <si>
-    <t>A0RZC6</t>
-  </si>
-  <si>
-    <t>BioPep00092</t>
-  </si>
-  <si>
-    <t>A5PG36</t>
-  </si>
-  <si>
-    <t>BioPep00093</t>
-  </si>
-  <si>
-    <t>A5PG37</t>
-  </si>
-  <si>
-    <t>BioPep00094</t>
-  </si>
-  <si>
-    <t>A5PG38</t>
-  </si>
-  <si>
-    <t>BioPep00095</t>
-  </si>
-  <si>
-    <t>B2FUW2</t>
-  </si>
-  <si>
-    <t>BioPep00096</t>
-  </si>
-  <si>
-    <t>P41855</t>
-  </si>
-  <si>
-    <t>BioPep00097</t>
-  </si>
-  <si>
-    <t>Q16N80</t>
-  </si>
-  <si>
-    <t>BioPep00098</t>
-  </si>
-  <si>
-    <t>Q7PTL2</t>
-  </si>
-  <si>
-    <t>BioPep00099</t>
-  </si>
-  <si>
-    <t>O44185</t>
-  </si>
-  <si>
-    <t>BioPep00100</t>
-  </si>
-  <si>
-    <t>BioPep00101</t>
-  </si>
-  <si>
-    <t>P10552</t>
-  </si>
-  <si>
-    <t>BioPep00102</t>
-  </si>
-  <si>
-    <t>Q9NDE8</t>
-  </si>
-  <si>
-    <t>BioPep00103</t>
-  </si>
-  <si>
-    <t>P15450</t>
-  </si>
-  <si>
-    <t>BioPep00104</t>
-  </si>
-  <si>
-    <t>P81463</t>
-  </si>
-  <si>
-    <t>BioPep00105</t>
-  </si>
-  <si>
-    <t>P06518</t>
-  </si>
-  <si>
-    <t>BioPep00106</t>
-  </si>
-  <si>
-    <t>P81592</t>
-  </si>
-  <si>
-    <t>BioPep00107</t>
-  </si>
-  <si>
-    <t>BioPep00108</t>
-  </si>
-  <si>
-    <t>BioPep00109</t>
-  </si>
-  <si>
-    <t>BioPep00110</t>
-  </si>
-  <si>
-    <t>BioPep00111</t>
-  </si>
-  <si>
-    <t>Q8I948</t>
-  </si>
-  <si>
-    <t>BioPep00112</t>
-  </si>
-  <si>
-    <t>Q8I6R7</t>
-  </si>
-  <si>
-    <t>BioPep00113</t>
-  </si>
-  <si>
-    <t>P38441</t>
-  </si>
-  <si>
-    <t>BioPep00114</t>
-  </si>
-  <si>
-    <t>P16548</t>
-  </si>
-  <si>
-    <t>BioPep00115</t>
-  </si>
-  <si>
-    <t>P25681</t>
-  </si>
-  <si>
-    <t>BioPep00116</t>
-  </si>
-  <si>
-    <t>P35903</t>
-  </si>
-  <si>
-    <t>BioPep00117</t>
-  </si>
-  <si>
-    <t>P35904</t>
-  </si>
-  <si>
-    <t>BioPep00118</t>
-  </si>
-  <si>
-    <t>P29002</t>
-  </si>
-  <si>
-    <t>BioPep00119</t>
-  </si>
-  <si>
-    <t>P29004</t>
-  </si>
-  <si>
-    <t>BioPep00120</t>
-  </si>
-  <si>
-    <t>P29006</t>
-  </si>
-  <si>
-    <t>BioPep00121</t>
-  </si>
-  <si>
-    <t>BioPep00122</t>
-  </si>
-  <si>
-    <t>BioPep00123</t>
-  </si>
-  <si>
-    <t>BioPep00124</t>
-  </si>
-  <si>
-    <t>P82286</t>
-  </si>
-  <si>
-    <t>BioPep00125</t>
-  </si>
-  <si>
-    <t>BioPep00126</t>
-  </si>
-  <si>
-    <t>BioPep00127</t>
-  </si>
-  <si>
-    <t>BioPep00128</t>
-  </si>
-  <si>
-    <t>P01362</t>
-  </si>
-  <si>
-    <t>BioPep00129</t>
-  </si>
-  <si>
-    <t>P17685</t>
-  </si>
-  <si>
-    <t>BioPep00130</t>
-  </si>
-  <si>
-    <t>P17686</t>
-  </si>
-  <si>
-    <t>BioPep00131</t>
-  </si>
-  <si>
-    <t>BioPep00132</t>
-  </si>
-  <si>
-    <t>BioPep00133</t>
-  </si>
-  <si>
-    <t>BioPep00134</t>
-  </si>
-  <si>
-    <t>BioPep00135</t>
-  </si>
-  <si>
-    <t>BioPep00136</t>
-  </si>
-  <si>
-    <t>BioPep00137</t>
-  </si>
-  <si>
-    <t>BioPep00138</t>
-  </si>
-  <si>
-    <t>P30811</t>
-  </si>
-  <si>
-    <t>BioPep00139</t>
-  </si>
-  <si>
-    <t>P23028</t>
-  </si>
-  <si>
-    <t>BioPep00140</t>
-  </si>
-  <si>
-    <t>P04084</t>
-  </si>
-  <si>
-    <t>BioPep00141</t>
-  </si>
-  <si>
-    <t>A4VBF0</t>
-  </si>
-  <si>
-    <t>BioPep00142</t>
-  </si>
-  <si>
-    <t>Q10754</t>
-  </si>
-  <si>
-    <t>BioPep00143</t>
-  </si>
-  <si>
-    <t>Q8JFG1</t>
-  </si>
-  <si>
-    <t>BioPep00144</t>
-  </si>
-  <si>
-    <t>P01538</t>
-  </si>
-  <si>
-    <t>BioPep00145</t>
-  </si>
-  <si>
-    <t>P01543</t>
-  </si>
-  <si>
-    <t>BioPep00146</t>
-  </si>
-  <si>
-    <t>P01544</t>
-  </si>
-  <si>
-    <t>BioPep00147</t>
-  </si>
-  <si>
-    <t>P01545</t>
-  </si>
-  <si>
-    <t>BioPep00148</t>
-  </si>
-  <si>
-    <t>P08772</t>
-  </si>
-  <si>
-    <t>BioPep00149</t>
-  </si>
-  <si>
-    <t>P08943</t>
-  </si>
-  <si>
-    <t>BioPep00150</t>
-  </si>
-  <si>
-    <t>P09617</t>
-  </si>
-  <si>
-    <t>BioPep00151</t>
-  </si>
-  <si>
-    <t>P09618</t>
-  </si>
-  <si>
-    <t>BioPep00152</t>
-  </si>
-  <si>
-    <t>P21742</t>
-  </si>
-  <si>
-    <t>BioPep00153</t>
-  </si>
-  <si>
-    <t>P32032</t>
-  </si>
-  <si>
-    <t>BioPep00154</t>
-  </si>
-  <si>
-    <t>Q05806</t>
-  </si>
-  <si>
-    <t>BioPep00155</t>
-  </si>
-  <si>
-    <t>Q42596</t>
-  </si>
-  <si>
-    <t>BioPep00156</t>
-  </si>
-  <si>
-    <t>Q42597</t>
-  </si>
-  <si>
-    <t>BioPep00157</t>
-  </si>
-  <si>
-    <t>Q42838</t>
-  </si>
-  <si>
-    <t>BioPep00158</t>
-  </si>
-  <si>
-    <t>Q8H0Q5</t>
-  </si>
-  <si>
-    <t>BioPep00159</t>
-  </si>
-  <si>
-    <t>Q8VZK8</t>
-  </si>
-  <si>
-    <t>BioPep00160</t>
-  </si>
-  <si>
-    <t>Q9C8D6</t>
-  </si>
-  <si>
-    <t>BioPep00161</t>
-  </si>
-  <si>
-    <t>Q9SBK8</t>
-  </si>
-  <si>
-    <t>BioPep00162</t>
-  </si>
-  <si>
-    <t>P23785</t>
-  </si>
-  <si>
-    <t>BioPep00163</t>
-  </si>
-  <si>
-    <t>P28797</t>
-  </si>
-  <si>
-    <t>BioPep00164</t>
-  </si>
-  <si>
-    <t>P28798</t>
-  </si>
-  <si>
-    <t>BioPep00165</t>
-  </si>
-  <si>
-    <t>P28799</t>
-  </si>
-  <si>
-    <t>BioPep00166</t>
-  </si>
-  <si>
-    <t>Q3C258</t>
-  </si>
-  <si>
-    <t>BioPep00167</t>
-  </si>
-  <si>
-    <t>Q3C257</t>
-  </si>
-  <si>
-    <t>BioPep00168</t>
-  </si>
-  <si>
-    <t>Q3C256</t>
-  </si>
-  <si>
-    <t>BioPep00169</t>
-  </si>
-  <si>
-    <t>Q3C255</t>
-  </si>
-  <si>
-    <t>BioPep00170</t>
-  </si>
-  <si>
-    <t>A0A060QMI6</t>
-  </si>
-  <si>
-    <t>BioPep00171</t>
-  </si>
-  <si>
-    <t>Q6V1X3</t>
-  </si>
-  <si>
-    <t>BioPep00172</t>
-  </si>
-  <si>
-    <t>Q6V1X4</t>
-  </si>
-  <si>
-    <t>BioPep00173</t>
-  </si>
-  <si>
-    <t>Q6V1X5</t>
-  </si>
-  <si>
-    <t>BioPep00174</t>
-  </si>
-  <si>
-    <t>Q6V1X6</t>
-  </si>
-  <si>
-    <t>BioPep00175</t>
-  </si>
-  <si>
-    <t>Q2TM75</t>
-  </si>
-  <si>
-    <t>BioPep00176</t>
-  </si>
-  <si>
-    <t>Q6X2S3</t>
-  </si>
-  <si>
-    <t>BioPep00177</t>
-  </si>
-  <si>
-    <t>Q95KP1</t>
-  </si>
-  <si>
-    <t>BioPep00178</t>
-  </si>
-  <si>
-    <t>Q95KP2</t>
-  </si>
-  <si>
-    <t>BioPep00179</t>
-  </si>
-  <si>
-    <t>Q9DGE6</t>
-  </si>
-  <si>
-    <t>BioPep00180</t>
-  </si>
-  <si>
-    <t>Q9DGE7</t>
-  </si>
-  <si>
-    <t>BioPep00181</t>
-  </si>
-  <si>
-    <t>Q9DGE8</t>
-  </si>
-  <si>
-    <t>BioPep00182</t>
-  </si>
-  <si>
-    <t>Q9DGE9</t>
-  </si>
-  <si>
-    <t>BioPep00183</t>
-  </si>
-  <si>
-    <t>Q9DGF0</t>
-  </si>
-  <si>
-    <t>BioPep00184</t>
-  </si>
-  <si>
-    <t>Q9DGF1</t>
-  </si>
-  <si>
-    <t>BioPep00185</t>
-  </si>
-  <si>
-    <t>Q9DGF2</t>
-  </si>
-  <si>
-    <t>BioPep00186</t>
-  </si>
-  <si>
-    <t>O34163</t>
-  </si>
-  <si>
-    <t>BioPep00187</t>
-  </si>
-  <si>
-    <t>P31107</t>
-  </si>
-  <si>
-    <t>BioPep00188</t>
-  </si>
-  <si>
-    <t>C8Z3D5</t>
-  </si>
-  <si>
-    <t>BioPep00189</t>
-  </si>
-  <si>
-    <t>Q16NE8</t>
-  </si>
-  <si>
-    <t>BioPep00190</t>
-  </si>
-  <si>
-    <t>BioPep00191</t>
-  </si>
-  <si>
-    <t>P18829</t>
-  </si>
-  <si>
-    <t>BioPep00192</t>
-  </si>
-  <si>
-    <t>P18830</t>
-  </si>
-  <si>
-    <t>BioPep00193</t>
-  </si>
-  <si>
-    <t>P55319</t>
-  </si>
-  <si>
-    <t>BioPep00194</t>
-  </si>
-  <si>
-    <t>BioPep00195</t>
-  </si>
-  <si>
-    <t>C8Z3D4</t>
-  </si>
-  <si>
-    <t>BioPep00196</t>
-  </si>
-  <si>
-    <t>C8Z3D9</t>
-  </si>
-  <si>
-    <t>BioPep00197</t>
-  </si>
-  <si>
-    <t>BioPep00198</t>
-  </si>
-  <si>
-    <t>BioPep00199</t>
-  </si>
-  <si>
-    <t>P08379</t>
-  </si>
-  <si>
-    <t>BioPep00200</t>
-  </si>
-  <si>
-    <t>P35807</t>
-  </si>
-  <si>
-    <t>BioPep00201</t>
-  </si>
-  <si>
-    <t>P35808</t>
-  </si>
-  <si>
-    <t>BioPep00202</t>
-  </si>
-  <si>
-    <t>P19872</t>
-  </si>
-  <si>
-    <t>BioPep00203</t>
-  </si>
-  <si>
-    <t>P67785</t>
-  </si>
-  <si>
-    <t>BioPep00204</t>
-  </si>
-  <si>
-    <t>BioPep00205</t>
-  </si>
-  <si>
-    <t>A0ZWH7</t>
-  </si>
-  <si>
-    <t>BioPep00206</t>
-  </si>
-  <si>
-    <t>BioPep00207</t>
-  </si>
-  <si>
-    <t>BioPep00208</t>
-  </si>
-  <si>
-    <t>BioPep00209</t>
-  </si>
-  <si>
-    <t>BioPep00210</t>
-  </si>
-  <si>
-    <t>BioPep00211</t>
-  </si>
-  <si>
-    <t>BioPep00212</t>
-  </si>
-  <si>
-    <t>BioPep00213</t>
-  </si>
-  <si>
-    <t>BioPep00214</t>
-  </si>
-  <si>
-    <t>B0M2U5</t>
-  </si>
-  <si>
-    <t>BioPep00215</t>
-  </si>
-  <si>
-    <t>B0M3C0</t>
-  </si>
-  <si>
-    <t>BioPep00216</t>
-  </si>
-  <si>
-    <t>B0M3E1</t>
-  </si>
-  <si>
-    <t>BioPep00217</t>
-  </si>
-  <si>
-    <t>B3A056</t>
-  </si>
-  <si>
-    <t>BioPep00218</t>
-  </si>
-  <si>
-    <t>B3A075</t>
-  </si>
-  <si>
-    <t>BioPep00219</t>
-  </si>
-  <si>
-    <t>B3A094</t>
-  </si>
-  <si>
-    <t>BioPep00220</t>
-  </si>
-  <si>
-    <t>B3A0B4</t>
-  </si>
-  <si>
-    <t>BioPep00221</t>
-  </si>
-  <si>
-    <t>B3A0D3</t>
-  </si>
-  <si>
-    <t>BioPep00222</t>
-  </si>
-  <si>
-    <t>B3A0F2</t>
-  </si>
-  <si>
-    <t>BioPep00223</t>
-  </si>
-  <si>
-    <t>B3A0H0</t>
-  </si>
-  <si>
-    <t>BioPep00224</t>
-  </si>
-  <si>
-    <t>B3A0J0</t>
-  </si>
-  <si>
-    <t>BioPep00225</t>
-  </si>
-  <si>
-    <t>B3A0K9</t>
-  </si>
-  <si>
-    <t>BioPep00226</t>
-  </si>
-  <si>
-    <t>B3EWM7</t>
-  </si>
-  <si>
-    <t>BioPep00227</t>
-  </si>
-  <si>
-    <t>D8KXX1</t>
-  </si>
-  <si>
-    <t>BioPep00228</t>
-  </si>
-  <si>
-    <t>P14595</t>
-  </si>
-  <si>
-    <t>BioPep00229</t>
-  </si>
-  <si>
-    <t>P25418</t>
-  </si>
-  <si>
-    <t>BioPep00230</t>
-  </si>
-  <si>
-    <t>P61855</t>
-  </si>
-  <si>
-    <t>BioPep00231</t>
-  </si>
-  <si>
-    <t>P61856</t>
-  </si>
-  <si>
-    <t>BioPep00232</t>
-  </si>
-  <si>
-    <t>P67786</t>
-  </si>
-  <si>
-    <t>BioPep00233</t>
-  </si>
-  <si>
-    <t>P67787</t>
-  </si>
-  <si>
-    <t>BioPep00234</t>
-  </si>
-  <si>
-    <t>P67788</t>
-  </si>
-  <si>
-    <t>BioPep00235</t>
-  </si>
-  <si>
-    <t>P84240</t>
-  </si>
-  <si>
-    <t>BioPep00236</t>
-  </si>
-  <si>
-    <t>P84241</t>
-  </si>
-  <si>
-    <t>BioPep00237</t>
-  </si>
-  <si>
-    <t>P84242</t>
-  </si>
-  <si>
-    <t>BioPep00238</t>
-  </si>
-  <si>
-    <t>Q5EY02</t>
-  </si>
-  <si>
-    <t>BioPep00239</t>
-  </si>
-  <si>
-    <t>F8R0Y2</t>
-  </si>
-  <si>
-    <t>BioPep00240</t>
-  </si>
-  <si>
-    <t>BioPep00241</t>
-  </si>
-  <si>
-    <t>BioPep00242</t>
-  </si>
-  <si>
-    <t>BioPep00243</t>
-  </si>
-  <si>
-    <t>BioPep00244</t>
-  </si>
-  <si>
-    <t>BioPep00245</t>
-  </si>
-  <si>
-    <t>BioPep00246</t>
-  </si>
-  <si>
-    <t>BioPep00247</t>
-  </si>
-  <si>
-    <t>BioPep00248</t>
-  </si>
-  <si>
-    <t>Q5T7M4</t>
-  </si>
-  <si>
-    <t>BioPep00249</t>
-  </si>
-  <si>
-    <t>Q8R2Z0</t>
-  </si>
-  <si>
-    <t>BioPep00250</t>
-  </si>
-  <si>
-    <t>BioPep00251</t>
-  </si>
-  <si>
-    <t>BioPep00252</t>
-  </si>
-  <si>
-    <t>A1A5X5</t>
-  </si>
-  <si>
-    <t>BioPep00253</t>
-  </si>
-  <si>
-    <t>A4IH36</t>
-  </si>
-  <si>
-    <t>BioPep00254</t>
-  </si>
-  <si>
-    <t>P75409</t>
-  </si>
-  <si>
-    <t>BioPep00255</t>
-  </si>
-  <si>
-    <t>Q93Q17</t>
-  </si>
-  <si>
-    <t>BioPep00256</t>
-  </si>
-  <si>
-    <t>O62827</t>
-  </si>
-  <si>
-    <t>BioPep00257</t>
-  </si>
-  <si>
-    <t>O77559</t>
-  </si>
-  <si>
-    <t>BioPep00258</t>
-  </si>
-  <si>
-    <t>P35318</t>
-  </si>
-  <si>
-    <t>BioPep00259</t>
-  </si>
-  <si>
-    <t>P43145</t>
-  </si>
-  <si>
-    <t>BioPep00260</t>
-  </si>
-  <si>
-    <t>P53366</t>
-  </si>
-  <si>
-    <t>BioPep00261</t>
-  </si>
-  <si>
-    <t>P97297</t>
-  </si>
-  <si>
-    <t>BioPep00262</t>
-  </si>
-  <si>
-    <t>BioPep00263</t>
-  </si>
-  <si>
-    <t>P61312</t>
-  </si>
-  <si>
-    <t>BioPep00264</t>
-  </si>
-  <si>
-    <t>Q7TNK8</t>
-  </si>
-  <si>
-    <t>BioPep00265</t>
-  </si>
-  <si>
-    <t>Q7Z4H4</t>
-  </si>
-  <si>
-    <t>BioPep00266</t>
-  </si>
-  <si>
-    <t>A5LHG2</t>
-  </si>
-  <si>
-    <t>BioPep00267</t>
-  </si>
-  <si>
-    <t>P09166</t>
-  </si>
-  <si>
-    <t>BioPep00268</t>
-  </si>
-  <si>
-    <t>P09167</t>
-  </si>
-  <si>
-    <t>BioPep00269</t>
-  </si>
-  <si>
-    <t>Q06304</t>
-  </si>
-  <si>
-    <t>BioPep00270</t>
-  </si>
-  <si>
-    <t>Q08676</t>
-  </si>
-  <si>
-    <t>BioPep00271</t>
-  </si>
-  <si>
-    <t>Q06305</t>
-  </si>
-  <si>
-    <t>BioPep00272</t>
-  </si>
-  <si>
-    <t>Q06303</t>
-  </si>
-  <si>
-    <t>BioPep00273</t>
-  </si>
-  <si>
-    <t>Q06306</t>
-  </si>
-  <si>
-    <t>BioPep00274</t>
-  </si>
-  <si>
-    <t>P24856</t>
-  </si>
-  <si>
-    <t>BioPep00275</t>
-  </si>
-  <si>
-    <t>BioPep00276</t>
-  </si>
-  <si>
-    <t>BioPep00277</t>
-  </si>
-  <si>
-    <t>BioPep00278</t>
-  </si>
-  <si>
-    <t>BioPep00279</t>
-  </si>
-  <si>
-    <t>BioPep00280</t>
-  </si>
-  <si>
-    <t>BioPep00281</t>
-  </si>
-  <si>
-    <t>BioPep00282</t>
-  </si>
-  <si>
-    <t>O61466</t>
-  </si>
-  <si>
-    <t>BioPep00283</t>
-  </si>
-  <si>
-    <t>P69436</t>
-  </si>
-  <si>
-    <t>BioPep00284</t>
-  </si>
-  <si>
-    <t>P84797</t>
-  </si>
-  <si>
-    <t>BioPep00285</t>
-  </si>
-  <si>
-    <t>BioPep00286</t>
-  </si>
-  <si>
-    <t>BioPep00287</t>
-  </si>
-  <si>
-    <t>BioPep00288</t>
-  </si>
-  <si>
-    <t>BioPep00289</t>
-  </si>
-  <si>
-    <t>BioPep00290</t>
-  </si>
-  <si>
-    <t>P62926</t>
-  </si>
-  <si>
-    <t>BioPep00291</t>
-  </si>
-  <si>
-    <t>BioPep00292</t>
-  </si>
-  <si>
-    <t>P62927</t>
-  </si>
-  <si>
-    <t>BioPep00293</t>
-  </si>
-  <si>
-    <t>BioPep00294</t>
-  </si>
-  <si>
-    <t>P62928</t>
-  </si>
-  <si>
-    <t>BioPep00295</t>
-  </si>
-  <si>
-    <t>BioPep00296</t>
-  </si>
-  <si>
     <t>Q39837</t>
   </si>
   <si>
-    <t>BioPep00297</t>
-  </si>
-  <si>
-    <t>Q96474</t>
-  </si>
-  <si>
-    <t>BioPep00298</t>
-  </si>
-  <si>
-    <t>Q9FRT8</t>
-  </si>
-  <si>
-    <t>BioPep00299</t>
-  </si>
-  <si>
-    <t>Q9FRT9</t>
-  </si>
-  <si>
-    <t>BioPep00300</t>
-  </si>
-  <si>
-    <t>Q9ZQX0</t>
+    <t>BioPep00301</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +397,7 @@
   <dimension ref="A1:D9119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B252"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1739,2011 +422,1011 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>171</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>195</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A117" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>219</v>
-      </c>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A122" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>223</v>
-      </c>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A123" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A125" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A126" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>231</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A127" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A128" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A129" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A130" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A131" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A132" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>243</v>
-      </c>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A133" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A134" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A135" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>251</v>
-      </c>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A137" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>253</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A138" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>257</v>
-      </c>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A140" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>259</v>
-      </c>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A141" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A142" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>259</v>
-      </c>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A143" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>264</v>
-      </c>
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A144" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>266</v>
-      </c>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A145" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>268</v>
-      </c>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A146" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A147" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A148" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A149" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A150" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A151" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>277</v>
-      </c>
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A152" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>279</v>
-      </c>
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A153" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A154" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A155" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A156" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>264</v>
-      </c>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A157" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>288</v>
-      </c>
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A158" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>288</v>
-      </c>
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A159" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>264</v>
-      </c>
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A160" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>266</v>
-      </c>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A161" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>268</v>
-      </c>
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A162" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>277</v>
-      </c>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A163" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>279</v>
-      </c>
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A164" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A165" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A166" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A167" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>300</v>
-      </c>
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A168" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>302</v>
-      </c>
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A169" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>304</v>
-      </c>
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A170" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>306</v>
-      </c>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A171" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>308</v>
-      </c>
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A172" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A173" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>312</v>
-      </c>
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A174" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>314</v>
-      </c>
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A175" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>316</v>
-      </c>
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A176" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>318</v>
-      </c>
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A177" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A178" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>322</v>
-      </c>
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A179" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>324</v>
-      </c>
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A180" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>326</v>
-      </c>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A181" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A182" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>330</v>
-      </c>
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A183" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>332</v>
-      </c>
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A184" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>334</v>
-      </c>
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A185" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>336</v>
-      </c>
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A186" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>338</v>
-      </c>
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A187" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A188" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>342</v>
-      </c>
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A189" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A190" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>346</v>
-      </c>
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A191" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>348</v>
-      </c>
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A192" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>264</v>
-      </c>
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A193" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>266</v>
-      </c>
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A194" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>268</v>
-      </c>
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A195" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>277</v>
-      </c>
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A196" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>279</v>
-      </c>
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A197" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A198" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A199" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>338</v>
-      </c>
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A200" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A201" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>360</v>
-      </c>
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A202" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A203" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>360</v>
-      </c>
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A204" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>364</v>
-      </c>
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A205" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>366</v>
-      </c>
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A206" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A207" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>370</v>
-      </c>
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A208" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>372</v>
-      </c>
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A209" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>374</v>
-      </c>
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A210" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>376</v>
-      </c>
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A211" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>378</v>
-      </c>
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A212" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>380</v>
-      </c>
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A213" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A214" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>372</v>
-      </c>
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A215" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>385</v>
-      </c>
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A216" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>387</v>
-      </c>
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A217" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>389</v>
-      </c>
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A218" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>391</v>
-      </c>
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A219" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A220" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>395</v>
-      </c>
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A221" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A222" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>399</v>
-      </c>
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A223" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>401</v>
-      </c>
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A224" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>403</v>
-      </c>
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A225" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>405</v>
-      </c>
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A226" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>407</v>
-      </c>
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A227" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>407</v>
-      </c>
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A228" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>407</v>
-      </c>
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A229" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>407</v>
-      </c>
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A230" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>407</v>
-      </c>
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A231" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>407</v>
-      </c>
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A232" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>407</v>
-      </c>
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A233" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>407</v>
-      </c>
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A234" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>416</v>
-      </c>
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A235" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>418</v>
-      </c>
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A236" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>420</v>
-      </c>
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A237" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A238" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A239" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>259</v>
-      </c>
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A240" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A241" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A242" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>427</v>
-      </c>
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A243" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>427</v>
-      </c>
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A244" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A245" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A246" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>433</v>
-      </c>
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A247" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>433</v>
-      </c>
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A248" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>436</v>
-      </c>
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A249" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>438</v>
-      </c>
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A250" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>440</v>
-      </c>
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A251" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>442</v>
-      </c>
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A252" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>444</v>
-      </c>
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="1"/>
@@ -3998,264 +1681,264 @@
       <c r="B315" s="1"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A316" s="2"/>
-      <c r="B316" s="2"/>
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A317" s="2"/>
-      <c r="B317" s="2"/>
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A318" s="2"/>
-      <c r="B318" s="2"/>
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A319" s="2"/>
-      <c r="B319" s="2"/>
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A320" s="2"/>
-      <c r="B320" s="2"/>
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A321" s="2"/>
-      <c r="B321" s="2"/>
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A322" s="2"/>
-      <c r="B322" s="2"/>
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A324" s="2"/>
-      <c r="B324" s="2"/>
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A325" s="2"/>
-      <c r="B325" s="2"/>
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A328" s="2"/>
-      <c r="B328" s="2"/>
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A329" s="2"/>
-      <c r="B329" s="2"/>
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A330" s="2"/>
-      <c r="B330" s="2"/>
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A331" s="2"/>
-      <c r="B331" s="2"/>
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A332" s="2"/>
-      <c r="B332" s="2"/>
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A333" s="2"/>
-      <c r="B333" s="2"/>
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A334" s="2"/>
-      <c r="B334" s="2"/>
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2"/>
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2"/>
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A339" s="2"/>
-      <c r="B339" s="2"/>
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A344" s="2"/>
-      <c r="B344" s="2"/>
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A345" s="2"/>
-      <c r="B345" s="2"/>
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2"/>
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2"/>
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2"/>
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A356" s="2"/>
-      <c r="B356" s="2"/>
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2"/>
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2"/>
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A361" s="2"/>
-      <c r="B361" s="2"/>
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A362" s="2"/>
-      <c r="B362" s="2"/>
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A364" s="2"/>
-      <c r="B364" s="2"/>
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A365" s="2"/>
-      <c r="B365" s="2"/>
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A369" s="2"/>
-      <c r="B369" s="2"/>
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A370" s="2"/>
-      <c r="B370" s="2"/>
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A371" s="2"/>
-      <c r="B371" s="2"/>
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A376" s="2"/>
-      <c r="B376" s="2"/>
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A377" s="2"/>
-      <c r="B377" s="2"/>
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A378" s="2"/>
-      <c r="B378" s="2"/>
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A379" s="2"/>
-      <c r="B379" s="2"/>
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A380" s="2"/>
-      <c r="B380" s="2"/>
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" s="2"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="340">
   <si>
     <t>ID</t>
   </si>
@@ -30,10 +30,1012 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q39837</t>
+    <t>BioPep02311</t>
   </si>
   <si>
-    <t>BioPep00301</t>
+    <t>P0C5X3</t>
+  </si>
+  <si>
+    <t>BioPep02312</t>
+  </si>
+  <si>
+    <t>P0C5X4</t>
+  </si>
+  <si>
+    <t>BioPep02313</t>
+  </si>
+  <si>
+    <t>P0C5X5</t>
+  </si>
+  <si>
+    <t>BioPep02314</t>
+  </si>
+  <si>
+    <t>P32413</t>
+  </si>
+  <si>
+    <t>BioPep02315</t>
+  </si>
+  <si>
+    <t>P40837</t>
+  </si>
+  <si>
+    <t>BioPep02316</t>
+  </si>
+  <si>
+    <t>P40838</t>
+  </si>
+  <si>
+    <t>BioPep02317</t>
+  </si>
+  <si>
+    <t>P40839</t>
+  </si>
+  <si>
+    <t>BioPep02318</t>
+  </si>
+  <si>
+    <t>P84842</t>
+  </si>
+  <si>
+    <t>BioPep02319</t>
+  </si>
+  <si>
+    <t>P86151</t>
+  </si>
+  <si>
+    <t>BioPep02320</t>
+  </si>
+  <si>
+    <t>P40840</t>
+  </si>
+  <si>
+    <t>BioPep02321</t>
+  </si>
+  <si>
+    <t>P40841</t>
+  </si>
+  <si>
+    <t>BioPep02322</t>
+  </si>
+  <si>
+    <t>P40842</t>
+  </si>
+  <si>
+    <t>BioPep02323</t>
+  </si>
+  <si>
+    <t>P86153</t>
+  </si>
+  <si>
+    <t>BioPep02324</t>
+  </si>
+  <si>
+    <t>P86154</t>
+  </si>
+  <si>
+    <t>BioPep02325</t>
+  </si>
+  <si>
+    <t>P86152</t>
+  </si>
+  <si>
+    <t>BioPep02326</t>
+  </si>
+  <si>
+    <t>P84860</t>
+  </si>
+  <si>
+    <t>BioPep02327</t>
+  </si>
+  <si>
+    <t>A0AEI5</t>
+  </si>
+  <si>
+    <t>BioPep02328</t>
+  </si>
+  <si>
+    <t>A0AEI6</t>
+  </si>
+  <si>
+    <t>BioPep02329</t>
+  </si>
+  <si>
+    <t>B4ERK4</t>
+  </si>
+  <si>
+    <t>BioPep02330</t>
+  </si>
+  <si>
+    <t>E7EKE0</t>
+  </si>
+  <si>
+    <t>BioPep02331</t>
+  </si>
+  <si>
+    <t>E7EKE1</t>
+  </si>
+  <si>
+    <t>BioPep02332</t>
+  </si>
+  <si>
+    <t>P0C8S9</t>
+  </si>
+  <si>
+    <t>BioPep02333</t>
+  </si>
+  <si>
+    <t>P0C8T0</t>
+  </si>
+  <si>
+    <t>BioPep02334</t>
+  </si>
+  <si>
+    <t>B3A0M3</t>
+  </si>
+  <si>
+    <t>BioPep02335</t>
+  </si>
+  <si>
+    <t>G3E7P5</t>
+  </si>
+  <si>
+    <t>BioPep02336</t>
+  </si>
+  <si>
+    <t>G3E7P6</t>
+  </si>
+  <si>
+    <t>BioPep02337</t>
+  </si>
+  <si>
+    <t>G3E7P7</t>
+  </si>
+  <si>
+    <t>BioPep02338</t>
+  </si>
+  <si>
+    <t>G3E7P8</t>
+  </si>
+  <si>
+    <t>BioPep02339</t>
+  </si>
+  <si>
+    <t>G3E7P9</t>
+  </si>
+  <si>
+    <t>BioPep02340</t>
+  </si>
+  <si>
+    <t>G3E7Q0</t>
+  </si>
+  <si>
+    <t>BioPep02341</t>
+  </si>
+  <si>
+    <t>G3E7Q1</t>
+  </si>
+  <si>
+    <t>BioPep02342</t>
+  </si>
+  <si>
+    <t>P0C8T3</t>
+  </si>
+  <si>
+    <t>BioPep02343</t>
+  </si>
+  <si>
+    <t>P0C8T4</t>
+  </si>
+  <si>
+    <t>BioPep02344</t>
+  </si>
+  <si>
+    <t>P0C8T5</t>
+  </si>
+  <si>
+    <t>BioPep02345</t>
+  </si>
+  <si>
+    <t>P0C8T6</t>
+  </si>
+  <si>
+    <t>BioPep02346</t>
+  </si>
+  <si>
+    <t>P0C8T7</t>
+  </si>
+  <si>
+    <t>BioPep02347</t>
+  </si>
+  <si>
+    <t>P85095</t>
+  </si>
+  <si>
+    <t>BioPep02348</t>
+  </si>
+  <si>
+    <t>P86022</t>
+  </si>
+  <si>
+    <t>BioPep02349</t>
+  </si>
+  <si>
+    <t>P86023</t>
+  </si>
+  <si>
+    <t>BioPep02350</t>
+  </si>
+  <si>
+    <t>P86024</t>
+  </si>
+  <si>
+    <t>BioPep02351</t>
+  </si>
+  <si>
+    <t>P86025</t>
+  </si>
+  <si>
+    <t>BioPep02352</t>
+  </si>
+  <si>
+    <t>P82268</t>
+  </si>
+  <si>
+    <t>BioPep02353</t>
+  </si>
+  <si>
+    <t>P82269</t>
+  </si>
+  <si>
+    <t>BioPep02354</t>
+  </si>
+  <si>
+    <t>P82234</t>
+  </si>
+  <si>
+    <t>BioPep02355</t>
+  </si>
+  <si>
+    <t>P82235</t>
+  </si>
+  <si>
+    <t>BioPep02356</t>
+  </si>
+  <si>
+    <t>P58803</t>
+  </si>
+  <si>
+    <t>BioPep02357</t>
+  </si>
+  <si>
+    <t>P58804</t>
+  </si>
+  <si>
+    <t>BioPep02358</t>
+  </si>
+  <si>
+    <t>P83346</t>
+  </si>
+  <si>
+    <t>BioPep02359</t>
+  </si>
+  <si>
+    <t>P81782</t>
+  </si>
+  <si>
+    <t>BioPep02360</t>
+  </si>
+  <si>
+    <t>P20481</t>
+  </si>
+  <si>
+    <t>BioPep02361</t>
+  </si>
+  <si>
+    <t>BioPep02362</t>
+  </si>
+  <si>
+    <t>BioPep02363</t>
+  </si>
+  <si>
+    <t>BioPep02364</t>
+  </si>
+  <si>
+    <t>BioPep02365</t>
+  </si>
+  <si>
+    <t>BioPep02366</t>
+  </si>
+  <si>
+    <t>BioPep02367</t>
+  </si>
+  <si>
+    <t>BioPep02368</t>
+  </si>
+  <si>
+    <t>BioPep02369</t>
+  </si>
+  <si>
+    <t>BioPep02370</t>
+  </si>
+  <si>
+    <t>BioPep02371</t>
+  </si>
+  <si>
+    <t>BioPep02372</t>
+  </si>
+  <si>
+    <t>BioPep02373</t>
+  </si>
+  <si>
+    <t>BioPep02374</t>
+  </si>
+  <si>
+    <t>BioPep02375</t>
+  </si>
+  <si>
+    <t>BioPep02376</t>
+  </si>
+  <si>
+    <t>BioPep02377</t>
+  </si>
+  <si>
+    <t>BioPep02378</t>
+  </si>
+  <si>
+    <t>BioPep02379</t>
+  </si>
+  <si>
+    <t>BioPep02380</t>
+  </si>
+  <si>
+    <t>BioPep02381</t>
+  </si>
+  <si>
+    <t>C0HJB7</t>
+  </si>
+  <si>
+    <t>BioPep02382</t>
+  </si>
+  <si>
+    <t>P82815</t>
+  </si>
+  <si>
+    <t>BioPep02383</t>
+  </si>
+  <si>
+    <t>A2VB89</t>
+  </si>
+  <si>
+    <t>BioPep02384</t>
+  </si>
+  <si>
+    <t>P84118</t>
+  </si>
+  <si>
+    <t>BioPep02385</t>
+  </si>
+  <si>
+    <t>P85315</t>
+  </si>
+  <si>
+    <t>BioPep02386</t>
+  </si>
+  <si>
+    <t>P85316</t>
+  </si>
+  <si>
+    <t>BioPep02387</t>
+  </si>
+  <si>
+    <t>Q4FCM6</t>
+  </si>
+  <si>
+    <t>BioPep02388</t>
+  </si>
+  <si>
+    <t>Q566B1</t>
+  </si>
+  <si>
+    <t>BioPep02389</t>
+  </si>
+  <si>
+    <t>Q66Q82</t>
+  </si>
+  <si>
+    <t>BioPep02390</t>
+  </si>
+  <si>
+    <t>Q9VD83</t>
+  </si>
+  <si>
+    <t>BioPep02391</t>
+  </si>
+  <si>
+    <t>P56685</t>
+  </si>
+  <si>
+    <t>BioPep02392</t>
+  </si>
+  <si>
+    <t>Q6XVK6</t>
+  </si>
+  <si>
+    <t>BioPep02393</t>
+  </si>
+  <si>
+    <t>Q6XVK7</t>
+  </si>
+  <si>
+    <t>BioPep02394</t>
+  </si>
+  <si>
+    <t>Q6XVK8</t>
+  </si>
+  <si>
+    <t>BioPep02395</t>
+  </si>
+  <si>
+    <t>Q6XVK9</t>
+  </si>
+  <si>
+    <t>BioPep02396</t>
+  </si>
+  <si>
+    <t>Q6XVL1</t>
+  </si>
+  <si>
+    <t>BioPep02397</t>
+  </si>
+  <si>
+    <t>Q6XVL2</t>
+  </si>
+  <si>
+    <t>BioPep02398</t>
+  </si>
+  <si>
+    <t>Q6XVL3</t>
+  </si>
+  <si>
+    <t>BioPep02399</t>
+  </si>
+  <si>
+    <t>Q6XVL4</t>
+  </si>
+  <si>
+    <t>BioPep02400</t>
+  </si>
+  <si>
+    <t>Q6XVL5</t>
+  </si>
+  <si>
+    <t>BioPep02401</t>
+  </si>
+  <si>
+    <t>Q6XVL7</t>
+  </si>
+  <si>
+    <t>BioPep02402</t>
+  </si>
+  <si>
+    <t>Q6XVL8</t>
+  </si>
+  <si>
+    <t>BioPep02403</t>
+  </si>
+  <si>
+    <t>Q6XVM1</t>
+  </si>
+  <si>
+    <t>BioPep02404</t>
+  </si>
+  <si>
+    <t>Q6XVM2</t>
+  </si>
+  <si>
+    <t>BioPep02405</t>
+  </si>
+  <si>
+    <t>Q6XVM4</t>
+  </si>
+  <si>
+    <t>BioPep02406</t>
+  </si>
+  <si>
+    <t>Q6XVM6</t>
+  </si>
+  <si>
+    <t>BioPep02407</t>
+  </si>
+  <si>
+    <t>Q6XVM7</t>
+  </si>
+  <si>
+    <t>BioPep02408</t>
+  </si>
+  <si>
+    <t>Q6XVM8</t>
+  </si>
+  <si>
+    <t>BioPep02409</t>
+  </si>
+  <si>
+    <t>Q6XVM9</t>
+  </si>
+  <si>
+    <t>BioPep02410</t>
+  </si>
+  <si>
+    <t>Q6XVN0</t>
+  </si>
+  <si>
+    <t>BioPep02411</t>
+  </si>
+  <si>
+    <t>Q6XVN2</t>
+  </si>
+  <si>
+    <t>BioPep02412</t>
+  </si>
+  <si>
+    <t>Q6XVN3</t>
+  </si>
+  <si>
+    <t>BioPep02413</t>
+  </si>
+  <si>
+    <t>P62564</t>
+  </si>
+  <si>
+    <t>BioPep02414</t>
+  </si>
+  <si>
+    <t>P62565</t>
+  </si>
+  <si>
+    <t>BioPep02415</t>
+  </si>
+  <si>
+    <t>P62566</t>
+  </si>
+  <si>
+    <t>BioPep02416</t>
+  </si>
+  <si>
+    <t>P62567</t>
+  </si>
+  <si>
+    <t>BioPep02417</t>
+  </si>
+  <si>
+    <t>P62581</t>
+  </si>
+  <si>
+    <t>BioPep02418</t>
+  </si>
+  <si>
+    <t>P62582</t>
+  </si>
+  <si>
+    <t>BioPep02419</t>
+  </si>
+  <si>
+    <t>P56247</t>
+  </si>
+  <si>
+    <t>BioPep02420</t>
+  </si>
+  <si>
+    <t>P56248</t>
+  </si>
+  <si>
+    <t>BioPep02421</t>
+  </si>
+  <si>
+    <t>P82076</t>
+  </si>
+  <si>
+    <t>BioPep02422</t>
+  </si>
+  <si>
+    <t>P82077</t>
+  </si>
+  <si>
+    <t>BioPep02423</t>
+  </si>
+  <si>
+    <t>P82078</t>
+  </si>
+  <si>
+    <t>BioPep02424</t>
+  </si>
+  <si>
+    <t>P82051</t>
+  </si>
+  <si>
+    <t>BioPep02425</t>
+  </si>
+  <si>
+    <t>B5AKW4</t>
+  </si>
+  <si>
+    <t>BioPep02426</t>
+  </si>
+  <si>
+    <t>B5AKW5</t>
+  </si>
+  <si>
+    <t>BioPep02427</t>
+  </si>
+  <si>
+    <t>P86484</t>
+  </si>
+  <si>
+    <t>BioPep02428</t>
+  </si>
+  <si>
+    <t>P86485</t>
+  </si>
+  <si>
+    <t>BioPep02429</t>
+  </si>
+  <si>
+    <t>P62568</t>
+  </si>
+  <si>
+    <t>BioPep02430</t>
+  </si>
+  <si>
+    <t>P62569</t>
+  </si>
+  <si>
+    <t>BioPep02431</t>
+  </si>
+  <si>
+    <t>P86501</t>
+  </si>
+  <si>
+    <t>BioPep02432</t>
+  </si>
+  <si>
+    <t>Q800R2</t>
+  </si>
+  <si>
+    <t>BioPep02433</t>
+  </si>
+  <si>
+    <t>BioPep02434</t>
+  </si>
+  <si>
+    <t>BioPep02435</t>
+  </si>
+  <si>
+    <t>BioPep02436</t>
+  </si>
+  <si>
+    <t>BioPep02437</t>
+  </si>
+  <si>
+    <t>BioPep02438</t>
+  </si>
+  <si>
+    <t>BioPep02439</t>
+  </si>
+  <si>
+    <t>BioPep02440</t>
+  </si>
+  <si>
+    <t>BioPep02441</t>
+  </si>
+  <si>
+    <t>BioPep02442</t>
+  </si>
+  <si>
+    <t>BioPep02443</t>
+  </si>
+  <si>
+    <t>BioPep02444</t>
+  </si>
+  <si>
+    <t>P82104</t>
+  </si>
+  <si>
+    <t>BioPep02445</t>
+  </si>
+  <si>
+    <t>P86502</t>
+  </si>
+  <si>
+    <t>BioPep02446</t>
+  </si>
+  <si>
+    <t>P86503</t>
+  </si>
+  <si>
+    <t>BioPep02447</t>
+  </si>
+  <si>
+    <t>P0C2A6</t>
+  </si>
+  <si>
+    <t>BioPep02448</t>
+  </si>
+  <si>
+    <t>BioPep02449</t>
+  </si>
+  <si>
+    <t>BioPep02450</t>
+  </si>
+  <si>
+    <t>P0C2A7</t>
+  </si>
+  <si>
+    <t>BioPep02451</t>
+  </si>
+  <si>
+    <t>P0C2A8</t>
+  </si>
+  <si>
+    <t>BioPep02452</t>
+  </si>
+  <si>
+    <t>BioPep02453</t>
+  </si>
+  <si>
+    <t>BioPep02454</t>
+  </si>
+  <si>
+    <t>BioPep02455</t>
+  </si>
+  <si>
+    <t>P56227</t>
+  </si>
+  <si>
+    <t>BioPep02456</t>
+  </si>
+  <si>
+    <t>P56228</t>
+  </si>
+  <si>
+    <t>BioPep02457</t>
+  </si>
+  <si>
+    <t>P62544</t>
+  </si>
+  <si>
+    <t>BioPep02458</t>
+  </si>
+  <si>
+    <t>P62545</t>
+  </si>
+  <si>
+    <t>BioPep02459</t>
+  </si>
+  <si>
+    <t>BioPep02460</t>
+  </si>
+  <si>
+    <t>BioPep02461</t>
+  </si>
+  <si>
+    <t>P56230</t>
+  </si>
+  <si>
+    <t>BioPep02462</t>
+  </si>
+  <si>
+    <t>P62546</t>
+  </si>
+  <si>
+    <t>BioPep02463</t>
+  </si>
+  <si>
+    <t>P62547</t>
+  </si>
+  <si>
+    <t>BioPep02464</t>
+  </si>
+  <si>
+    <t>BioPep02465</t>
+  </si>
+  <si>
+    <t>BioPep02466</t>
+  </si>
+  <si>
+    <t>P62548</t>
+  </si>
+  <si>
+    <t>BioPep02467</t>
+  </si>
+  <si>
+    <t>P62549</t>
+  </si>
+  <si>
+    <t>BioPep02468</t>
+  </si>
+  <si>
+    <t>BioPep02469</t>
+  </si>
+  <si>
+    <t>BioPep02470</t>
+  </si>
+  <si>
+    <t>P81251</t>
+  </si>
+  <si>
+    <t>BioPep02471</t>
+  </si>
+  <si>
+    <t>P81252</t>
+  </si>
+  <si>
+    <t>BioPep02472</t>
+  </si>
+  <si>
+    <t>P56233</t>
+  </si>
+  <si>
+    <t>BioPep02473</t>
+  </si>
+  <si>
+    <t>P86504</t>
+  </si>
+  <si>
+    <t>BioPep02474</t>
+  </si>
+  <si>
+    <t>P62570</t>
+  </si>
+  <si>
+    <t>BioPep02475</t>
+  </si>
+  <si>
+    <t>P62571</t>
+  </si>
+  <si>
+    <t>BioPep02476</t>
+  </si>
+  <si>
+    <t>BioPep02477</t>
+  </si>
+  <si>
+    <t>BioPep02478</t>
+  </si>
+  <si>
+    <t>P69032</t>
+  </si>
+  <si>
+    <t>BioPep02479</t>
+  </si>
+  <si>
+    <t>P56236</t>
+  </si>
+  <si>
+    <t>BioPep02480</t>
+  </si>
+  <si>
+    <t>P56237</t>
+  </si>
+  <si>
+    <t>BioPep02481</t>
+  </si>
+  <si>
+    <t>P62562</t>
+  </si>
+  <si>
+    <t>BioPep02482</t>
+  </si>
+  <si>
+    <t>P62563</t>
+  </si>
+  <si>
+    <t>BioPep02483</t>
+  </si>
+  <si>
+    <t>P86505</t>
+  </si>
+  <si>
+    <t>BioPep02484</t>
+  </si>
+  <si>
+    <t>P56239</t>
+  </si>
+  <si>
+    <t>BioPep02485</t>
+  </si>
+  <si>
+    <t>P56240</t>
+  </si>
+  <si>
+    <t>BioPep02486</t>
+  </si>
+  <si>
+    <t>P56241</t>
+  </si>
+  <si>
+    <t>BioPep02487</t>
+  </si>
+  <si>
+    <t>P0C2A9</t>
+  </si>
+  <si>
+    <t>BioPep02488</t>
+  </si>
+  <si>
+    <t>P56242</t>
+  </si>
+  <si>
+    <t>BioPep02489</t>
+  </si>
+  <si>
+    <t>P56243</t>
+  </si>
+  <si>
+    <t>BioPep02490</t>
+  </si>
+  <si>
+    <t>P56244</t>
+  </si>
+  <si>
+    <t>BioPep02491</t>
+  </si>
+  <si>
+    <t>P86506</t>
+  </si>
+  <si>
+    <t>BioPep02492</t>
+  </si>
+  <si>
+    <t>P86507</t>
+  </si>
+  <si>
+    <t>BioPep02493</t>
+  </si>
+  <si>
+    <t>P01357</t>
+  </si>
+  <si>
+    <t>BioPep02494</t>
+  </si>
+  <si>
+    <t>P05222</t>
+  </si>
+  <si>
+    <t>BioPep02495</t>
+  </si>
+  <si>
+    <t>P05224</t>
+  </si>
+  <si>
+    <t>BioPep02496</t>
+  </si>
+  <si>
+    <t>P05225</t>
+  </si>
+  <si>
+    <t>BioPep02497</t>
+  </si>
+  <si>
+    <t>P05226</t>
+  </si>
+  <si>
+    <t>BioPep02498</t>
+  </si>
+  <si>
+    <t>P56264</t>
+  </si>
+  <si>
+    <t>BioPep02499</t>
+  </si>
+  <si>
+    <t>P86486</t>
+  </si>
+  <si>
+    <t>BioPep02500</t>
+  </si>
+  <si>
+    <t>P62541</t>
   </si>
 </sst>
 </file>
@@ -397,7 +1399,7 @@
   <dimension ref="A1:D9119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -422,767 +1424,1523 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+      <c r="A129" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+      <c r="A130" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+      <c r="A132" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+      <c r="A133" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+      <c r="A134" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+      <c r="A135" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+      <c r="A137" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+      <c r="A138" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+      <c r="A139" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+      <c r="A142" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="A144" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+      <c r="A145" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+      <c r="A146" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+      <c r="A147" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+      <c r="A148" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+      <c r="A149" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+      <c r="A150" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+      <c r="A151" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+      <c r="A152" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+      <c r="A153" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+      <c r="A154" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+      <c r="A155" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+      <c r="A157" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+      <c r="A158" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+      <c r="A159" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+      <c r="A160" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+      <c r="A162" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+      <c r="A163" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+      <c r="A165" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+      <c r="A166" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+      <c r="A167" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+      <c r="A169" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+      <c r="A171" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+      <c r="A173" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+      <c r="A174" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+      <c r="A175" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+      <c r="A176" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
+      <c r="A177" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+      <c r="A178" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+      <c r="A179" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+      <c r="A180" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+      <c r="A181" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+      <c r="A182" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+      <c r="A183" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+      <c r="A184" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+      <c r="A185" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+      <c r="A186" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+      <c r="A187" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+      <c r="A188" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+      <c r="A189" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+      <c r="A190" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+      <c r="A191" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="1"/>
